--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7954519B-F07C-469D-86A0-012C8A079CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -352,12 +358,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,13 +428,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,7 +480,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,6 +514,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -534,9 +549,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -709,18 +725,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="6" max="24" width="9.140625" style="2"/>
+    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="22" width="9.1796875" style="2"/>
+    <col min="23" max="23" width="21.1796875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="17.36328125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" customWidth="1"/>
+    <col min="26" max="26" width="20.81640625" customWidth="1"/>
+    <col min="27" max="27" width="18.6328125" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -806,7 +831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -823,22 +848,22 @@
         <v>16.625</v>
       </c>
       <c r="G2" s="2">
-        <v>-25.325</v>
+        <v>-25.324999999999999</v>
       </c>
       <c r="I2" s="2">
-        <v>1.854858544</v>
+        <v>1.8548585440000001</v>
       </c>
       <c r="J2" s="2">
         <v>1.838359364</v>
       </c>
       <c r="K2" s="2">
-        <v>-53.96555691</v>
+        <v>-53.965556909999997</v>
       </c>
       <c r="L2" s="2">
-        <v>-44.58987706</v>
+        <v>-44.589877059999999</v>
       </c>
       <c r="M2" s="2">
-        <v>469.2764955</v>
+        <v>469.27649550000001</v>
       </c>
       <c r="N2" s="2">
         <v>-11.4691794</v>
@@ -862,31 +887,31 @@
         <v>1016</v>
       </c>
       <c r="U2" s="2">
-        <v>1.416781715</v>
+        <v>1.4167817149999999</v>
       </c>
       <c r="V2" s="2">
-        <v>425.1837589</v>
+        <v>425.18375889999999</v>
       </c>
       <c r="W2" s="2">
-        <v>0.015070707</v>
+        <v>1.5070706999999999E-2</v>
       </c>
       <c r="X2" s="2">
-        <v>4.718563472</v>
+        <v>4.7185634719999996</v>
       </c>
       <c r="Y2">
-        <v>0.008798641953184449</v>
+        <v>8.7986419531844492E-3</v>
       </c>
       <c r="Z2">
-        <v>-172.6931513238711</v>
+        <v>-172.69315132387109</v>
       </c>
       <c r="AA2">
-        <v>17.01061704480112</v>
+        <v>17.010617044801119</v>
       </c>
       <c r="AB2">
-        <v>-17.00516717849454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>-17.005167178494538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -903,22 +928,22 @@
         <v>16.625</v>
       </c>
       <c r="G3" s="2">
-        <v>-25.325</v>
+        <v>-25.324999999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>1.729128111</v>
+        <v>1.7291281110000001</v>
       </c>
       <c r="J3" s="2">
         <v>1.715479588</v>
       </c>
       <c r="K3" s="2">
-        <v>-55.55691773</v>
+        <v>-55.556917730000002</v>
       </c>
       <c r="L3" s="2">
-        <v>-44.30120114</v>
+        <v>-44.301201140000003</v>
       </c>
       <c r="M3" s="2">
-        <v>538.8599707</v>
+        <v>538.85997069999996</v>
       </c>
       <c r="N3" s="2">
         <v>-12.81416447</v>
@@ -942,31 +967,31 @@
         <v>1016</v>
       </c>
       <c r="U3" s="2">
-        <v>1.416781715</v>
+        <v>1.4167817149999999</v>
       </c>
       <c r="V3" s="2">
-        <v>425.1837589</v>
+        <v>425.18375889999999</v>
       </c>
       <c r="W3" s="2">
-        <v>0.015070707</v>
+        <v>1.5070706999999999E-2</v>
       </c>
       <c r="X3" s="2">
-        <v>4.718563472</v>
+        <v>4.7185634719999996</v>
       </c>
       <c r="Y3">
-        <v>0.006887947828064882</v>
+        <v>6.8879478280648816E-3</v>
       </c>
       <c r="Z3">
         <v>-211.6228605855236</v>
       </c>
       <c r="AA3">
-        <v>20.39572153597504</v>
+        <v>20.395721535975039</v>
       </c>
       <c r="AB3">
-        <v>-17.81491769577603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>-17.814917695776028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -980,10 +1005,10 @@
         <v>84</v>
       </c>
       <c r="F4" s="2">
-        <v>16.40166666666667</v>
+        <v>16.401666666666671</v>
       </c>
       <c r="G4" s="2">
-        <v>-27.51833333333333</v>
+        <v>-27.518333333333331</v>
       </c>
       <c r="I4" s="2">
         <v>1.827733279</v>
@@ -992,13 +1017,13 @@
         <v>1.818951363</v>
       </c>
       <c r="K4" s="2">
-        <v>-57.17365711</v>
+        <v>-57.173657110000001</v>
       </c>
       <c r="L4" s="2">
-        <v>-50.1799983</v>
+        <v>-50.179998300000001</v>
       </c>
       <c r="M4" s="2">
-        <v>417.8617881</v>
+        <v>417.86178810000001</v>
       </c>
       <c r="N4" s="2">
         <v>-10.15790574</v>
@@ -1022,19 +1047,19 @@
         <v>1014.7</v>
       </c>
       <c r="U4" s="2">
-        <v>1.689915889</v>
+        <v>1.6899158889999999</v>
       </c>
       <c r="V4" s="2">
-        <v>376.8963027</v>
+        <v>376.89630269999998</v>
       </c>
       <c r="W4" s="2">
-        <v>0.017946143</v>
+        <v>1.7946143000000001E-2</v>
       </c>
       <c r="X4" s="2">
-        <v>4.202315122</v>
+        <v>4.2023151219999999</v>
       </c>
       <c r="Y4">
-        <v>0.004306602754563635</v>
+        <v>4.3066027545636352E-3</v>
       </c>
       <c r="Z4">
         <v>-363.7047473983144</v>
@@ -1043,10 +1068,10 @@
         <v>14.3678220560186</v>
       </c>
       <c r="AB4">
-        <v>-15.32278682692601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>-15.322786826926009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1060,28 +1085,28 @@
         <v>84</v>
       </c>
       <c r="F5" s="2">
-        <v>16.40166666666667</v>
+        <v>16.401666666666671</v>
       </c>
       <c r="G5" s="2">
-        <v>-27.51833333333333</v>
+        <v>-27.518333333333331</v>
       </c>
       <c r="I5" s="2">
-        <v>1.892697142</v>
+        <v>1.8926971420000001</v>
       </c>
       <c r="J5" s="2">
         <v>1.893364477</v>
       </c>
       <c r="K5" s="2">
-        <v>-56.91668561</v>
+        <v>-56.916685610000002</v>
       </c>
       <c r="L5" s="2">
-        <v>-53.48899268</v>
+        <v>-53.488992680000003</v>
       </c>
       <c r="M5" s="2">
-        <v>419.7343577</v>
+        <v>419.73435769999998</v>
       </c>
       <c r="N5" s="2">
-        <v>-7.202194743</v>
+        <v>-7.2021947429999997</v>
       </c>
       <c r="O5" s="2">
         <v>36.36</v>
@@ -1102,31 +1127,31 @@
         <v>1014.7</v>
       </c>
       <c r="U5" s="2">
-        <v>1.689915889</v>
+        <v>1.6899158889999999</v>
       </c>
       <c r="V5" s="2">
-        <v>376.8963027</v>
+        <v>376.89630269999998</v>
       </c>
       <c r="W5" s="2">
-        <v>0.017946143</v>
+        <v>1.7946143000000001E-2</v>
       </c>
       <c r="X5" s="2">
-        <v>4.202315122</v>
+        <v>4.2023151219999999</v>
       </c>
       <c r="Y5">
-        <v>0.005311198567769924</v>
+        <v>5.3111985677699236E-3</v>
       </c>
       <c r="Z5">
-        <v>-304.5142257534653</v>
+        <v>-304.51422575346533</v>
       </c>
       <c r="AA5">
-        <v>14.53411350266446</v>
+        <v>14.534113502664461</v>
       </c>
       <c r="AB5">
-        <v>-11.2572590961969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>-11.257259096196901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1143,7 +1168,7 @@
         <v>16.31666666666667</v>
       </c>
       <c r="G6" s="2">
-        <v>-30.58166666666667</v>
+        <v>-30.581666666666671</v>
       </c>
       <c r="I6" s="2">
         <v>1.902199728</v>
@@ -1152,19 +1177,19 @@
         <v>1.882740064</v>
       </c>
       <c r="K6" s="2">
-        <v>-58.01870302</v>
+        <v>-58.018703019999997</v>
       </c>
       <c r="L6" s="2">
         <v>-45.77729257</v>
       </c>
       <c r="M6" s="2">
-        <v>407.8454298</v>
+        <v>407.84542979999998</v>
       </c>
       <c r="N6" s="2">
         <v>-9.200775621</v>
       </c>
       <c r="O6" s="2">
-        <v>36.41</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="P6" s="2">
         <v>7.5</v>
@@ -1182,31 +1207,31 @@
         <v>1014.9</v>
       </c>
       <c r="U6" s="2">
-        <v>1.867134703</v>
+        <v>1.8671347030000001</v>
       </c>
       <c r="V6" s="2">
-        <v>445.1634582</v>
+        <v>445.16345819999998</v>
       </c>
       <c r="W6" s="2">
-        <v>0.019807886</v>
+        <v>1.9807886E-2</v>
       </c>
       <c r="X6" s="2">
-        <v>4.958451334</v>
+        <v>4.9584513340000003</v>
       </c>
       <c r="Y6">
-        <v>0.003139319204959878</v>
+        <v>3.1393192049598779E-3</v>
       </c>
       <c r="Z6">
-        <v>-526.3773623224646</v>
+        <v>-526.37736232246459</v>
       </c>
       <c r="AA6">
-        <v>13.03478672430987</v>
+        <v>13.034786724309869</v>
       </c>
       <c r="AB6">
-        <v>-15.79878010747104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>-15.798780107471041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1223,28 +1248,28 @@
         <v>16.31666666666667</v>
       </c>
       <c r="G7" s="2">
-        <v>-30.58166666666667</v>
+        <v>-30.581666666666671</v>
       </c>
       <c r="I7" s="2">
-        <v>1.898428908</v>
+        <v>1.8984289080000001</v>
       </c>
       <c r="J7" s="2">
-        <v>1.891481222</v>
+        <v>1.8914812219999999</v>
       </c>
       <c r="K7" s="2">
-        <v>-57.35931502</v>
+        <v>-57.359315019999997</v>
       </c>
       <c r="L7" s="2">
-        <v>-49.74722879</v>
+        <v>-49.747228790000001</v>
       </c>
       <c r="M7" s="2">
-        <v>417.1014549</v>
+        <v>417.10145490000002</v>
       </c>
       <c r="N7" s="2">
-        <v>-7.004361264</v>
+        <v>-7.0043612639999999</v>
       </c>
       <c r="O7" s="2">
-        <v>36.41</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="P7" s="2">
         <v>7.5</v>
@@ -1262,31 +1287,31 @@
         <v>1014.9</v>
       </c>
       <c r="U7" s="2">
-        <v>1.867134703</v>
+        <v>1.8671347030000001</v>
       </c>
       <c r="V7" s="2">
-        <v>445.1634582</v>
+        <v>445.16345819999998</v>
       </c>
       <c r="W7" s="2">
-        <v>0.019807886</v>
+        <v>1.9807886E-2</v>
       </c>
       <c r="X7" s="2">
-        <v>4.958451334</v>
+        <v>4.9584513340000003</v>
       </c>
       <c r="Y7">
-        <v>0.003166583420001863</v>
+        <v>3.1665834200018629E-3</v>
       </c>
       <c r="Z7">
-        <v>-516.4607345201375</v>
+        <v>-516.46073452013752</v>
       </c>
       <c r="AA7">
         <v>13.70557189048021</v>
       </c>
       <c r="AB7">
-        <v>-12.30624138284131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>-12.306241382841311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1300,10 +1325,10 @@
         <v>86</v>
       </c>
       <c r="F8" s="2">
-        <v>16.03666666666667</v>
+        <v>16.036666666666669</v>
       </c>
       <c r="G8" s="2">
-        <v>-33.10333333333333</v>
+        <v>-33.103333333333332</v>
       </c>
       <c r="I8" s="2">
         <v>1.867304925</v>
@@ -1312,16 +1337,16 @@
         <v>1.871623711</v>
       </c>
       <c r="K8" s="2">
-        <v>-54.88264031</v>
+        <v>-54.882640309999999</v>
       </c>
       <c r="L8" s="2">
-        <v>-53.76935447</v>
+        <v>-53.769354470000003</v>
       </c>
       <c r="M8" s="2">
-        <v>442.4578361</v>
+        <v>442.45783610000001</v>
       </c>
       <c r="N8" s="2">
-        <v>-8.52612418</v>
+        <v>-8.5261241800000001</v>
       </c>
       <c r="O8" s="2">
         <v>36.4</v>
@@ -1345,16 +1370,16 @@
         <v>1.873170059</v>
       </c>
       <c r="V8" s="2">
-        <v>433.8213491</v>
+        <v>433.82134910000002</v>
       </c>
       <c r="W8" s="2">
-        <v>0.019892153</v>
+        <v>1.9892152999999999E-2</v>
       </c>
       <c r="X8" s="2">
-        <v>4.83297893</v>
+        <v>4.8329789300000003</v>
       </c>
       <c r="Y8">
-        <v>0.002160238126085596</v>
+        <v>2.160238126085596E-3</v>
       </c>
       <c r="Z8">
         <v>-696.6256947843907</v>
@@ -1366,7 +1391,7 @@
         <v>-14.45192617230939</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1380,28 +1405,28 @@
         <v>86</v>
       </c>
       <c r="F9" s="2">
-        <v>16.03666666666667</v>
+        <v>16.036666666666669</v>
       </c>
       <c r="G9" s="2">
-        <v>-33.10333333333333</v>
+        <v>-33.103333333333332</v>
       </c>
       <c r="I9" s="2">
-        <v>1.883787381</v>
+        <v>1.8837873810000001</v>
       </c>
       <c r="J9" s="2">
-        <v>1.884417128</v>
+        <v>1.8844171279999999</v>
       </c>
       <c r="K9" s="2">
-        <v>-56.71230338</v>
+        <v>-56.712303380000002</v>
       </c>
       <c r="L9" s="2">
-        <v>-52.68214626</v>
+        <v>-52.682146260000003</v>
       </c>
       <c r="M9" s="2">
-        <v>431.6033699</v>
+        <v>431.60336990000002</v>
       </c>
       <c r="N9" s="2">
-        <v>-7.606063586</v>
+        <v>-7.6060635860000003</v>
       </c>
       <c r="O9" s="2">
         <v>36.4</v>
@@ -1425,28 +1450,28 @@
         <v>1.873170059</v>
       </c>
       <c r="V9" s="2">
-        <v>433.8213491</v>
+        <v>433.82134910000002</v>
       </c>
       <c r="W9" s="2">
-        <v>0.019892153</v>
+        <v>1.9892152999999999E-2</v>
       </c>
       <c r="X9" s="2">
-        <v>4.83297893</v>
+        <v>4.8329789300000003</v>
       </c>
       <c r="Y9">
-        <v>0.002589062511457018</v>
+        <v>2.5890625114570178E-3</v>
       </c>
       <c r="Z9">
-        <v>-610.5389691540188</v>
+        <v>-610.53896915401879</v>
       </c>
       <c r="AA9">
-        <v>13.32244043154095</v>
+        <v>13.322440431540951</v>
       </c>
       <c r="AB9">
         <v>-13.10754012315873</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1463,7 +1488,7 @@
         <v>15.37</v>
       </c>
       <c r="G10" s="2">
-        <v>-35.61666666666667</v>
+        <v>-35.616666666666667</v>
       </c>
       <c r="I10" s="2">
         <v>1.873765511</v>
@@ -1475,13 +1500,13 @@
         <v>-59.29344141</v>
       </c>
       <c r="L10" s="2">
-        <v>-48.43150603</v>
+        <v>-48.431506030000001</v>
       </c>
       <c r="M10" s="2">
-        <v>421.2966117</v>
+        <v>421.29661170000003</v>
       </c>
       <c r="N10" s="2">
-        <v>-9.543073313000001</v>
+        <v>-9.5430733130000007</v>
       </c>
       <c r="O10" s="2">
         <v>36.35</v>
@@ -1502,31 +1527,31 @@
         <v>1015.5</v>
       </c>
       <c r="U10" s="2">
-        <v>1.881703088</v>
+        <v>1.8817030880000001</v>
       </c>
       <c r="V10" s="2">
-        <v>435.5358558</v>
+        <v>435.53585579999998</v>
       </c>
       <c r="W10" s="2">
-        <v>0.019940529</v>
+        <v>1.9940528999999999E-2</v>
       </c>
       <c r="X10" s="2">
-        <v>4.853442724</v>
+        <v>4.8534427239999998</v>
       </c>
       <c r="Y10">
-        <v>0.002313060509072797</v>
+        <v>2.313060509072797E-3</v>
       </c>
       <c r="Z10">
-        <v>-709.5512679318917</v>
+        <v>-709.55126793189174</v>
       </c>
       <c r="AA10">
-        <v>12.88624051339596</v>
+        <v>12.886240513395959</v>
       </c>
       <c r="AB10">
-        <v>-16.15067238932921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>-16.150672389329209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1543,25 +1568,25 @@
         <v>15.37</v>
       </c>
       <c r="G11" s="2">
-        <v>-35.61666666666667</v>
+        <v>-35.616666666666667</v>
       </c>
       <c r="I11" s="2">
-        <v>1.805569753</v>
+        <v>1.8055697530000001</v>
       </c>
       <c r="J11" s="2">
-        <v>1.803514854</v>
+        <v>1.8035148539999999</v>
       </c>
       <c r="K11" s="2">
-        <v>-56.05495248</v>
+        <v>-56.054952479999997</v>
       </c>
       <c r="L11" s="2">
-        <v>-50.93283782</v>
+        <v>-50.932837820000003</v>
       </c>
       <c r="M11" s="2">
-        <v>406.580728</v>
+        <v>406.58072800000002</v>
       </c>
       <c r="N11" s="2">
-        <v>-7.143660843</v>
+        <v>-7.1436608430000001</v>
       </c>
       <c r="O11" s="2">
         <v>36.35</v>
@@ -1582,31 +1607,31 @@
         <v>1015.5</v>
       </c>
       <c r="U11" s="2">
-        <v>1.881703088</v>
+        <v>1.8817030880000001</v>
       </c>
       <c r="V11" s="2">
-        <v>435.5358558</v>
+        <v>435.53585579999998</v>
       </c>
       <c r="W11" s="2">
-        <v>0.019940529</v>
+        <v>1.9940528999999999E-2</v>
       </c>
       <c r="X11" s="2">
-        <v>4.853442724</v>
+        <v>4.8534427239999998</v>
       </c>
       <c r="Y11">
-        <v>0.001273072341096046</v>
+        <v>1.273072341096046E-3</v>
       </c>
       <c r="Z11">
         <v>-1167.311000424859</v>
       </c>
       <c r="AA11">
-        <v>12.1592385000983</v>
+        <v>12.159238500098301</v>
       </c>
       <c r="AB11">
         <v>-12.97942553951648</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1626,25 +1651,25 @@
         <v>-37.53</v>
       </c>
       <c r="I12" s="2">
-        <v>1.820469099</v>
+        <v>1.8204690990000001</v>
       </c>
       <c r="J12" s="2">
-        <v>1.81810917</v>
+        <v>1.8181091700000001</v>
       </c>
       <c r="K12" s="2">
-        <v>-54.90159812</v>
+        <v>-54.901598120000003</v>
       </c>
       <c r="L12" s="2">
-        <v>-50.16762332</v>
+        <v>-50.167623319999997</v>
       </c>
       <c r="M12" s="2">
-        <v>394.0014403</v>
+        <v>394.00144030000001</v>
       </c>
       <c r="N12" s="2">
-        <v>-8.517454559999999</v>
+        <v>-8.5174545599999991</v>
       </c>
       <c r="O12" s="2">
-        <v>36.23</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="P12" s="2">
         <v>7.6</v>
@@ -1662,22 +1687,22 @@
         <v>1013.8</v>
       </c>
       <c r="U12" s="2">
-        <v>1.860999628</v>
+        <v>1.8609996280000001</v>
       </c>
       <c r="V12" s="2">
-        <v>425.9380766</v>
+        <v>425.93807659999999</v>
       </c>
       <c r="W12" s="2">
-        <v>0.019758871</v>
+        <v>1.9758871000000001E-2</v>
       </c>
       <c r="X12" s="2">
-        <v>4.751106361</v>
+        <v>4.7511063609999997</v>
       </c>
       <c r="Y12">
-        <v>0.001953576624247686</v>
+        <v>1.9535766242476859E-3</v>
       </c>
       <c r="Z12">
-        <v>-757.6999292896294</v>
+        <v>-757.69992928962938</v>
       </c>
       <c r="AA12">
         <v>12.13082203666711</v>
@@ -1686,7 +1711,7 @@
         <v>-14.82722299042927</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1709,10 +1734,10 @@
         <v>1.86244305</v>
       </c>
       <c r="J13" s="2">
-        <v>1.861202835</v>
+        <v>1.8612028350000001</v>
       </c>
       <c r="K13" s="2">
-        <v>-53.98424607</v>
+        <v>-53.984246069999998</v>
       </c>
       <c r="L13" s="2">
         <v>-50.06707256</v>
@@ -1721,7 +1746,7 @@
         <v>405.176469</v>
       </c>
       <c r="N13" s="2">
-        <v>-8.07774277</v>
+        <v>-8.0777427700000004</v>
       </c>
       <c r="O13" s="2">
         <v>36.25</v>
@@ -1742,19 +1767,19 @@
         <v>1010.6</v>
       </c>
       <c r="U13" s="2">
-        <v>2.567392417</v>
+        <v>2.5673924170000002</v>
       </c>
       <c r="V13" s="2">
-        <v>428.3923119</v>
+        <v>428.39231189999998</v>
       </c>
       <c r="W13" s="2">
-        <v>0.027385083</v>
+        <v>2.7385083000000001E-2</v>
       </c>
       <c r="X13" s="2">
         <v>4.772926827</v>
       </c>
       <c r="Y13">
-        <v>-0.007005408099642631</v>
+        <v>-7.0054080996426312E-3</v>
       </c>
       <c r="Z13">
         <v>214.0385215017366</v>
@@ -1766,7 +1791,7 @@
         <v>-14.02964905376802</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1792,16 +1817,16 @@
         <v>1.81578324643793</v>
       </c>
       <c r="K14" s="2">
-        <v>-55.3456494287684</v>
+        <v>-55.345649428768397</v>
       </c>
       <c r="L14" s="2">
-        <v>-48.0284962311576</v>
+        <v>-48.028496231157597</v>
       </c>
       <c r="M14" s="2">
-        <v>443.00943701197</v>
+        <v>443.00943701197002</v>
       </c>
       <c r="N14" s="2">
-        <v>-10.0244081442738</v>
+        <v>-10.024408144273799</v>
       </c>
       <c r="O14" s="2">
         <v>36.25</v>
@@ -1822,31 +1847,31 @@
         <v>1010.6</v>
       </c>
       <c r="U14" s="2">
-        <v>2.567392417</v>
+        <v>2.5673924170000002</v>
       </c>
       <c r="V14" s="2">
-        <v>428.3923119</v>
+        <v>428.39231189999998</v>
       </c>
       <c r="W14" s="2">
-        <v>0.027385083</v>
+        <v>2.7385083000000001E-2</v>
       </c>
       <c r="X14" s="2">
         <v>4.772926827</v>
       </c>
       <c r="Y14">
-        <v>-0.007615384183783462</v>
+        <v>-7.6153841837834618E-3</v>
       </c>
       <c r="Z14">
-        <v>197.3772047392632</v>
+        <v>197.37720473926319</v>
       </c>
       <c r="AA14">
         <v>14.04262998583361</v>
       </c>
       <c r="AB14">
-        <v>-16.12083740982573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>-16.120837409825729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1863,25 +1888,25 @@
         <v>13.23</v>
       </c>
       <c r="G15" s="2">
-        <v>-42.14833333333333</v>
+        <v>-42.148333333333333</v>
       </c>
       <c r="I15" s="2">
-        <v>1.845282942</v>
+        <v>1.8452829420000001</v>
       </c>
       <c r="J15" s="2">
-        <v>1.840905701</v>
+        <v>1.8409057010000001</v>
       </c>
       <c r="K15" s="2">
-        <v>-54.94470102</v>
+        <v>-54.944701019999997</v>
       </c>
       <c r="L15" s="2">
-        <v>-49.23855426</v>
+        <v>-49.238554260000001</v>
       </c>
       <c r="M15" s="2">
-        <v>397.0997336</v>
+        <v>397.09973359999998</v>
       </c>
       <c r="N15" s="2">
-        <v>-8.356751303999999</v>
+        <v>-8.3567513039999994</v>
       </c>
       <c r="O15" s="2">
         <v>36.22</v>
@@ -1905,28 +1930,28 @@
         <v>1.815572231</v>
       </c>
       <c r="V15" s="2">
-        <v>401.9487053</v>
+        <v>401.94870529999997</v>
       </c>
       <c r="W15" s="2">
-        <v>0.019290706</v>
+        <v>1.9290706000000001E-2</v>
       </c>
       <c r="X15" s="2">
-        <v>4.478081007</v>
+        <v>4.4780810070000001</v>
       </c>
       <c r="Y15">
-        <v>0.002863116203685788</v>
+        <v>2.863116203685788E-3</v>
       </c>
       <c r="Z15">
-        <v>-523.3730603382629</v>
+        <v>-523.37306033826292</v>
       </c>
       <c r="AA15">
         <v>12.3656058813346</v>
       </c>
       <c r="AB15">
-        <v>-13.99530359102319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>-13.995303591023189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1943,25 +1968,25 @@
         <v>13.23</v>
       </c>
       <c r="G16" s="2">
-        <v>-42.14833333333333</v>
+        <v>-42.148333333333333</v>
       </c>
       <c r="I16" s="2">
-        <v>1.88630977986206</v>
+        <v>1.8863097798620601</v>
       </c>
       <c r="J16" s="2">
-        <v>1.87521330681773</v>
+        <v>1.8752133068177299</v>
       </c>
       <c r="K16" s="2">
-        <v>-56.5679330015812</v>
+        <v>-56.567933001581203</v>
       </c>
       <c r="L16" s="2">
-        <v>-47.8137579085122</v>
+        <v>-47.813757908512201</v>
       </c>
       <c r="M16" s="2">
-        <v>407.327353822759</v>
+        <v>407.32735382275899</v>
       </c>
       <c r="N16" s="2">
-        <v>-7.65738439792265</v>
+        <v>-7.6573843979226499</v>
       </c>
       <c r="O16" s="2">
         <v>36.22</v>
@@ -1985,28 +2010,28 @@
         <v>1.815572231</v>
       </c>
       <c r="V16" s="2">
-        <v>401.9487053</v>
+        <v>401.94870529999997</v>
       </c>
       <c r="W16" s="2">
-        <v>0.019290706</v>
+        <v>1.9290706000000001E-2</v>
       </c>
       <c r="X16" s="2">
-        <v>4.478081007</v>
+        <v>4.4780810070000001</v>
       </c>
       <c r="Y16">
-        <v>0.003472442167306425</v>
+        <v>3.4724421673064249E-3</v>
       </c>
       <c r="Z16">
-        <v>-454.5098799489425</v>
+        <v>-454.50987994894251</v>
       </c>
       <c r="AA16">
-        <v>12.82403664045498</v>
+        <v>12.824036640454979</v>
       </c>
       <c r="AB16">
-        <v>-12.79817896417335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>-12.798178964173349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2023,28 +2048,28 @@
         <v>13.21666666666667</v>
       </c>
       <c r="G17" s="2">
-        <v>-44.66666666666666</v>
+        <v>-44.666666666666657</v>
       </c>
       <c r="I17" s="2">
         <v>1.866310954</v>
       </c>
       <c r="J17" s="2">
-        <v>1.865239151</v>
+        <v>1.8652391509999999</v>
       </c>
       <c r="K17" s="2">
-        <v>-56.39770993</v>
+        <v>-56.397709929999998</v>
       </c>
       <c r="L17" s="2">
-        <v>-52.15648782</v>
+        <v>-52.156487820000002</v>
       </c>
       <c r="M17" s="2">
-        <v>414.5814887</v>
+        <v>414.58148870000002</v>
       </c>
       <c r="N17" s="2">
-        <v>-8.164929323999999</v>
+        <v>-8.1649293239999992</v>
       </c>
       <c r="O17" s="2">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="P17" s="2">
         <v>7.6</v>
@@ -2062,31 +2087,31 @@
         <v>1014.7</v>
       </c>
       <c r="U17" s="2">
-        <v>1.84900711</v>
+        <v>1.8490071100000001</v>
       </c>
       <c r="V17" s="2">
-        <v>426.3845608</v>
+        <v>426.38456079999997</v>
       </c>
       <c r="W17" s="2">
-        <v>0.019630239</v>
+        <v>1.9630239000000001E-2</v>
       </c>
       <c r="X17" s="2">
-        <v>4.750965099</v>
+        <v>4.7509650990000001</v>
       </c>
       <c r="Y17">
-        <v>0.002646365013303143</v>
+        <v>2.6463650133031428E-3</v>
       </c>
       <c r="Z17">
-        <v>-587.0337006899682</v>
+        <v>-587.03370068996821</v>
       </c>
       <c r="AA17">
         <v>12.60328512536244</v>
       </c>
       <c r="AB17">
-        <v>-14.08429427827929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>-14.084294278279289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2103,28 +2128,28 @@
         <v>13.21666666666667</v>
       </c>
       <c r="G18" s="2">
-        <v>-44.66666666666666</v>
+        <v>-44.666666666666657</v>
       </c>
       <c r="I18" s="2">
         <v>1.87443414189852</v>
       </c>
       <c r="J18" s="2">
-        <v>1.8718157153798</v>
+        <v>1.8718157153798001</v>
       </c>
       <c r="K18" s="2">
-        <v>-55.7083768836355</v>
+        <v>-55.708376883635502</v>
       </c>
       <c r="L18" s="2">
-        <v>-50.7780241591724</v>
+        <v>-50.778024159172404</v>
       </c>
       <c r="M18" s="2">
-        <v>423.058778463102</v>
+        <v>423.05877846310199</v>
       </c>
       <c r="N18" s="2">
-        <v>-7.21062936262315</v>
+        <v>-7.2106293626231501</v>
       </c>
       <c r="O18" s="2">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="P18" s="2">
         <v>7.6</v>
@@ -2142,22 +2167,22 @@
         <v>1014.7</v>
       </c>
       <c r="U18" s="2">
-        <v>1.84900711</v>
+        <v>1.8490071100000001</v>
       </c>
       <c r="V18" s="2">
-        <v>426.3845608</v>
+        <v>426.38456079999997</v>
       </c>
       <c r="W18" s="2">
-        <v>0.019630239</v>
+        <v>1.9630239000000001E-2</v>
       </c>
       <c r="X18" s="2">
-        <v>4.750965099</v>
+        <v>4.7509650990000001</v>
       </c>
       <c r="Y18">
-        <v>0.00280671947978549</v>
+        <v>2.80671947978549E-3</v>
       </c>
       <c r="Z18">
-        <v>-550.1177897846547</v>
+        <v>-550.11778978465475</v>
       </c>
       <c r="AA18">
         <v>13.08850982013441</v>
@@ -2166,7 +2191,7 @@
         <v>-12.48949881771278</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2189,19 +2214,19 @@
         <v>1.870197731</v>
       </c>
       <c r="J19" s="2">
-        <v>1.868725904</v>
+        <v>1.8687259039999999</v>
       </c>
       <c r="K19" s="2">
-        <v>-55.89426559</v>
+        <v>-55.894265590000003</v>
       </c>
       <c r="L19" s="2">
-        <v>-51.6415138</v>
+        <v>-51.641513799999998</v>
       </c>
       <c r="M19" s="2">
-        <v>396.1358222</v>
+        <v>396.13582220000001</v>
       </c>
       <c r="N19" s="2">
-        <v>-7.593524821</v>
+        <v>-7.5935248209999999</v>
       </c>
       <c r="O19" s="2">
         <v>35.72</v>
@@ -2222,31 +2247,31 @@
         <v>1013.8</v>
       </c>
       <c r="U19" s="2">
-        <v>1.85880286208867</v>
+        <v>1.8588028620886701</v>
       </c>
       <c r="V19" s="2">
-        <v>434.122299087882</v>
+        <v>434.12229908788203</v>
       </c>
       <c r="W19" s="2">
-        <v>0.0196930436347586</v>
+        <v>1.96930436347586E-2</v>
       </c>
       <c r="X19" s="2">
-        <v>4.84214544036305</v>
+        <v>4.8421454403630504</v>
       </c>
       <c r="Y19">
-        <v>0.002667239479787768</v>
+        <v>2.6672394797877682E-3</v>
       </c>
       <c r="Z19">
-        <v>-578.8077889226886</v>
+        <v>-578.80778892268859</v>
       </c>
       <c r="AA19">
         <v>11.78628813985136</v>
       </c>
       <c r="AB19">
-        <v>-13.77855018577801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>-13.778550185778011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2266,7 +2291,7 @@
         <v>-47.76166666666667</v>
       </c>
       <c r="I20" s="2">
-        <v>2.41355735434653</v>
+        <v>2.4135573543465298</v>
       </c>
       <c r="J20" s="2">
         <v>2.40954026727128</v>
@@ -2278,10 +2303,10 @@
         <v>-45.8933593378514</v>
       </c>
       <c r="M20" s="2">
-        <v>404.839496510494</v>
+        <v>404.83949651049397</v>
       </c>
       <c r="N20" s="2">
-        <v>-7.3973169640099</v>
+        <v>-7.3973169640099004</v>
       </c>
       <c r="O20" s="2">
         <v>35.72</v>
@@ -2302,31 +2327,31 @@
         <v>1013.8</v>
       </c>
       <c r="U20" s="2">
-        <v>1.85880286208867</v>
+        <v>1.8588028620886701</v>
       </c>
       <c r="V20" s="2">
-        <v>434.122299087882</v>
+        <v>434.12229908788203</v>
       </c>
       <c r="W20" s="2">
-        <v>0.0196930436347586</v>
+        <v>1.96930436347586E-2</v>
       </c>
       <c r="X20" s="2">
-        <v>4.84214544036305</v>
+        <v>4.8421454403630504</v>
       </c>
       <c r="Y20">
-        <v>0.01075317929702044</v>
+        <v>1.0753179297020439E-2</v>
       </c>
       <c r="Z20">
         <v>-167.9098347095055</v>
       </c>
       <c r="AA20">
-        <v>12.2091548910681</v>
+        <v>12.209154891068099</v>
       </c>
       <c r="AB20">
         <v>-13.27394907325175</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2343,25 +2368,25 @@
         <v>13.67333333333333</v>
       </c>
       <c r="G21" s="2">
-        <v>-50.60166666666667</v>
+        <v>-50.601666666666667</v>
       </c>
       <c r="I21" s="2">
-        <v>1.856595826</v>
+        <v>1.8565958259999999</v>
       </c>
       <c r="J21" s="2">
         <v>1.852764211</v>
       </c>
       <c r="K21" s="2">
-        <v>-55.1124416</v>
+        <v>-55.112441599999997</v>
       </c>
       <c r="L21" s="2">
-        <v>-49.87612219</v>
+        <v>-49.876122189999997</v>
       </c>
       <c r="M21" s="2">
-        <v>416.1472974</v>
+        <v>416.14729740000001</v>
       </c>
       <c r="N21" s="2">
-        <v>-8.015592917999999</v>
+        <v>-8.0155929179999994</v>
       </c>
       <c r="O21" s="2">
         <v>35.67</v>
@@ -2382,19 +2407,19 @@
         <v>1012.2</v>
       </c>
       <c r="U21" s="2">
-        <v>1.856549049</v>
+        <v>1.8565490490000001</v>
       </c>
       <c r="V21" s="2">
-        <v>453.2055208</v>
+        <v>453.20552079999999</v>
       </c>
       <c r="W21" s="2">
-        <v>0.019627263</v>
+        <v>1.9627262999999999E-2</v>
       </c>
       <c r="X21" s="2">
-        <v>5.04531709</v>
+        <v>5.0453170900000002</v>
       </c>
       <c r="Y21">
-        <v>0.002508380207074173</v>
+        <v>2.5083802070741731E-3</v>
       </c>
       <c r="Z21">
         <v>-601.338345220664</v>
@@ -2403,10 +2428,10 @@
         <v>12.40460381902483</v>
       </c>
       <c r="AB21">
-        <v>-14.44460629256183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>-14.444606292561829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2423,25 +2448,25 @@
         <v>13.67333333333333</v>
       </c>
       <c r="G22" s="2">
-        <v>-50.60166666666667</v>
+        <v>-50.601666666666667</v>
       </c>
       <c r="I22" s="2">
         <v>1.86443616970395</v>
       </c>
       <c r="J22" s="2">
-        <v>1.83886587908019</v>
+        <v>1.8388658790801899</v>
       </c>
       <c r="K22" s="2">
-        <v>-58.2361428496534</v>
+        <v>-58.236142849653397</v>
       </c>
       <c r="L22" s="2">
-        <v>-42.1430669054058</v>
+        <v>-42.143066905405803</v>
       </c>
       <c r="M22" s="2">
-        <v>445.10157265891</v>
+        <v>445.10157265891002</v>
       </c>
       <c r="N22" s="2">
-        <v>-9.261406703484161</v>
+        <v>-9.2614067034841607</v>
       </c>
       <c r="O22" s="2">
         <v>35.67</v>
@@ -2462,31 +2487,31 @@
         <v>1012.2</v>
       </c>
       <c r="U22" s="2">
-        <v>1.856549049</v>
+        <v>1.8565490490000001</v>
       </c>
       <c r="V22" s="2">
-        <v>453.2055208</v>
+        <v>453.20552079999999</v>
       </c>
       <c r="W22" s="2">
-        <v>0.019627263</v>
+        <v>1.9627262999999999E-2</v>
       </c>
       <c r="X22" s="2">
-        <v>5.04531709</v>
+        <v>5.0453170900000002</v>
       </c>
       <c r="Y22">
-        <v>0.002624624681057383</v>
+        <v>2.6246246810573831E-3</v>
       </c>
       <c r="Z22">
-        <v>-609.7954573842277</v>
+        <v>-609.79545738422769</v>
       </c>
       <c r="AA22">
-        <v>13.69260448626397</v>
+        <v>13.692604486263971</v>
       </c>
       <c r="AB22">
         <v>-15.64113485090213</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2528,7 @@
         <v>13.67333333333333</v>
       </c>
       <c r="G23" s="2">
-        <v>-50.60166666666667</v>
+        <v>-50.601666666666667</v>
       </c>
       <c r="I23" s="2">
         <v>1.80557746766206</v>
@@ -2515,13 +2540,13 @@
         <v>-59.834374624069</v>
       </c>
       <c r="L23" s="2">
-        <v>-45.4786252583792</v>
+        <v>-45.478625258379203</v>
       </c>
       <c r="M23" s="2">
-        <v>429.574991608374</v>
+        <v>429.57499160837398</v>
       </c>
       <c r="N23" s="2">
-        <v>-7.55831786485959</v>
+        <v>-7.5583178648595899</v>
       </c>
       <c r="O23" s="2">
         <v>35.67</v>
@@ -2542,22 +2567,22 @@
         <v>1012.2</v>
       </c>
       <c r="U23" s="2">
-        <v>1.856549049</v>
+        <v>1.8565490490000001</v>
       </c>
       <c r="V23" s="2">
-        <v>453.2055208</v>
+        <v>453.20552079999999</v>
       </c>
       <c r="W23" s="2">
-        <v>0.019627263</v>
+        <v>1.9627262999999999E-2</v>
       </c>
       <c r="X23" s="2">
-        <v>5.04531709</v>
+        <v>5.0453170900000002</v>
       </c>
       <c r="Y23">
-        <v>0.001790352026576935</v>
+        <v>1.7903520265769349E-3</v>
       </c>
       <c r="Z23">
-        <v>-888.0207898838584</v>
+        <v>-888.02078988385836</v>
       </c>
       <c r="AA23">
         <v>13.11377210512663</v>
@@ -2566,7 +2591,7 @@
         <v>-13.42681453214178</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2580,10 +2605,10 @@
         <v>94</v>
       </c>
       <c r="F24" s="2">
-        <v>14.085</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="G24" s="2">
-        <v>-53.54333333333334</v>
+        <v>-53.543333333333337</v>
       </c>
       <c r="I24" s="2">
         <v>1.907983295</v>
@@ -2592,16 +2617,16 @@
         <v>1.888779022</v>
       </c>
       <c r="K24" s="2">
-        <v>-55.9824161</v>
+        <v>-55.982416100000002</v>
       </c>
       <c r="L24" s="2">
-        <v>-43.61199496</v>
+        <v>-43.611994959999997</v>
       </c>
       <c r="M24" s="2">
-        <v>421.5824649</v>
+        <v>421.58246489999999</v>
       </c>
       <c r="N24" s="2">
-        <v>-9.121402357999999</v>
+        <v>-9.1214023579999992</v>
       </c>
       <c r="O24" s="2">
         <v>35.93</v>
@@ -2625,28 +2650,28 @@
         <v>1.809374346</v>
       </c>
       <c r="V24" s="2">
-        <v>461.013536</v>
+        <v>461.01353599999999</v>
       </c>
       <c r="W24" s="2">
-        <v>0.019088435</v>
+        <v>1.9088435000000001E-2</v>
       </c>
       <c r="X24" s="2">
-        <v>5.143758678</v>
+        <v>5.1437586780000002</v>
       </c>
       <c r="Y24">
-        <v>0.003847730347224939</v>
+        <v>3.8477303472249391E-3</v>
       </c>
       <c r="Z24">
-        <v>-409.0974796526994</v>
+        <v>-409.09747965269941</v>
       </c>
       <c r="AA24">
-        <v>12.30822624321953</v>
+        <v>12.308226243219529</v>
       </c>
       <c r="AB24">
         <v>-16.3167790810067</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2663,10 +2688,10 @@
         <v>14.54</v>
       </c>
       <c r="G25" s="2">
-        <v>-56.04833333333333</v>
+        <v>-56.048333333333332</v>
       </c>
       <c r="I25" s="2">
-        <v>1.8598727</v>
+        <v>1.8598726999999999</v>
       </c>
       <c r="J25" s="2">
         <v>1.85432153</v>
@@ -2675,13 +2700,13 @@
         <v>-53.38634484</v>
       </c>
       <c r="L25" s="2">
-        <v>-47.40817284</v>
+        <v>-47.408172839999999</v>
       </c>
       <c r="M25" s="2">
-        <v>416.7809796</v>
+        <v>416.78097960000002</v>
       </c>
       <c r="N25" s="2">
-        <v>-7.915319484</v>
+        <v>-7.9153194840000003</v>
       </c>
       <c r="O25" s="2">
         <v>36</v>
@@ -2702,31 +2727,31 @@
         <v>1011.3</v>
       </c>
       <c r="U25" s="2">
-        <v>1.794993336</v>
+        <v>1.7949933360000001</v>
       </c>
       <c r="V25" s="2">
-        <v>451.9233014</v>
+        <v>451.92330140000001</v>
       </c>
       <c r="W25" s="2">
-        <v>0.01895976</v>
+        <v>1.8959759999999999E-2</v>
       </c>
       <c r="X25" s="2">
-        <v>5.039700079</v>
+        <v>5.0397000790000002</v>
       </c>
       <c r="Y25">
-        <v>0.00334794020185816</v>
+        <v>3.3479402018581602E-3</v>
       </c>
       <c r="Z25">
-        <v>-436.1473104771313</v>
+        <v>-436.14731047713133</v>
       </c>
       <c r="AA25">
-        <v>12.20409308260989</v>
+        <v>12.204093082609891</v>
       </c>
       <c r="AB25">
-        <v>-14.3579273669151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>-14.357927366915099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2743,7 +2768,7 @@
         <v>14.54</v>
       </c>
       <c r="G26" s="2">
-        <v>-56.04833333333333</v>
+        <v>-56.048333333333332</v>
       </c>
       <c r="I26" s="2">
         <v>1.89141806033792</v>
@@ -2752,16 +2777,16 @@
         <v>1.88301259880886</v>
       </c>
       <c r="K26" s="2">
-        <v>-57.1101126989114</v>
+        <v>-57.110112698911401</v>
       </c>
       <c r="L26" s="2">
-        <v>-49.0960071265763</v>
+        <v>-49.096007126576303</v>
       </c>
       <c r="M26" s="2">
-        <v>422.913059919015</v>
+        <v>422.91305991901498</v>
       </c>
       <c r="N26" s="2">
-        <v>-6.80847733268915</v>
+        <v>-6.8084773326891499</v>
       </c>
       <c r="O26" s="2">
         <v>36</v>
@@ -2782,22 +2807,22 @@
         <v>1011.3</v>
       </c>
       <c r="U26" s="2">
-        <v>1.794993336</v>
+        <v>1.7949933360000001</v>
       </c>
       <c r="V26" s="2">
-        <v>451.9233014</v>
+        <v>451.92330140000001</v>
       </c>
       <c r="W26" s="2">
-        <v>0.01895976</v>
+        <v>1.8959759999999999E-2</v>
       </c>
       <c r="X26" s="2">
-        <v>5.039700079</v>
+        <v>5.0397000790000002</v>
       </c>
       <c r="Y26">
-        <v>0.003853476159584574</v>
+        <v>3.8534761595845741E-3</v>
       </c>
       <c r="Z26">
-        <v>-412.935898018493</v>
+        <v>-412.93589801849299</v>
       </c>
       <c r="AA26">
         <v>12.58057404693619</v>
@@ -2806,7 +2831,7 @@
         <v>-12.52443539377601</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2823,28 +2848,28 @@
         <v>14.365</v>
       </c>
       <c r="G27" s="2">
-        <v>-58.27166666666667</v>
+        <v>-58.271666666666668</v>
       </c>
       <c r="I27" s="2">
-        <v>1.7616955309862</v>
+        <v>1.7616955309861999</v>
       </c>
       <c r="J27" s="2">
         <v>1.75315973919063</v>
       </c>
       <c r="K27" s="2">
-        <v>-56.851946747399</v>
+        <v>-56.851946747398998</v>
       </c>
       <c r="L27" s="2">
-        <v>-48.5664717115812</v>
+        <v>-48.566471711581201</v>
       </c>
       <c r="M27" s="2">
-        <v>479.582673849605</v>
+        <v>479.58267384960499</v>
       </c>
       <c r="N27" s="2">
         <v>-10.7158957176069</v>
       </c>
       <c r="O27" s="2">
-        <v>35.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="P27" s="2">
         <v>7.5</v>
@@ -2865,19 +2890,19 @@
         <v>1.780612326</v>
       </c>
       <c r="V27" s="2">
-        <v>442.8330668</v>
+        <v>442.83306679999998</v>
       </c>
       <c r="W27" s="2">
-        <v>0.018831085</v>
+        <v>1.8831085000000001E-2</v>
       </c>
       <c r="X27" s="2">
-        <v>4.93564148</v>
+        <v>4.9356414800000001</v>
       </c>
       <c r="Y27">
-        <v>0.002139276399317899</v>
+        <v>2.1392763993178989E-3</v>
       </c>
       <c r="Z27">
-        <v>-685.5845600558901</v>
+        <v>-685.58456005589005</v>
       </c>
       <c r="AA27">
         <v>15.10032076708951</v>
@@ -2886,7 +2911,7 @@
         <v>-16.85754820523999</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2912,16 +2937,16 @@
         <v>1.86124018</v>
       </c>
       <c r="K28" s="2">
-        <v>-57.29087278</v>
+        <v>-57.290872780000001</v>
       </c>
       <c r="L28" s="2">
-        <v>-46.91325278</v>
+        <v>-46.913252780000001</v>
       </c>
       <c r="M28" s="2">
-        <v>466.4217016</v>
+        <v>466.42170160000001</v>
       </c>
       <c r="N28" s="2">
-        <v>-8.264483962</v>
+        <v>-8.2644839619999999</v>
       </c>
       <c r="O28" s="2">
         <v>36.03</v>
@@ -2942,22 +2967,22 @@
         <v>1012</v>
       </c>
       <c r="U28" s="2">
-        <v>1.860273341</v>
+        <v>1.8602733410000001</v>
       </c>
       <c r="V28" s="2">
-        <v>469.1783826</v>
+        <v>469.17838260000002</v>
       </c>
       <c r="W28" s="2">
-        <v>0.019672394</v>
+        <v>1.9672393999999999E-2</v>
       </c>
       <c r="X28" s="2">
-        <v>5.22936543</v>
+        <v>5.2293654299999996</v>
       </c>
       <c r="Y28">
-        <v>0.002672368300830331</v>
+        <v>2.6723683008303312E-3</v>
       </c>
       <c r="Z28">
-        <v>-589.5234909797165</v>
+        <v>-589.52349097971648</v>
       </c>
       <c r="AA28">
         <v>14.04731950972567</v>
@@ -2966,7 +2991,7 @@
         <v>-14.31528922837211</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2986,22 +3011,22 @@
         <v>-60.55833333333333</v>
       </c>
       <c r="I29" s="2">
-        <v>1.88006506922156</v>
+        <v>1.8800650692215599</v>
       </c>
       <c r="J29" s="2">
-        <v>1.87081205272941</v>
+        <v>1.8708120527294101</v>
       </c>
       <c r="K29" s="2">
-        <v>-55.8534280333725</v>
+        <v>-55.853428033372502</v>
       </c>
       <c r="L29" s="2">
-        <v>-47.3358731280391</v>
+        <v>-47.335873128039097</v>
       </c>
       <c r="M29" s="2">
-        <v>473.912407398823</v>
+        <v>473.91240739882301</v>
       </c>
       <c r="N29" s="2">
-        <v>-8.15632457674068</v>
+        <v>-8.1563245767406798</v>
       </c>
       <c r="O29" s="2">
         <v>36.03</v>
@@ -3022,31 +3047,31 @@
         <v>1012</v>
       </c>
       <c r="U29" s="2">
-        <v>1.860273341</v>
+        <v>1.8602733410000001</v>
       </c>
       <c r="V29" s="2">
-        <v>469.1783826</v>
+        <v>469.17838260000002</v>
       </c>
       <c r="W29" s="2">
-        <v>0.019672394</v>
+        <v>1.9672393999999999E-2</v>
       </c>
       <c r="X29" s="2">
-        <v>5.22936543</v>
+        <v>5.2293654299999996</v>
       </c>
       <c r="Y29">
-        <v>0.002756504072801392</v>
+        <v>2.756504072801392E-3</v>
       </c>
       <c r="Z29">
-        <v>-559.0695658286546</v>
+        <v>-559.06956582865462</v>
       </c>
       <c r="AA29">
-        <v>14.37410190588164</v>
+        <v>14.374101905881639</v>
       </c>
       <c r="AB29">
-        <v>-14.02219181753783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>-14.022191817537831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3060,31 +3085,31 @@
         <v>98</v>
       </c>
       <c r="F30" s="2">
-        <v>55.70783333333333</v>
+        <v>55.707833333333333</v>
       </c>
       <c r="G30" s="2">
-        <v>-56.344</v>
+        <v>-56.344000000000001</v>
       </c>
       <c r="I30" s="2">
         <v>1.917665875</v>
       </c>
       <c r="J30" s="2">
-        <v>1.90901928</v>
+        <v>1.9090192800000001</v>
       </c>
       <c r="K30" s="2">
-        <v>-55.11008362</v>
+        <v>-55.110083619999997</v>
       </c>
       <c r="L30" s="2">
-        <v>-47.44169373</v>
+        <v>-47.441693729999997</v>
       </c>
       <c r="M30" s="2">
-        <v>319.441275</v>
+        <v>319.44127500000002</v>
       </c>
       <c r="N30" s="2">
-        <v>-8.19172857</v>
+        <v>-8.1917285700000004</v>
       </c>
       <c r="O30" s="2">
-        <v>32.02</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="P30" s="2">
         <v>7.3</v>
@@ -3102,31 +3127,31 @@
         <v>1004</v>
       </c>
       <c r="U30" s="2">
-        <v>1.905545307</v>
+        <v>1.9055453069999999</v>
       </c>
       <c r="V30" s="2">
         <v>428.6505975</v>
       </c>
       <c r="W30" s="2">
-        <v>0.020263806</v>
+        <v>2.0263805999999999E-2</v>
       </c>
       <c r="X30" s="2">
-        <v>4.779216841</v>
+        <v>4.7792168410000002</v>
       </c>
       <c r="Y30">
-        <v>0.004148862416880339</v>
+        <v>4.148862416880339E-3</v>
       </c>
       <c r="Z30">
-        <v>-415.2083640521093</v>
+        <v>-415.20836405210929</v>
       </c>
       <c r="AA30">
         <v>15.86042245163045</v>
       </c>
       <c r="AB30">
-        <v>-13.19913098774017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>-13.199130987740171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3140,31 +3165,31 @@
         <v>98</v>
       </c>
       <c r="F31" s="2">
-        <v>55.70783333333333</v>
+        <v>55.707833333333333</v>
       </c>
       <c r="G31" s="2">
-        <v>-56.344</v>
+        <v>-56.344000000000001</v>
       </c>
       <c r="I31" s="2">
-        <v>1.92554179689999</v>
+        <v>1.9255417968999899</v>
       </c>
       <c r="J31" s="2">
-        <v>1.91927136987832</v>
+        <v>1.9192713698783199</v>
       </c>
       <c r="K31" s="2">
         <v>-54.7646926096009</v>
       </c>
       <c r="L31" s="2">
-        <v>-47.9287614786108</v>
+        <v>-47.928761478610802</v>
       </c>
       <c r="M31" s="2">
-        <v>314.05219840527</v>
+        <v>314.05219840527002</v>
       </c>
       <c r="N31" s="2">
-        <v>-6.9472196740202</v>
+        <v>-6.9472196740202001</v>
       </c>
       <c r="O31" s="2">
-        <v>32.02</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="P31" s="2">
         <v>7.3</v>
@@ -3182,31 +3207,31 @@
         <v>1004</v>
       </c>
       <c r="U31" s="2">
-        <v>1.905545307</v>
+        <v>1.9055453069999999</v>
       </c>
       <c r="V31" s="2">
         <v>428.6505975</v>
       </c>
       <c r="W31" s="2">
-        <v>0.020263806</v>
+        <v>2.0263805999999999E-2</v>
       </c>
       <c r="X31" s="2">
-        <v>4.779216841</v>
+        <v>4.7792168410000002</v>
       </c>
       <c r="Y31">
-        <v>0.004277713385503565</v>
+        <v>4.2777133855035647E-3</v>
       </c>
       <c r="Z31">
-        <v>-401.879612896366</v>
+        <v>-401.87961289636598</v>
       </c>
       <c r="AA31">
         <v>15.48953659619592</v>
       </c>
       <c r="AB31">
-        <v>-11.58266014974907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>-11.582660149749071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3220,28 +3245,28 @@
         <v>99</v>
       </c>
       <c r="F32" s="2">
-        <v>57.17916666666667</v>
+        <v>57.179166666666667</v>
       </c>
       <c r="G32" s="2">
         <v>-55.78</v>
       </c>
       <c r="I32" s="2">
-        <v>2.752415068</v>
+        <v>2.7524150679999999</v>
       </c>
       <c r="J32" s="2">
-        <v>2.710815189</v>
+        <v>2.7108151889999998</v>
       </c>
       <c r="K32" s="2">
-        <v>-58.66045581</v>
+        <v>-58.660455810000002</v>
       </c>
       <c r="L32" s="2">
-        <v>-40.98453132</v>
+        <v>-40.984531320000002</v>
       </c>
       <c r="M32" s="2">
-        <v>348.481554</v>
+        <v>348.48155400000002</v>
       </c>
       <c r="N32" s="2">
-        <v>-8.877488475</v>
+        <v>-8.8774884749999998</v>
       </c>
       <c r="O32" s="2">
         <v>33.81</v>
@@ -3265,28 +3290,28 @@
         <v>1.812615439</v>
       </c>
       <c r="V32" s="2">
-        <v>409.1896922</v>
+        <v>409.18969220000002</v>
       </c>
       <c r="W32" s="2">
-        <v>0.019294425</v>
+        <v>1.9294425E-2</v>
       </c>
       <c r="X32" s="2">
         <v>4.564363502</v>
       </c>
       <c r="Y32">
-        <v>0.01884000079849781</v>
+        <v>1.8840000798497809E-2</v>
       </c>
       <c r="Z32">
-        <v>-139.315124092457</v>
+        <v>-139.31512409245701</v>
       </c>
       <c r="AA32">
         <v>17.63643212185108</v>
       </c>
       <c r="AB32">
-        <v>-13.33890897486689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>-13.338908974866889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3300,28 +3325,28 @@
         <v>99</v>
       </c>
       <c r="F33" s="2">
-        <v>57.17916666666667</v>
+        <v>57.179166666666667</v>
       </c>
       <c r="G33" s="2">
         <v>-55.78</v>
       </c>
       <c r="I33" s="2">
-        <v>1.90553073698465</v>
+        <v>1.9055307369846499</v>
       </c>
       <c r="J33" s="2">
         <v>1.89984763045</v>
       </c>
       <c r="K33" s="2">
-        <v>-55.7429128688712</v>
+        <v>-55.742912868871201</v>
       </c>
       <c r="L33" s="2">
-        <v>-49.104104924193</v>
+        <v>-49.104104924193003</v>
       </c>
       <c r="M33" s="2">
-        <v>333.874061279752</v>
+        <v>333.87406127975203</v>
       </c>
       <c r="N33" s="2">
-        <v>-7.25687549862375</v>
+        <v>-7.2568754986237503</v>
       </c>
       <c r="O33" s="2">
         <v>33.81</v>
@@ -3333,7 +3358,7 @@
         <v>7.5</v>
       </c>
       <c r="R33" s="2">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S33" s="2">
         <v>7.9</v>
@@ -3345,16 +3370,16 @@
         <v>1.812615439</v>
       </c>
       <c r="V33" s="2">
-        <v>409.1896922</v>
+        <v>409.18969220000002</v>
       </c>
       <c r="W33" s="2">
-        <v>0.019294425</v>
+        <v>1.9294425E-2</v>
       </c>
       <c r="X33" s="2">
         <v>4.564363502</v>
       </c>
       <c r="Y33">
-        <v>0.005099276775700655</v>
+        <v>5.0992767757006554E-3</v>
       </c>
       <c r="Z33">
         <v>-338.2930720208185</v>
@@ -3363,10 +3388,10 @@
         <v>16.76261546046538</v>
       </c>
       <c r="AB33">
-        <v>-11.38502465141289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>-11.385024651412889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -3380,28 +3405,28 @@
         <v>100</v>
       </c>
       <c r="F34" s="2">
-        <v>58.39433333333334</v>
+        <v>58.394333333333343</v>
       </c>
       <c r="G34" s="2">
-        <v>-54.67383333333333</v>
+        <v>-54.673833333333327</v>
       </c>
       <c r="I34" s="2">
         <v>1.737606778</v>
       </c>
       <c r="J34" s="2">
-        <v>1.73679909</v>
+        <v>1.7367990900000001</v>
       </c>
       <c r="K34" s="2">
-        <v>-54.45129672</v>
+        <v>-54.451296720000002</v>
       </c>
       <c r="L34" s="2">
-        <v>-50.64248956</v>
+        <v>-50.642489560000001</v>
       </c>
       <c r="M34" s="2">
-        <v>325.8557041</v>
+        <v>325.85570410000003</v>
       </c>
       <c r="N34" s="2">
-        <v>-7.77473491</v>
+        <v>-7.7747349100000003</v>
       </c>
       <c r="O34" s="2">
         <v>34.25</v>
@@ -3422,19 +3447,19 @@
         <v>1006</v>
       </c>
       <c r="U34" s="2">
-        <v>1.920045508</v>
+        <v>1.9200455080000001</v>
       </c>
       <c r="V34" s="2">
-        <v>425.9207968</v>
+        <v>425.92079680000001</v>
       </c>
       <c r="W34" s="2">
-        <v>0.020400456</v>
+        <v>2.0400456000000001E-2</v>
       </c>
       <c r="X34" s="2">
-        <v>4.750337401</v>
+        <v>4.7503374010000003</v>
       </c>
       <c r="Y34">
-        <v>0.0009294650225359318</v>
+        <v>9.2946502253593176E-4</v>
       </c>
       <c r="Z34">
         <v>-1630.653147127696</v>
@@ -3443,10 +3468,10 @@
         <v>15.84829761573134</v>
       </c>
       <c r="AB34">
-        <v>-12.57546581560431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>-12.575465815604311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -3460,10 +3485,10 @@
         <v>100</v>
       </c>
       <c r="F35" s="2">
-        <v>58.39433333333334</v>
+        <v>58.394333333333343</v>
       </c>
       <c r="G35" s="2">
-        <v>-54.67383333333333</v>
+        <v>-54.673833333333327</v>
       </c>
       <c r="I35" s="2">
         <v>1.92321330062315</v>
@@ -3472,16 +3497,16 @@
         <v>1.91473043812068</v>
       </c>
       <c r="K35" s="2">
-        <v>-55.3769045011675</v>
+        <v>-55.376904501167502</v>
       </c>
       <c r="L35" s="2">
-        <v>-47.5193535763251</v>
+        <v>-47.519353576325102</v>
       </c>
       <c r="M35" s="2">
-        <v>345.650832980196</v>
+        <v>345.65083298019601</v>
       </c>
       <c r="N35" s="2">
-        <v>-7.65579625071871</v>
+        <v>-7.6557962507187103</v>
       </c>
       <c r="O35" s="2">
         <v>34.25</v>
@@ -3493,7 +3518,7 @@
         <v>7.3</v>
       </c>
       <c r="R35" s="2">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S35" s="2">
         <v>9.6</v>
@@ -3502,22 +3527,22 @@
         <v>1006</v>
       </c>
       <c r="U35" s="2">
-        <v>1.920045508</v>
+        <v>1.9200455080000001</v>
       </c>
       <c r="V35" s="2">
-        <v>425.9207968</v>
+        <v>425.92079680000001</v>
       </c>
       <c r="W35" s="2">
-        <v>0.020400456</v>
+        <v>2.0400456000000001E-2</v>
       </c>
       <c r="X35" s="2">
-        <v>4.750337401</v>
+        <v>4.7503374010000003</v>
       </c>
       <c r="Y35">
-        <v>0.00393620511654274</v>
+        <v>3.9362051165427398E-3</v>
       </c>
       <c r="Z35">
-        <v>-438.9723452374452</v>
+        <v>-438.97234523744521</v>
       </c>
       <c r="AA35">
         <v>17.12329872440429</v>
@@ -3526,7 +3551,7 @@
         <v>-12.05689641067187</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3540,10 +3565,10 @@
         <v>101</v>
       </c>
       <c r="F36" s="2">
-        <v>60.507</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="G36" s="2">
-        <v>-54.10633333333333</v>
+        <v>-54.106333333333332</v>
       </c>
       <c r="I36" s="2">
         <v>1.866959966</v>
@@ -3552,16 +3577,16 @@
         <v>1.85997178</v>
       </c>
       <c r="K36" s="2">
-        <v>-54.23117922</v>
+        <v>-54.231179220000001</v>
       </c>
       <c r="L36" s="2">
-        <v>-47.08132347</v>
+        <v>-47.081323470000001</v>
       </c>
       <c r="M36" s="2">
         <v>346.4971438</v>
       </c>
       <c r="N36" s="2">
-        <v>-8.006691393000001</v>
+        <v>-8.0066913930000005</v>
       </c>
       <c r="O36" s="2">
         <v>33.46</v>
@@ -3585,28 +3610,28 @@
         <v>1.908500479</v>
       </c>
       <c r="V36" s="2">
-        <v>431.6797784</v>
+        <v>431.67977839999998</v>
       </c>
       <c r="W36" s="2">
-        <v>0.020250593</v>
+        <v>2.0250593000000001E-2</v>
       </c>
       <c r="X36" s="2">
-        <v>4.815113711</v>
+        <v>4.8151137110000004</v>
       </c>
       <c r="Y36">
-        <v>0.003063276379674851</v>
+        <v>3.0632763796748512E-3</v>
       </c>
       <c r="Z36">
-        <v>-530.7858081863587</v>
+        <v>-530.78580818635874</v>
       </c>
       <c r="AA36">
-        <v>17.35728691365105</v>
+        <v>17.357286913651048</v>
       </c>
       <c r="AB36">
         <v>-12.52834722807361</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3620,28 +3645,28 @@
         <v>101</v>
       </c>
       <c r="F37" s="2">
-        <v>60.507</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="G37" s="2">
-        <v>-54.10633333333333</v>
+        <v>-54.106333333333332</v>
       </c>
       <c r="I37" s="2">
         <v>1.90638029102871</v>
       </c>
       <c r="J37" s="2">
-        <v>1.89573683650792</v>
+        <v>1.8957368365079199</v>
       </c>
       <c r="K37" s="2">
-        <v>-54.8621757003564</v>
+        <v>-54.862175700356403</v>
       </c>
       <c r="L37" s="2">
-        <v>-45.7338650862871</v>
+        <v>-45.733865086287103</v>
       </c>
       <c r="M37" s="2">
         <v>339.347058646336</v>
       </c>
       <c r="N37" s="2">
-        <v>-7.76051295980991</v>
+        <v>-7.7605129598099101</v>
       </c>
       <c r="O37" s="2">
         <v>33.46</v>
@@ -3665,28 +3690,28 @@
         <v>1.908500479</v>
       </c>
       <c r="V37" s="2">
-        <v>431.6797784</v>
+        <v>431.67977839999998</v>
       </c>
       <c r="W37" s="2">
-        <v>0.020250593</v>
+        <v>2.0250593000000001E-2</v>
       </c>
       <c r="X37" s="2">
-        <v>4.815113711</v>
+        <v>4.8151137110000004</v>
       </c>
       <c r="Y37">
-        <v>0.003771834849239139</v>
+        <v>3.771834849239139E-3</v>
       </c>
       <c r="Z37">
-        <v>-446.7610207964541</v>
+        <v>-446.76102079645409</v>
       </c>
       <c r="AA37">
-        <v>17.10207087068751</v>
+        <v>17.102070870687509</v>
       </c>
       <c r="AB37">
         <v>-12.26154795759704</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -3700,31 +3725,31 @@
         <v>102</v>
       </c>
       <c r="F38" s="2">
-        <v>62.57083333333333</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="G38" s="2">
-        <v>-51.82533333333333</v>
+        <v>-51.825333333333333</v>
       </c>
       <c r="I38" s="2">
         <v>1.867682235</v>
       </c>
       <c r="J38" s="2">
-        <v>1.848097207</v>
+        <v>1.8480972069999999</v>
       </c>
       <c r="K38" s="2">
-        <v>-55.4569778</v>
+        <v>-55.456977799999997</v>
       </c>
       <c r="L38" s="2">
-        <v>-41.99885891</v>
+        <v>-41.998858910000003</v>
       </c>
       <c r="M38" s="2">
-        <v>350.5022084</v>
+        <v>350.50220839999997</v>
       </c>
       <c r="N38" s="2">
-        <v>-8.381448382</v>
+        <v>-8.3814483820000003</v>
       </c>
       <c r="O38" s="2">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="P38" s="2">
         <v>7.2</v>
@@ -3736,37 +3761,37 @@
         <v>3.3</v>
       </c>
       <c r="S38" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T38" s="2">
         <v>1008</v>
       </c>
       <c r="U38" s="2">
-        <v>1.90839142</v>
+        <v>1.9083914200000001</v>
       </c>
       <c r="V38" s="2">
-        <v>430.287052</v>
+        <v>430.28705200000002</v>
       </c>
       <c r="W38" s="2">
-        <v>0.020259525</v>
+        <v>2.0259525E-2</v>
       </c>
       <c r="X38" s="2">
-        <v>4.799947955</v>
+        <v>4.7999479550000004</v>
       </c>
       <c r="Y38">
-        <v>0.003743566759859064</v>
+        <v>3.7435667598590639E-3</v>
       </c>
       <c r="Z38">
-        <v>-464.4041712013382</v>
+        <v>-464.40417120133822</v>
       </c>
       <c r="AA38">
         <v>20.76062096472975</v>
       </c>
       <c r="AB38">
-        <v>-12.35156581283436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>-12.351565812834361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3780,31 +3805,31 @@
         <v>102</v>
       </c>
       <c r="F39" s="2">
-        <v>62.57083333333333</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="G39" s="2">
-        <v>-51.82533333333333</v>
+        <v>-51.825333333333333</v>
       </c>
       <c r="I39" s="2">
-        <v>1.91918065400495</v>
+        <v>1.9191806540049501</v>
       </c>
       <c r="J39" s="2">
-        <v>1.86428438861436</v>
+        <v>1.8642843886143601</v>
       </c>
       <c r="K39" s="2">
-        <v>-62.5795358771089</v>
+        <v>-62.579535877108903</v>
       </c>
       <c r="L39" s="2">
-        <v>-31.53105567849</v>
+        <v>-31.531055678489999</v>
       </c>
       <c r="M39" s="2">
-        <v>367.171238327525</v>
+        <v>367.17123832752497</v>
       </c>
       <c r="N39" s="2">
-        <v>-9.58661252773663</v>
+        <v>-9.5866125277366301</v>
       </c>
       <c r="O39" s="2">
-        <v>32.27</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="P39" s="2">
         <v>7.2</v>
@@ -3816,37 +3841,37 @@
         <v>3.2</v>
       </c>
       <c r="S39" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T39" s="2">
         <v>1008</v>
       </c>
       <c r="U39" s="2">
-        <v>1.90839142</v>
+        <v>1.9083914200000001</v>
       </c>
       <c r="V39" s="2">
-        <v>430.287052</v>
+        <v>430.28705200000002</v>
       </c>
       <c r="W39" s="2">
-        <v>0.020259525</v>
+        <v>2.0259525E-2</v>
       </c>
       <c r="X39" s="2">
-        <v>4.799947955</v>
+        <v>4.7999479550000004</v>
       </c>
       <c r="Y39">
-        <v>0.004631617752630903</v>
+        <v>4.6316177526309031E-3</v>
       </c>
       <c r="Z39">
-        <v>-435.6723181833061</v>
+        <v>-435.67231818330612</v>
       </c>
       <c r="AA39">
         <v>22.11925578610898</v>
       </c>
       <c r="AB39">
-        <v>-13.65350309223012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>-13.653503092230119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3860,10 +3885,10 @@
         <v>103</v>
       </c>
       <c r="F40" s="2">
-        <v>69.00716666666666</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="G40" s="2">
-        <v>-52.08433333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="I40" s="2">
         <v>1.914237505</v>
@@ -3872,16 +3897,16 @@
         <v>1.913278367</v>
       </c>
       <c r="K40" s="2">
-        <v>-53.7784413</v>
+        <v>-53.778441299999997</v>
       </c>
       <c r="L40" s="2">
-        <v>-49.63228585</v>
+        <v>-49.632285850000002</v>
       </c>
       <c r="M40" s="2">
         <v>372.8518962</v>
       </c>
       <c r="N40" s="2">
-        <v>-7.5940338</v>
+        <v>-7.5940338000000001</v>
       </c>
       <c r="O40" s="2">
         <v>32.49</v>
@@ -3902,31 +3927,31 @@
         <v>1015</v>
       </c>
       <c r="U40" s="2">
-        <v>1.891095386</v>
+        <v>1.8910953859999999</v>
       </c>
       <c r="V40" s="2">
-        <v>425.3356243</v>
+        <v>425.33562430000001</v>
       </c>
       <c r="W40" s="2">
-        <v>0.020131275</v>
+        <v>2.0131275000000001E-2</v>
       </c>
       <c r="X40" s="2">
         <v>4.746710996</v>
       </c>
       <c r="Y40">
-        <v>0.004092475974995111</v>
+        <v>4.0924759749951106E-3</v>
       </c>
       <c r="Z40">
-        <v>-407.2091657557743</v>
+        <v>-407.20916575577428</v>
       </c>
       <c r="AA40">
-        <v>17.98275087578328</v>
+        <v>17.982750875783282</v>
       </c>
       <c r="AB40">
         <v>-11.76180466632737</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3940,10 +3965,10 @@
         <v>103</v>
       </c>
       <c r="F41" s="2">
-        <v>69.00716666666666</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="G41" s="2">
-        <v>-52.08433333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="I41" s="2">
         <v>1.93692925893448</v>
@@ -3952,16 +3977,16 @@
         <v>1.92163106963842</v>
       </c>
       <c r="K41" s="2">
-        <v>-57.8241929382167</v>
+        <v>-57.824192938216697</v>
       </c>
       <c r="L41" s="2">
-        <v>-46.4341862303595</v>
+        <v>-46.434186230359501</v>
       </c>
       <c r="M41" s="2">
-        <v>401.299636724384</v>
+        <v>401.29963672438402</v>
       </c>
       <c r="N41" s="2">
-        <v>-8.116856535005409</v>
+        <v>-8.1168565350054092</v>
       </c>
       <c r="O41" s="2">
         <v>32.49</v>
@@ -3982,31 +4007,31 @@
         <v>1015</v>
       </c>
       <c r="U41" s="2">
-        <v>1.891095386</v>
+        <v>1.8910953859999999</v>
       </c>
       <c r="V41" s="2">
-        <v>425.3356243</v>
+        <v>425.33562430000001</v>
       </c>
       <c r="W41" s="2">
-        <v>0.020131275</v>
+        <v>2.0131275000000001E-2</v>
       </c>
       <c r="X41" s="2">
         <v>4.746710996</v>
       </c>
       <c r="Y41">
-        <v>0.004425561586730786</v>
+        <v>4.4255615867307861E-3</v>
       </c>
       <c r="Z41">
-        <v>-409.2246545119231</v>
+        <v>-409.22465451192312</v>
       </c>
       <c r="AA41">
-        <v>19.69501476931467</v>
+        <v>19.695014769314671</v>
       </c>
       <c r="AB41">
         <v>-12.08349086415217</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -4023,25 +4048,25 @@
         <v>68.44083333333333</v>
       </c>
       <c r="G42" s="2">
-        <v>-53.85383333333333</v>
+        <v>-53.853833333333327</v>
       </c>
       <c r="I42" s="2">
         <v>1.909297907</v>
       </c>
       <c r="J42" s="2">
-        <v>1.90638751</v>
+        <v>1.9063875100000001</v>
       </c>
       <c r="K42" s="2">
         <v>-53.4206097</v>
       </c>
       <c r="L42" s="2">
-        <v>-48.37131114</v>
+        <v>-48.371311140000003</v>
       </c>
       <c r="M42" s="2">
-        <v>366.9202405</v>
+        <v>366.92024049999998</v>
       </c>
       <c r="N42" s="2">
-        <v>-7.811860698</v>
+        <v>-7.8118606980000003</v>
       </c>
       <c r="O42" s="2">
         <v>32.99</v>
@@ -4062,31 +4087,31 @@
         <v>1017</v>
       </c>
       <c r="U42" s="2">
-        <v>1.897102312</v>
+        <v>1.8971023119999999</v>
       </c>
       <c r="V42" s="2">
-        <v>435.6084543</v>
+        <v>435.60845430000001</v>
       </c>
       <c r="W42" s="2">
-        <v>0.020122202</v>
+        <v>2.0122201999999999E-2</v>
       </c>
       <c r="X42" s="2">
         <v>4.85986911</v>
       </c>
       <c r="Y42">
-        <v>0.003737855902050986</v>
+        <v>3.737855902050986E-3</v>
       </c>
       <c r="Z42">
-        <v>-441.6850623918997</v>
+        <v>-441.68506239189969</v>
       </c>
       <c r="AA42">
-        <v>17.28567766106351</v>
+        <v>17.285677661063509</v>
       </c>
       <c r="AB42">
-        <v>-12.40464560041288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>-12.404645600412881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -4100,28 +4125,28 @@
         <v>105</v>
       </c>
       <c r="F43" s="2">
-        <v>67.07366666666667</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="G43" s="2">
-        <v>-54.28883333333334</v>
+        <v>-54.288833333333343</v>
       </c>
       <c r="I43" s="2">
         <v>1.886095351</v>
       </c>
       <c r="J43" s="2">
-        <v>1.867733961</v>
+        <v>1.8677339610000001</v>
       </c>
       <c r="K43" s="2">
-        <v>-55.49023895</v>
+        <v>-55.490238949999998</v>
       </c>
       <c r="L43" s="2">
-        <v>-42.9551275</v>
+        <v>-42.955127500000003</v>
       </c>
       <c r="M43" s="2">
-        <v>350.4005059</v>
+        <v>350.40050589999998</v>
       </c>
       <c r="N43" s="2">
-        <v>-8.131343699</v>
+        <v>-8.1313436990000003</v>
       </c>
       <c r="O43" s="2">
         <v>32.14</v>
@@ -4142,31 +4167,31 @@
         <v>1011</v>
       </c>
       <c r="U43" s="2">
-        <v>1.931296354</v>
+        <v>1.9312963540000001</v>
       </c>
       <c r="V43" s="2">
-        <v>421.0473866</v>
+        <v>421.04738659999998</v>
       </c>
       <c r="W43" s="2">
-        <v>0.020530522</v>
+        <v>2.0530521999999999E-2</v>
       </c>
       <c r="X43" s="2">
         <v>4.697638091</v>
       </c>
       <c r="Y43">
-        <v>0.003241542899826721</v>
+        <v>3.241542899826721E-3</v>
       </c>
       <c r="Z43">
-        <v>-530.5288405309587</v>
+        <v>-530.52884053095875</v>
       </c>
       <c r="AA43">
-        <v>18.44242783002622</v>
+        <v>18.442427830026219</v>
       </c>
       <c r="AB43">
-        <v>-12.36224367279348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>-12.362243672793481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -4180,28 +4205,28 @@
         <v>105</v>
       </c>
       <c r="F44" s="2">
-        <v>67.07366666666667</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="G44" s="2">
-        <v>-54.28883333333334</v>
+        <v>-54.288833333333343</v>
       </c>
       <c r="I44" s="2">
-        <v>1.92070256606336</v>
+        <v>1.9207025660633601</v>
       </c>
       <c r="J44" s="2">
-        <v>1.91264247630693</v>
+        <v>1.9126424763069301</v>
       </c>
       <c r="K44" s="2">
-        <v>-57.4409476355148</v>
+        <v>-57.440947635514803</v>
       </c>
       <c r="L44" s="2">
-        <v>-49.2625406222475</v>
+        <v>-49.262540622247499</v>
       </c>
       <c r="M44" s="2">
-        <v>356.592544666534</v>
+        <v>356.59254466653402</v>
       </c>
       <c r="N44" s="2">
-        <v>-8.322160965595049</v>
+        <v>-8.3221609655950495</v>
       </c>
       <c r="O44" s="2">
         <v>32.14</v>
@@ -4222,31 +4247,31 @@
         <v>1011</v>
       </c>
       <c r="U44" s="2">
-        <v>1.931296354</v>
+        <v>1.9312963540000001</v>
       </c>
       <c r="V44" s="2">
-        <v>421.0473866</v>
+        <v>421.04738659999998</v>
       </c>
       <c r="W44" s="2">
-        <v>0.020530522</v>
+        <v>2.0530521999999999E-2</v>
       </c>
       <c r="X44" s="2">
         <v>4.697638091</v>
       </c>
       <c r="Y44">
-        <v>0.003813010751166889</v>
+        <v>3.813010751166889E-3</v>
       </c>
       <c r="Z44">
-        <v>-475.7302871242974</v>
+        <v>-475.73028712429738</v>
       </c>
       <c r="AA44">
         <v>18.87583009965714</v>
       </c>
       <c r="AB44">
-        <v>-12.51739447234534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>-12.517394472345339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -4260,28 +4285,28 @@
         <v>106</v>
       </c>
       <c r="F45" s="2">
-        <v>65.8715</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="G45" s="2">
-        <v>-53.62783333333334</v>
+        <v>-53.627833333333342</v>
       </c>
       <c r="I45" s="2">
         <v>1.834710595</v>
       </c>
       <c r="J45" s="2">
-        <v>1.827689692</v>
+        <v>1.8276896920000001</v>
       </c>
       <c r="K45" s="2">
         <v>-53.11471959</v>
       </c>
       <c r="L45" s="2">
-        <v>-45.98514724</v>
+        <v>-45.985147240000003</v>
       </c>
       <c r="M45" s="2">
-        <v>321.717791</v>
+        <v>321.71779099999998</v>
       </c>
       <c r="N45" s="2">
-        <v>-10.72367054</v>
+        <v>-10.723670540000001</v>
       </c>
       <c r="O45" s="2">
         <v>31.73</v>
@@ -4302,31 +4327,31 @@
         <v>1008</v>
       </c>
       <c r="U45" s="2">
-        <v>1.774546114</v>
+        <v>1.7745461140000001</v>
       </c>
       <c r="V45" s="2">
-        <v>439.5165671</v>
+        <v>439.51656709999997</v>
       </c>
       <c r="W45" s="2">
-        <v>0.018623842</v>
+        <v>1.8623842000000002E-2</v>
       </c>
       <c r="X45" s="2">
-        <v>4.895479292</v>
+        <v>4.8954792920000001</v>
       </c>
       <c r="Y45">
-        <v>0.00472864917348343</v>
+        <v>4.7286491734834296E-3</v>
       </c>
       <c r="Z45">
-        <v>-336.5523532259217</v>
+        <v>-336.55235322592171</v>
       </c>
       <c r="AA45">
-        <v>15.6855600103658</v>
+        <v>15.685560010365799</v>
       </c>
       <c r="AB45">
-        <v>-16.96657899491405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>-16.966578994914052</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -4340,28 +4365,28 @@
         <v>106</v>
       </c>
       <c r="F46" s="2">
-        <v>65.8715</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="G46" s="2">
-        <v>-53.62783333333334</v>
+        <v>-53.627833333333342</v>
       </c>
       <c r="I46" s="2">
         <v>1.94221153351182</v>
       </c>
       <c r="J46" s="2">
-        <v>1.9069644416532</v>
+        <v>1.9069644416531999</v>
       </c>
       <c r="K46" s="2">
-        <v>-62.0356630049408</v>
+        <v>-62.035663004940801</v>
       </c>
       <c r="L46" s="2">
-        <v>-40.6443087924137</v>
+        <v>-40.644308792413703</v>
       </c>
       <c r="M46" s="2">
-        <v>368.064123777339</v>
+        <v>368.06412377733898</v>
       </c>
       <c r="N46" s="2">
-        <v>-8.513996470415259</v>
+        <v>-8.5139964704152593</v>
       </c>
       <c r="O46" s="2">
         <v>31.73</v>
@@ -4373,7 +4398,7 @@
         <v>7.2</v>
       </c>
       <c r="R46" s="2">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S46" s="2">
         <v>10.1</v>
@@ -4382,31 +4407,31 @@
         <v>1008</v>
       </c>
       <c r="U46" s="2">
-        <v>1.774546114</v>
+        <v>1.7745461140000001</v>
       </c>
       <c r="V46" s="2">
-        <v>439.5165671</v>
+        <v>439.51656709999997</v>
       </c>
       <c r="W46" s="2">
-        <v>0.018623842</v>
+        <v>1.8623842000000002E-2</v>
       </c>
       <c r="X46" s="2">
-        <v>4.895479292</v>
+        <v>4.8954792920000001</v>
       </c>
       <c r="Y46">
-        <v>0.006378498890714507</v>
+        <v>6.3784988907145072E-3</v>
       </c>
       <c r="Z46">
-        <v>-307.5182446317205</v>
+        <v>-307.51824463172051</v>
       </c>
       <c r="AA46">
-        <v>18.48140182491621</v>
+        <v>18.481401824916212</v>
       </c>
       <c r="AB46">
         <v>-13.06309392816285</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -4420,7 +4445,7 @@
         <v>107</v>
       </c>
       <c r="F47" s="2">
-        <v>63.87116666666667</v>
+        <v>63.871166666666667</v>
       </c>
       <c r="G47" s="2">
         <v>-52.19233333333333</v>
@@ -4429,19 +4454,19 @@
         <v>1.91756481420297</v>
       </c>
       <c r="J47" s="2">
-        <v>1.9086142111396</v>
+        <v>1.9086142111396001</v>
       </c>
       <c r="K47" s="2">
-        <v>-57.0199496146237</v>
+        <v>-57.019949614623698</v>
       </c>
       <c r="L47" s="2">
-        <v>-48.5595670684058</v>
+        <v>-48.559567068405798</v>
       </c>
       <c r="M47" s="2">
-        <v>353.451836297128</v>
+        <v>353.45183629712801</v>
       </c>
       <c r="N47" s="2">
-        <v>-8.322447267729199</v>
+        <v>-8.3224472677291992</v>
       </c>
       <c r="O47" s="2">
         <v>31.52</v>
@@ -4465,28 +4490,28 @@
         <v>1.89723438</v>
       </c>
       <c r="V47" s="2">
-        <v>418.2048913</v>
+        <v>418.20489129999999</v>
       </c>
       <c r="W47" s="2">
-        <v>0.020140566</v>
+        <v>2.0140565999999999E-2</v>
       </c>
       <c r="X47" s="2">
-        <v>4.666440673</v>
+        <v>4.6664406730000003</v>
       </c>
       <c r="Y47">
-        <v>0.004614825124190912</v>
+        <v>4.6148251241909122E-3</v>
       </c>
       <c r="Z47">
-        <v>-394.5034101536394</v>
+        <v>-394.50341015363938</v>
       </c>
       <c r="AA47">
-        <v>20.79761856458001</v>
+        <v>20.797618564580009</v>
       </c>
       <c r="AB47">
         <v>-12.09705734870237</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -4500,28 +4525,28 @@
         <v>108</v>
       </c>
       <c r="F48" s="2">
-        <v>62.25366666666667</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="G48" s="2">
-        <v>-50.42416666666666</v>
+        <v>-50.424166666666657</v>
       </c>
       <c r="I48" s="2">
-        <v>1.973553846</v>
+        <v>1.9735538459999999</v>
       </c>
       <c r="J48" s="2">
-        <v>1.943871901</v>
+        <v>1.9438719010000001</v>
       </c>
       <c r="K48" s="2">
-        <v>-60.14291279</v>
+        <v>-60.142912789999997</v>
       </c>
       <c r="L48" s="2">
-        <v>-42.05127034</v>
+        <v>-42.051270340000002</v>
       </c>
       <c r="M48" s="2">
-        <v>391.4677753</v>
+        <v>391.46777530000003</v>
       </c>
       <c r="N48" s="2">
-        <v>-8.948470727</v>
+        <v>-8.9484707270000001</v>
       </c>
       <c r="O48" s="2">
         <v>31.73</v>
@@ -4545,19 +4570,19 @@
         <v>1.926345178</v>
       </c>
       <c r="V48" s="2">
-        <v>421.551451</v>
+        <v>421.55145099999999</v>
       </c>
       <c r="W48" s="2">
-        <v>0.020412426</v>
+        <v>2.0412426000000001E-2</v>
       </c>
       <c r="X48" s="2">
-        <v>4.70423459</v>
+        <v>4.7042345900000004</v>
       </c>
       <c r="Y48">
-        <v>0.00508434089751485</v>
+        <v>5.0843408975148503E-3</v>
       </c>
       <c r="Z48">
-        <v>-387.1128551759608</v>
+        <v>-387.11285517596082</v>
       </c>
       <c r="AA48">
         <v>22.12089005090899</v>
@@ -4566,7 +4591,7 @@
         <v>-12.69580671896264</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -4580,28 +4605,28 @@
         <v>108</v>
       </c>
       <c r="F49" s="2">
-        <v>62.25366666666667</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="G49" s="2">
-        <v>-50.42416666666666</v>
+        <v>-50.424166666666657</v>
       </c>
       <c r="I49" s="2">
-        <v>1.99903443121089</v>
+        <v>1.9990344312108901</v>
       </c>
       <c r="J49" s="2">
-        <v>1.97672841786039</v>
+        <v>1.9767284178603901</v>
       </c>
       <c r="K49" s="2">
         <v>-60.1308368015643</v>
       </c>
       <c r="L49" s="2">
-        <v>-45.553354976396</v>
+        <v>-45.553354976396001</v>
       </c>
       <c r="M49" s="2">
-        <v>376.317843475544</v>
+        <v>376.31784347554401</v>
       </c>
       <c r="N49" s="2">
-        <v>-8.632575917526241</v>
+        <v>-8.6325759175262409</v>
       </c>
       <c r="O49" s="2">
         <v>31.73</v>
@@ -4625,28 +4650,28 @@
         <v>1.926345178</v>
       </c>
       <c r="V49" s="2">
-        <v>421.551451</v>
+        <v>421.55145099999999</v>
       </c>
       <c r="W49" s="2">
-        <v>0.020412426</v>
+        <v>2.0412426000000001E-2</v>
       </c>
       <c r="X49" s="2">
-        <v>4.70423459</v>
+        <v>4.7042345900000004</v>
       </c>
       <c r="Y49">
-        <v>0.005508274345700072</v>
+        <v>5.5082743457000724E-3</v>
       </c>
       <c r="Z49">
-        <v>-361.9598831581945</v>
+        <v>-361.95988315819449</v>
       </c>
       <c r="AA49">
-        <v>21.02978437002836</v>
+        <v>21.029784370028359</v>
       </c>
       <c r="AB49">
         <v>-12.48314303175246</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -4660,28 +4685,28 @@
         <v>109</v>
       </c>
       <c r="F50" s="2">
-        <v>61.00983333333333</v>
+        <v>61.009833333333333</v>
       </c>
       <c r="G50" s="2">
         <v>-49.375</v>
       </c>
       <c r="I50" s="2">
-        <v>1.932472321</v>
+        <v>1.9324723210000001</v>
       </c>
       <c r="J50" s="2">
         <v>1.926605243</v>
       </c>
       <c r="K50" s="2">
-        <v>-55.49231138</v>
+        <v>-55.492311379999997</v>
       </c>
       <c r="L50" s="2">
-        <v>-48.63932201</v>
+        <v>-48.639322010000001</v>
       </c>
       <c r="M50" s="2">
-        <v>391.9532154</v>
+        <v>391.95321539999998</v>
       </c>
       <c r="N50" s="2">
-        <v>-8.337170606999999</v>
+        <v>-8.3371706069999991</v>
       </c>
       <c r="O50" s="2">
         <v>32.35</v>
@@ -4702,31 +4727,31 @@
         <v>1008</v>
       </c>
       <c r="U50" s="2">
-        <v>1.91882707</v>
+        <v>1.9188270700000001</v>
       </c>
       <c r="V50" s="2">
-        <v>419.3759469</v>
+        <v>419.37594689999997</v>
       </c>
       <c r="W50" s="2">
-        <v>0.020358905</v>
+        <v>2.0358905E-2</v>
       </c>
       <c r="X50" s="2">
-        <v>4.677820827</v>
+        <v>4.6778208269999997</v>
       </c>
       <c r="Y50">
-        <v>0.004241346241794284</v>
+        <v>4.2413462417942843E-3</v>
       </c>
       <c r="Z50">
-        <v>-415.4808569084985</v>
+        <v>-415.48085690849848</v>
       </c>
       <c r="AA50">
         <v>21.51911591464194</v>
       </c>
       <c r="AB50">
-        <v>-11.98897205398353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>-11.988972053983529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -4740,10 +4765,10 @@
         <v>110</v>
       </c>
       <c r="F51" s="2">
-        <v>60.33566666666667</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="G51" s="2">
-        <v>-46.65483333333334</v>
+        <v>-46.654833333333343</v>
       </c>
       <c r="I51" s="2">
         <v>1.933581225</v>
@@ -4752,19 +4777,19 @@
         <v>1.915775719</v>
       </c>
       <c r="K51" s="2">
-        <v>-57.09212294</v>
+        <v>-57.092122940000003</v>
       </c>
       <c r="L51" s="2">
-        <v>-44.46767059</v>
+        <v>-44.467670589999997</v>
       </c>
       <c r="M51" s="2">
         <v>390.4704997</v>
       </c>
       <c r="N51" s="2">
-        <v>-8.883125679000001</v>
+        <v>-8.8831256790000008</v>
       </c>
       <c r="O51" s="2">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P51" s="2">
         <v>7.2</v>
@@ -4782,31 +4807,31 @@
         <v>1009</v>
       </c>
       <c r="U51" s="2">
-        <v>1.850919519</v>
+        <v>1.8509195190000001</v>
       </c>
       <c r="V51" s="2">
-        <v>421.8655557</v>
+        <v>421.86555570000002</v>
       </c>
       <c r="W51" s="2">
-        <v>0.019631084</v>
+        <v>1.9631084E-2</v>
       </c>
       <c r="X51" s="2">
-        <v>4.706409181</v>
+        <v>4.7064091809999997</v>
       </c>
       <c r="Y51">
-        <v>0.00573655902057848</v>
+        <v>5.7365590205784803E-3</v>
       </c>
       <c r="Z51">
-        <v>-319.5267760054664</v>
+        <v>-319.52677600546639</v>
       </c>
       <c r="AA51">
-        <v>22.4381402943554</v>
+        <v>22.438140294355399</v>
       </c>
       <c r="AB51">
-        <v>-12.53407448783006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>-12.534074487830059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -4820,31 +4845,31 @@
         <v>110</v>
       </c>
       <c r="F52" s="2">
-        <v>60.33566666666667</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="G52" s="2">
-        <v>-46.65483333333334</v>
+        <v>-46.654833333333343</v>
       </c>
       <c r="I52" s="2">
-        <v>1.92347487301287</v>
+        <v>1.9234748730128699</v>
       </c>
       <c r="J52" s="2">
-        <v>1.91900742774257</v>
+        <v>1.9190074277425699</v>
       </c>
       <c r="K52" s="2">
-        <v>-57.2426057828316</v>
+        <v>-57.242605782831603</v>
       </c>
       <c r="L52" s="2">
-        <v>-50.6596780249801</v>
+        <v>-50.659678024980103</v>
       </c>
       <c r="M52" s="2">
-        <v>388.736942861683</v>
+        <v>388.73694286168302</v>
       </c>
       <c r="N52" s="2">
-        <v>-8.26460047349207</v>
+        <v>-8.2646004734920702</v>
       </c>
       <c r="O52" s="2">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P52" s="2">
         <v>7.2</v>
@@ -4862,25 +4887,25 @@
         <v>1009</v>
       </c>
       <c r="U52" s="2">
-        <v>1.850919519</v>
+        <v>1.8509195190000001</v>
       </c>
       <c r="V52" s="2">
-        <v>421.8655557</v>
+        <v>421.86555570000002</v>
       </c>
       <c r="W52" s="2">
-        <v>0.019631084</v>
+        <v>1.9631084E-2</v>
       </c>
       <c r="X52" s="2">
-        <v>4.706409181</v>
+        <v>4.7064091809999997</v>
       </c>
       <c r="Y52">
-        <v>0.005396396055885645</v>
+        <v>5.3963960558856454E-3</v>
       </c>
       <c r="Z52">
-        <v>-336.9010321235191</v>
+        <v>-336.90103212351909</v>
       </c>
       <c r="AA52">
-        <v>21.67467163104884</v>
+        <v>21.674671631048842</v>
       </c>
       <c r="AB52">
         <v>-11.87215119117824</v>

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7954519B-F07C-469D-86A0-012C8A079CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210716AD-BFBE-4CA5-B8E4-12D9D0B78975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210716AD-BFBE-4CA5-B8E4-12D9D0B78975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC285536-9883-42E2-A940-353DE342DB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -728,15 +728,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" customWidth="1"/>
-    <col min="6" max="22" width="9.1796875" style="2"/>
+    <col min="6" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="19.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" style="2" customWidth="1"/>
+    <col min="14" max="20" width="9.1796875" style="2"/>
+    <col min="21" max="21" width="15.1796875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.1796875" style="2"/>
     <col min="23" max="23" width="21.1796875" style="2" customWidth="1"/>
     <col min="24" max="24" width="17.36328125" style="2" customWidth="1"/>
     <col min="25" max="25" width="17.453125" customWidth="1"/>

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\pyheadspace-main-final\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC285536-9883-42E2-A940-353DE342DB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD131E-2185-478E-B357-B00DA7E6735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,29 +728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
-    <col min="6" max="8" width="9.1796875" style="2"/>
-    <col min="9" max="9" width="19.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="2" customWidth="1"/>
-    <col min="14" max="20" width="9.1796875" style="2"/>
-    <col min="21" max="21" width="15.1796875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.1796875" style="2"/>
-    <col min="23" max="23" width="21.1796875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="17.36328125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="17.453125" customWidth="1"/>
-    <col min="26" max="26" width="20.81640625" customWidth="1"/>
-    <col min="27" max="27" width="18.6328125" customWidth="1"/>
-    <col min="28" max="28" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="6" max="24" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -895,28 +880,28 @@
         <v>1016</v>
       </c>
       <c r="U2" s="2">
-        <v>1.4167817149999999</v>
+        <v>1.8335928860073889</v>
       </c>
       <c r="V2" s="2">
-        <v>425.18375889999999</v>
+        <v>433.83675948232349</v>
       </c>
       <c r="W2" s="2">
-        <v>1.5070706999999999E-2</v>
+        <v>-56.921563463333342</v>
       </c>
       <c r="X2" s="2">
-        <v>4.7185634719999996</v>
+        <v>-9.9155234024999999</v>
       </c>
       <c r="Y2">
-        <v>8.7986419531844492E-3</v>
+        <v>3.094426823591504E-3</v>
       </c>
       <c r="Z2">
-        <v>-172.69315132387109</v>
+        <v>-29.987497521374969</v>
       </c>
       <c r="AA2">
-        <v>17.010617044801119</v>
+        <v>16.892197529511328</v>
       </c>
       <c r="AB2">
-        <v>-17.005167178494538</v>
+        <v>-12.015240858390669</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
@@ -975,28 +960,28 @@
         <v>1016</v>
       </c>
       <c r="U3" s="2">
-        <v>1.4167817149999999</v>
+        <v>1.8335928860073889</v>
       </c>
       <c r="V3" s="2">
-        <v>425.18375889999999</v>
+        <v>433.83675948232349</v>
       </c>
       <c r="W3" s="2">
-        <v>1.5070706999999999E-2</v>
+        <v>-56.921563463333342</v>
       </c>
       <c r="X3" s="2">
-        <v>4.7185634719999996</v>
+        <v>-9.9155234024999999</v>
       </c>
       <c r="Y3">
-        <v>6.8879478280648816E-3</v>
+        <v>1.183732698471937E-3</v>
       </c>
       <c r="Z3">
-        <v>-211.6228605855236</v>
+        <v>-26.61873100719248</v>
       </c>
       <c r="AA3">
-        <v>20.395721535975039</v>
+        <v>20.277302020685241</v>
       </c>
       <c r="AB3">
-        <v>-17.814917695776028</v>
+        <v>-13.662854633127999</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -1061,22 +1046,22 @@
         <v>376.89630269999998</v>
       </c>
       <c r="W4" s="2">
-        <v>1.7946143000000001E-2</v>
+        <v>-54.962661850000003</v>
       </c>
       <c r="X4" s="2">
-        <v>4.2023151219999999</v>
+        <v>-10.123835120000001</v>
       </c>
       <c r="Y4">
         <v>4.3066027545636352E-3</v>
       </c>
       <c r="Z4">
-        <v>-363.7047473983144</v>
+        <v>-69.069968752057505</v>
       </c>
       <c r="AA4">
         <v>14.3678220560186</v>
       </c>
       <c r="AB4">
-        <v>-15.322786826926009</v>
+        <v>-10.170162418187131</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -1141,22 +1126,22 @@
         <v>376.89630269999998</v>
       </c>
       <c r="W5" s="2">
-        <v>1.7946143000000001E-2</v>
+        <v>-54.962661859999997</v>
       </c>
       <c r="X5" s="2">
-        <v>4.2023151219999999</v>
+        <v>-10.12383513</v>
       </c>
       <c r="Y5">
         <v>5.3111985677699236E-3</v>
       </c>
       <c r="Z5">
-        <v>-304.51422575346533</v>
+        <v>-65.442071932928386</v>
       </c>
       <c r="AA5">
         <v>14.534113502664461</v>
       </c>
       <c r="AB5">
-        <v>-11.257259096196901</v>
+        <v>-6.1631335093008666</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
@@ -1221,22 +1206,22 @@
         <v>445.16345819999998</v>
       </c>
       <c r="W6" s="2">
-        <v>1.9807886E-2</v>
+        <v>-55.929852109999999</v>
       </c>
       <c r="X6" s="2">
-        <v>4.9584513340000003</v>
+        <v>-10.818008020000001</v>
       </c>
       <c r="Y6">
         <v>3.1393192049598779E-3</v>
       </c>
       <c r="Z6">
-        <v>-526.37736232246459</v>
+        <v>-74.970404126836982</v>
       </c>
       <c r="AA6">
         <v>13.034786724309869</v>
       </c>
       <c r="AB6">
-        <v>-15.798780107471041</v>
+        <v>-8.4469748773876585</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
@@ -1301,22 +1286,22 @@
         <v>445.16345819999998</v>
       </c>
       <c r="W7" s="2">
-        <v>1.9807886E-2</v>
+        <v>-55.92985212</v>
       </c>
       <c r="X7" s="2">
-        <v>4.9584513340000003</v>
+        <v>-10.81800803</v>
       </c>
       <c r="Y7">
         <v>3.1665834200018629E-3</v>
       </c>
       <c r="Z7">
-        <v>-516.46073452013752</v>
+        <v>-68.860766056122785</v>
       </c>
       <c r="AA7">
         <v>13.70557189048021</v>
       </c>
       <c r="AB7">
-        <v>-12.306241382841311</v>
+        <v>-5.3137396892111166</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -1381,22 +1366,22 @@
         <v>433.82134910000002</v>
       </c>
       <c r="W8" s="2">
-        <v>1.9892152999999999E-2</v>
+        <v>-54.967832059999999</v>
       </c>
       <c r="X8" s="2">
-        <v>4.8329789300000003</v>
+        <v>-10.432196769999999</v>
       </c>
       <c r="Y8">
         <v>2.160238126085596E-3</v>
       </c>
       <c r="Z8">
-        <v>-696.6256947843907</v>
+        <v>-53.879111877844778</v>
       </c>
       <c r="AA8">
         <v>13.28311124112029</v>
       </c>
       <c r="AB8">
-        <v>-14.45192617230939</v>
+        <v>-7.6804265916629033</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -1461,22 +1446,22 @@
         <v>433.82134910000002</v>
       </c>
       <c r="W9" s="2">
-        <v>1.9892152999999999E-2</v>
+        <v>-54.96783207</v>
       </c>
       <c r="X9" s="2">
-        <v>4.8329789300000003</v>
+        <v>-10.43219678</v>
       </c>
       <c r="Y9">
         <v>2.5890625114570178E-3</v>
       </c>
       <c r="Z9">
-        <v>-610.53896915401879</v>
+        <v>-73.854208192095868</v>
       </c>
       <c r="AA9">
         <v>13.322440431540951</v>
       </c>
       <c r="AB9">
-        <v>-13.10754012315873</v>
+        <v>-6.3558314274152483</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -1541,22 +1526,22 @@
         <v>435.53585579999998</v>
       </c>
       <c r="W10" s="2">
-        <v>1.9940528999999999E-2</v>
+        <v>-56.965777799999998</v>
       </c>
       <c r="X10" s="2">
-        <v>4.8534427239999998</v>
+        <v>-10.00010646</v>
       </c>
       <c r="Y10">
         <v>2.313060509072797E-3</v>
       </c>
       <c r="Z10">
-        <v>-709.55126793189174</v>
+        <v>-85.00562934969625</v>
       </c>
       <c r="AA10">
         <v>12.886240513395959</v>
       </c>
       <c r="AB10">
-        <v>-16.150672389329209</v>
+        <v>-9.3332575831532871</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -1621,22 +1606,22 @@
         <v>435.53585579999998</v>
       </c>
       <c r="W11" s="2">
-        <v>1.9940528999999999E-2</v>
+        <v>-56.965777899999999</v>
       </c>
       <c r="X11" s="2">
-        <v>4.8534427239999998</v>
+        <v>-10.00010647</v>
       </c>
       <c r="Y11">
         <v>1.273072341096046E-3</v>
       </c>
       <c r="Z11">
-        <v>-1167.311000424859</v>
+        <v>-37.764903603325507</v>
       </c>
       <c r="AA11">
         <v>12.159238500098301</v>
       </c>
       <c r="AB11">
-        <v>-12.97942553951648</v>
+        <v>-5.7538575017105353</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
@@ -1701,22 +1686,22 @@
         <v>425.93807659999999</v>
       </c>
       <c r="W12" s="2">
-        <v>1.9758871000000001E-2</v>
+        <v>-55.161032149999997</v>
       </c>
       <c r="X12" s="2">
-        <v>4.7511063609999997</v>
+        <v>-8.6518897119999991</v>
       </c>
       <c r="Y12">
         <v>1.9535766242476859E-3</v>
       </c>
       <c r="Z12">
-        <v>-757.69992928962938</v>
+        <v>-51.553582375473141</v>
       </c>
       <c r="AA12">
         <v>12.13082203666711</v>
       </c>
       <c r="AB12">
-        <v>-14.82722299042927</v>
+        <v>-8.4535109118620824</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -1775,28 +1760,28 @@
         <v>1010.6</v>
       </c>
       <c r="U13" s="2">
-        <v>2.5673924170000002</v>
+        <v>1.8335928860073889</v>
       </c>
       <c r="V13" s="2">
-        <v>428.39231189999998</v>
+        <v>433.83675948232349</v>
       </c>
       <c r="W13" s="2">
-        <v>2.7385083000000001E-2</v>
+        <v>-56.921563463333342</v>
       </c>
       <c r="X13" s="2">
-        <v>4.772926827</v>
+        <v>-9.9155234024999999</v>
       </c>
       <c r="Y13">
-        <v>-7.0054080996426312E-3</v>
+        <v>2.906940855599578E-3</v>
       </c>
       <c r="Z13">
-        <v>214.0385215017366</v>
+        <v>-28.949042225207439</v>
       </c>
       <c r="AA13">
-        <v>12.49166138250607</v>
+        <v>12.41811641276275</v>
       </c>
       <c r="AB13">
-        <v>-14.02964905376802</v>
+        <v>-7.210428614838893</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
@@ -1855,28 +1840,28 @@
         <v>1010.6</v>
       </c>
       <c r="U14" s="2">
-        <v>2.5673924170000002</v>
+        <v>1.8335928860073889</v>
       </c>
       <c r="V14" s="2">
-        <v>428.39231189999998</v>
+        <v>433.83675948232349</v>
       </c>
       <c r="W14" s="2">
-        <v>2.7385083000000001E-2</v>
+        <v>-56.921563463333342</v>
       </c>
       <c r="X14" s="2">
-        <v>4.772926827</v>
+        <v>-9.9155234024999999</v>
       </c>
       <c r="Y14">
-        <v>-7.6153841837834618E-3</v>
+        <v>2.296964771458747E-3</v>
       </c>
       <c r="Z14">
-        <v>197.37720473926319</v>
+        <v>-38.348758521608787</v>
       </c>
       <c r="AA14">
-        <v>14.04262998583361</v>
+        <v>13.96908501609029</v>
       </c>
       <c r="AB14">
-        <v>-16.120837409825729</v>
+        <v>-10.07008790525987</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -1941,22 +1926,22 @@
         <v>401.94870529999997</v>
       </c>
       <c r="W15" s="2">
-        <v>1.9290706000000001E-2</v>
+        <v>-54.467110390000002</v>
       </c>
       <c r="X15" s="2">
-        <v>4.4780810070000001</v>
+        <v>-10.08089219</v>
       </c>
       <c r="Y15">
         <v>2.863116203685788E-3</v>
       </c>
       <c r="Z15">
-        <v>-523.37306033826292</v>
+        <v>-59.038431815159889</v>
       </c>
       <c r="AA15">
         <v>12.3656058813346</v>
       </c>
       <c r="AB15">
-        <v>-13.995303591023189</v>
+        <v>-7.5991324176979402</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -2021,22 +2006,22 @@
         <v>401.94870529999997</v>
       </c>
       <c r="W16" s="2">
-        <v>1.9290706000000001E-2</v>
+        <v>-54.467110400000003</v>
       </c>
       <c r="X16" s="2">
-        <v>4.4780810070000001</v>
+        <v>-10.080892199999999</v>
       </c>
       <c r="Y16">
         <v>3.4724421673064249E-3</v>
       </c>
       <c r="Z16">
-        <v>-454.50987994894251</v>
+        <v>-71.413519203312731</v>
       </c>
       <c r="AA16">
         <v>12.824036640454979</v>
       </c>
       <c r="AB16">
-        <v>-12.798178964173349</v>
+        <v>-6.6305089607735512</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -2101,22 +2086,22 @@
         <v>426.38456079999997</v>
       </c>
       <c r="W17" s="2">
-        <v>1.9630239000000001E-2</v>
+        <v>-55.223878399999997</v>
       </c>
       <c r="X17" s="2">
-        <v>4.7509650990000001</v>
+        <v>-9.9718146890000003</v>
       </c>
       <c r="Y17">
         <v>2.6463650133031428E-3</v>
       </c>
       <c r="Z17">
-        <v>-587.03370068996821</v>
+        <v>-67.508858249188066</v>
       </c>
       <c r="AA17">
         <v>12.60328512536244</v>
       </c>
       <c r="AB17">
-        <v>-14.084294278279289</v>
+        <v>-7.3366356704104296</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
@@ -2181,22 +2166,22 @@
         <v>426.38456079999997</v>
       </c>
       <c r="W18" s="2">
-        <v>1.9630239000000001E-2</v>
+        <v>-55.223878499999998</v>
       </c>
       <c r="X18" s="2">
-        <v>4.7509650990000001</v>
+        <v>-9.9718146900000004</v>
       </c>
       <c r="Y18">
         <v>2.80671947978549E-3</v>
       </c>
       <c r="Z18">
-        <v>-550.11778978465475</v>
+        <v>-60.032839705966737</v>
       </c>
       <c r="AA18">
         <v>13.08850982013441</v>
       </c>
       <c r="AB18">
-        <v>-12.48949881771278</v>
+        <v>-5.9917820421501178</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
@@ -2261,22 +2246,22 @@
         <v>434.12229908788203</v>
       </c>
       <c r="W19" s="2">
-        <v>1.96930436347586E-2</v>
+        <v>-57.196125119999998</v>
       </c>
       <c r="X19" s="2">
-        <v>4.8421454403630504</v>
+        <v>-9.0503898150000008</v>
       </c>
       <c r="Y19">
         <v>2.6672394797877682E-3</v>
       </c>
       <c r="Z19">
-        <v>-578.80778892268859</v>
+        <v>-43.638872427387398</v>
       </c>
       <c r="AA19">
         <v>11.78628813985136</v>
       </c>
       <c r="AB19">
-        <v>-13.778550185778011</v>
+        <v>-6.8687693718824114</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
@@ -2341,22 +2326,22 @@
         <v>434.12229908788203</v>
       </c>
       <c r="W20" s="2">
-        <v>1.96930436347586E-2</v>
+        <v>-57.196125129999999</v>
       </c>
       <c r="X20" s="2">
-        <v>4.8421454403630504</v>
+        <v>-9.0503898159999991</v>
       </c>
       <c r="Y20">
         <v>1.0753179297020439E-2</v>
       </c>
       <c r="Z20">
-        <v>-167.9098347095055</v>
+        <v>-34.54512387817099</v>
       </c>
       <c r="AA20">
         <v>12.209154891068099</v>
       </c>
       <c r="AB20">
-        <v>-13.27394907325175</v>
+        <v>-6.6034332372819637</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
@@ -2421,22 +2406,22 @@
         <v>453.20552079999999</v>
       </c>
       <c r="W21" s="2">
-        <v>1.9627262999999999E-2</v>
+        <v>-59.204145969999999</v>
       </c>
       <c r="X21" s="2">
-        <v>5.0453170900000002</v>
+        <v>-10.972126019999999</v>
       </c>
       <c r="Y21">
         <v>2.5083802070741731E-3</v>
       </c>
       <c r="Z21">
-        <v>-601.338345220664</v>
+        <v>-14.28188532058727</v>
       </c>
       <c r="AA21">
         <v>12.40460381902483</v>
       </c>
       <c r="AB21">
-        <v>-14.444606292561829</v>
+        <v>-6.5599045270557932</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -2501,22 +2486,22 @@
         <v>453.20552079999999</v>
       </c>
       <c r="W22" s="2">
-        <v>1.9627262999999999E-2</v>
+        <v>-59.20414598</v>
       </c>
       <c r="X22" s="2">
-        <v>5.0453170900000002</v>
+        <v>-10.97212603</v>
       </c>
       <c r="Y22">
         <v>2.6246246810573831E-3</v>
       </c>
       <c r="Z22">
-        <v>-609.79545738422769</v>
+        <v>-49.007939392600399</v>
       </c>
       <c r="AA22">
         <v>13.692604486263971</v>
       </c>
       <c r="AB22">
-        <v>-15.64113485090213</v>
+        <v>-8.4983585245748117</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
@@ -2581,22 +2566,22 @@
         <v>453.20552079999999</v>
       </c>
       <c r="W23" s="2">
-        <v>1.9627262999999999E-2</v>
+        <v>-59.204145990000001</v>
       </c>
       <c r="X23" s="2">
-        <v>5.0453170900000002</v>
+        <v>-10.972126039999999</v>
       </c>
       <c r="Y23">
         <v>1.7903520265769349E-3</v>
       </c>
       <c r="Z23">
-        <v>-888.02078988385836</v>
+        <v>-68.640258916474735</v>
       </c>
       <c r="AA23">
         <v>13.11377210512663</v>
       </c>
       <c r="AB23">
-        <v>-13.42681453214178</v>
+        <v>-5.9683699643656718</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
@@ -2661,22 +2646,22 @@
         <v>461.01353599999999</v>
       </c>
       <c r="W24" s="2">
-        <v>1.9088435000000001E-2</v>
+        <v>-61.177933860000003</v>
       </c>
       <c r="X24" s="2">
-        <v>5.1437586780000002</v>
+        <v>-9.1076751859999998</v>
       </c>
       <c r="Y24">
         <v>3.8477303472249391E-3</v>
       </c>
       <c r="Z24">
-        <v>-409.09747965269941</v>
+        <v>-23.059563032512109</v>
       </c>
       <c r="AA24">
         <v>12.308226243219529</v>
       </c>
       <c r="AB24">
-        <v>-16.3167790810067</v>
+        <v>-9.1283280135923128</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
@@ -2741,22 +2726,22 @@
         <v>451.92330140000001</v>
       </c>
       <c r="W25" s="2">
-        <v>1.8959759999999999E-2</v>
+        <v>-60.025576095000012</v>
       </c>
       <c r="X25" s="2">
-        <v>5.0397000790000002</v>
+        <v>-9.5691955029999995</v>
       </c>
       <c r="Y25">
         <v>3.3479402018581602E-3</v>
       </c>
       <c r="Z25">
-        <v>-436.14731047713133</v>
+        <v>-5.5429259398406261</v>
       </c>
       <c r="AA25">
         <v>12.204093082609891</v>
       </c>
       <c r="AB25">
-        <v>-14.357927366915099</v>
+        <v>-7.0926381981493147</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -2821,22 +2806,22 @@
         <v>451.92330140000001</v>
       </c>
       <c r="W26" s="2">
-        <v>1.8959759999999999E-2</v>
+        <v>-60.025576095000012</v>
       </c>
       <c r="X26" s="2">
-        <v>5.0397000790000002</v>
+        <v>-9.5691955029999995</v>
       </c>
       <c r="Y26">
         <v>3.8534761595845741E-3</v>
       </c>
       <c r="Z26">
-        <v>-412.93589801849299</v>
+        <v>-38.863721562419457</v>
       </c>
       <c r="AA26">
         <v>12.58057404693619</v>
       </c>
       <c r="AB26">
-        <v>-12.52443539377601</v>
+        <v>-5.4762953462041963</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
@@ -2901,22 +2886,22 @@
         <v>442.83306679999998</v>
       </c>
       <c r="W27" s="2">
-        <v>1.8831085000000001E-2</v>
+        <v>-58.87321833</v>
       </c>
       <c r="X27" s="2">
-        <v>4.9356414800000001</v>
+        <v>-10.030715819999999</v>
       </c>
       <c r="Y27">
         <v>2.1392763993178989E-3</v>
       </c>
       <c r="Z27">
-        <v>-685.58456005589005</v>
+        <v>-34.329058174857757</v>
       </c>
       <c r="AA27">
         <v>15.10032076708951</v>
       </c>
       <c r="AB27">
-        <v>-16.85754820523999</v>
+        <v>-10.984821800440249</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
@@ -2981,22 +2966,22 @@
         <v>469.17838260000002</v>
       </c>
       <c r="W28" s="2">
-        <v>1.9672393999999999E-2</v>
+        <v>-58.929193519999998</v>
       </c>
       <c r="X28" s="2">
-        <v>5.2293654299999996</v>
+        <v>-9.7466310279999995</v>
       </c>
       <c r="Y28">
         <v>2.6723683008303312E-3</v>
       </c>
       <c r="Z28">
-        <v>-589.52349097971648</v>
+        <v>-41.973387098349633</v>
       </c>
       <c r="AA28">
         <v>14.04731950972567</v>
       </c>
       <c r="AB28">
-        <v>-14.31528922837211</v>
+        <v>-7.5997118670074748</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -3061,22 +3046,22 @@
         <v>469.17838260000002</v>
       </c>
       <c r="W29" s="2">
-        <v>1.9672393999999999E-2</v>
+        <v>-58.929193529999999</v>
       </c>
       <c r="X29" s="2">
-        <v>5.2293654299999996</v>
+        <v>-9.7466310289999996</v>
       </c>
       <c r="Y29">
         <v>2.756504072801392E-3</v>
       </c>
       <c r="Z29">
-        <v>-559.06956582865462</v>
+        <v>-27.969964685378159</v>
       </c>
       <c r="AA29">
         <v>14.374101905881639</v>
       </c>
       <c r="AB29">
-        <v>-14.022191817537831</v>
+        <v>-7.4592556575592273</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
@@ -3141,22 +3126,22 @@
         <v>428.6505975</v>
       </c>
       <c r="W30" s="2">
-        <v>2.0263805999999999E-2</v>
+        <v>-53.667842299999997</v>
       </c>
       <c r="X30" s="2">
-        <v>4.7792168410000002</v>
+        <v>-9.4657855190000006</v>
       </c>
       <c r="Y30">
         <v>4.148862416880339E-3</v>
       </c>
       <c r="Z30">
-        <v>-415.20836405210929</v>
+        <v>-64.572766706793345</v>
       </c>
       <c r="AA30">
         <v>15.86042245163045</v>
       </c>
       <c r="AB30">
-        <v>-13.199130987740171</v>
+        <v>-7.6997745456384159</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
@@ -3221,22 +3206,22 @@
         <v>428.6505975</v>
       </c>
       <c r="W31" s="2">
-        <v>2.0263805999999999E-2</v>
+        <v>-53.667842399999998</v>
       </c>
       <c r="X31" s="2">
-        <v>4.7792168410000002</v>
+        <v>-9.4657855200000007</v>
       </c>
       <c r="Y31">
         <v>4.2777133855035647E-3</v>
       </c>
       <c r="Z31">
-        <v>-401.87961289636598</v>
+        <v>-61.744679774671908</v>
       </c>
       <c r="AA31">
         <v>15.48953659619592</v>
       </c>
       <c r="AB31">
-        <v>-11.582660149749071</v>
+        <v>-5.95141603735172</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -3301,22 +3286,22 @@
         <v>409.18969220000002</v>
       </c>
       <c r="W32" s="2">
-        <v>1.9294425E-2</v>
+        <v>-52.742472229999997</v>
       </c>
       <c r="X32" s="2">
-        <v>4.564363502</v>
+        <v>-8.9464004369999994</v>
       </c>
       <c r="Y32">
         <v>1.8840000798497809E-2</v>
       </c>
       <c r="Z32">
-        <v>-139.31512409245701</v>
+        <v>-66.805941919899297</v>
       </c>
       <c r="AA32">
         <v>17.63643212185108</v>
       </c>
       <c r="AB32">
-        <v>-13.338908974866889</v>
+        <v>-8.8546116854044676</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3381,22 +3366,22 @@
         <v>409.18969220000002</v>
       </c>
       <c r="W33" s="2">
-        <v>1.9294425E-2</v>
+        <v>-52.742472239999998</v>
       </c>
       <c r="X33" s="2">
-        <v>4.564363502</v>
+        <v>-8.9464004379999995</v>
       </c>
       <c r="Y33">
         <v>5.0992767757006554E-3</v>
       </c>
       <c r="Z33">
-        <v>-338.2930720208185</v>
+        <v>-71.000310513008586</v>
       </c>
       <c r="AA33">
         <v>16.76261546046538</v>
       </c>
       <c r="AB33">
-        <v>-11.385024651412889</v>
+        <v>-6.6667498028916139</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -3461,22 +3446,22 @@
         <v>425.92079680000001</v>
       </c>
       <c r="W34" s="2">
-        <v>2.0400456000000001E-2</v>
+        <v>-54.481109349999997</v>
       </c>
       <c r="X34" s="2">
-        <v>4.7503374010000003</v>
+        <v>-8.9611472350000003</v>
       </c>
       <c r="Y34">
         <v>9.2946502253593176E-4</v>
       </c>
       <c r="Z34">
-        <v>-1630.653147127696</v>
+        <v>-53.572785691703317</v>
       </c>
       <c r="AA34">
         <v>15.84829761573134</v>
       </c>
       <c r="AB34">
-        <v>-12.575465815604311</v>
+        <v>-7.3198999362500414</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -3541,22 +3526,22 @@
         <v>425.92079680000001</v>
       </c>
       <c r="W35" s="2">
-        <v>2.0400456000000001E-2</v>
+        <v>-54.481109359999998</v>
       </c>
       <c r="X35" s="2">
-        <v>4.7503374010000003</v>
+        <v>-8.9611472360000004</v>
       </c>
       <c r="Y35">
         <v>3.9362051165427398E-3</v>
       </c>
       <c r="Z35">
-        <v>-438.97234523744521</v>
+        <v>-61.609548827279312</v>
       </c>
       <c r="AA35">
         <v>17.12329872440429</v>
       </c>
       <c r="AB35">
-        <v>-12.05689641067187</v>
+        <v>-7.1926253148590913</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -3621,22 +3606,22 @@
         <v>431.67977839999998</v>
       </c>
       <c r="W36" s="2">
-        <v>2.0250593000000001E-2</v>
+        <v>-55.749257299999996</v>
       </c>
       <c r="X36" s="2">
-        <v>4.8151137110000004</v>
+        <v>-8.8215445740000007</v>
       </c>
       <c r="Y36">
         <v>3.0632763796748512E-3</v>
       </c>
       <c r="Z36">
-        <v>-530.78580818635874</v>
+        <v>-40.815159054814373</v>
       </c>
       <c r="AA36">
         <v>17.357286913651048</v>
       </c>
       <c r="AB36">
-        <v>-12.52834722807361</v>
+        <v>-7.7192718634748747</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -3701,22 +3686,22 @@
         <v>431.67977839999998</v>
       </c>
       <c r="W37" s="2">
-        <v>2.0250593000000001E-2</v>
+        <v>-55.749257399999998</v>
       </c>
       <c r="X37" s="2">
-        <v>4.8151137110000004</v>
+        <v>-8.8215445750000008</v>
       </c>
       <c r="Y37">
         <v>3.771834849239139E-3</v>
       </c>
       <c r="Z37">
-        <v>-446.76102079645409</v>
+        <v>-48.49583572837868</v>
       </c>
       <c r="AA37">
         <v>17.102070870687509</v>
       </c>
       <c r="AB37">
-        <v>-12.26154795759704</v>
+        <v>-7.3806735695958192</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -3781,22 +3766,22 @@
         <v>430.28705200000002</v>
       </c>
       <c r="W38" s="2">
-        <v>2.0259525E-2</v>
+        <v>-55.278645619999999</v>
       </c>
       <c r="X38" s="2">
-        <v>4.7999479550000004</v>
+        <v>-8.7287765089999994</v>
       </c>
       <c r="Y38">
         <v>3.7435667598590639E-3</v>
       </c>
       <c r="Z38">
-        <v>-464.40417120133822</v>
+        <v>-56.778306121441638</v>
       </c>
       <c r="AA38">
         <v>20.76062096472975</v>
       </c>
       <c r="AB38">
-        <v>-12.351565812834361</v>
+        <v>-8.2768159256720875</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -3861,22 +3846,22 @@
         <v>430.28705200000002</v>
       </c>
       <c r="W39" s="2">
-        <v>2.0259525E-2</v>
+        <v>-55.27864563</v>
       </c>
       <c r="X39" s="2">
-        <v>4.7999479550000004</v>
+        <v>-8.7287765099999994</v>
       </c>
       <c r="Y39">
         <v>4.6316177526309031E-3</v>
       </c>
       <c r="Z39">
-        <v>-435.67231818330612</v>
+        <v>-106.2785673972506</v>
       </c>
       <c r="AA39">
         <v>22.11925578610898</v>
       </c>
       <c r="AB39">
-        <v>-13.653503092230119</v>
+        <v>-9.8291579695037878</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3941,22 +3926,22 @@
         <v>425.33562430000001</v>
       </c>
       <c r="W40" s="2">
-        <v>2.0131275000000001E-2</v>
+        <v>-52.67334237</v>
       </c>
       <c r="X40" s="2">
-        <v>4.746710996</v>
+        <v>-8.270844147</v>
       </c>
       <c r="Y40">
         <v>4.0924759749951106E-3</v>
       </c>
       <c r="Z40">
-        <v>-407.20916575577428</v>
+        <v>-61.070568130434211</v>
       </c>
       <c r="AA40">
         <v>17.982750875783282</v>
       </c>
       <c r="AB40">
-        <v>-11.76180466632737</v>
+        <v>-7.3654144031187752</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -4021,22 +4006,22 @@
         <v>425.33562430000001</v>
       </c>
       <c r="W41" s="2">
-        <v>2.0131275000000001E-2</v>
+        <v>-52.673342380000001</v>
       </c>
       <c r="X41" s="2">
-        <v>4.746710996</v>
+        <v>-8.2708441480000001</v>
       </c>
       <c r="Y41">
         <v>4.4255615867307861E-3</v>
       </c>
       <c r="Z41">
-        <v>-409.22465451192312</v>
+        <v>-89.244784328176621</v>
       </c>
       <c r="AA41">
         <v>19.695014769314671</v>
       </c>
       <c r="AB41">
-        <v>-12.08349086415217</v>
+        <v>-8.0693636766269172</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
@@ -4101,22 +4086,22 @@
         <v>435.60845430000001</v>
       </c>
       <c r="W42" s="2">
-        <v>2.0122201999999999E-2</v>
+        <v>-56.098485160000003</v>
       </c>
       <c r="X42" s="2">
-        <v>4.85986911</v>
+        <v>-8.5428013939999996</v>
       </c>
       <c r="Y42">
         <v>3.737855902050986E-3</v>
       </c>
       <c r="Z42">
-        <v>-441.68506239189969</v>
+        <v>-33.864673745682254</v>
       </c>
       <c r="AA42">
         <v>17.285677661063509</v>
       </c>
       <c r="AB42">
-        <v>-12.404645600412881</v>
+        <v>-7.5468825675604201</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -4181,22 +4166,22 @@
         <v>421.04738659999998</v>
       </c>
       <c r="W43" s="2">
-        <v>2.0530521999999999E-2</v>
+        <v>-53.996053099999997</v>
       </c>
       <c r="X43" s="2">
-        <v>4.697638091</v>
+        <v>-8.4924573149999993</v>
       </c>
       <c r="Y43">
         <v>3.241542899826721E-3</v>
       </c>
       <c r="Z43">
-        <v>-530.52884053095875</v>
+        <v>-68.350281365530122</v>
       </c>
       <c r="AA43">
         <v>18.442427830026219</v>
       </c>
       <c r="AB43">
-        <v>-12.362243672793481</v>
+        <v>-8.0122280938587096</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
@@ -4261,22 +4246,22 @@
         <v>421.04738659999998</v>
       </c>
       <c r="W44" s="2">
-        <v>2.0530521999999999E-2</v>
+        <v>-53.996053199999999</v>
       </c>
       <c r="X44" s="2">
-        <v>4.697638091</v>
+        <v>-8.4924573159999994</v>
       </c>
       <c r="Y44">
         <v>3.813010751166889E-3</v>
       </c>
       <c r="Z44">
-        <v>-475.73028712429738</v>
+        <v>-82.64258495025156</v>
       </c>
       <c r="AA44">
         <v>18.87583009965714</v>
       </c>
       <c r="AB44">
-        <v>-12.517394472345339</v>
+        <v>-8.2672775733730894</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
@@ -4341,22 +4326,22 @@
         <v>439.51656709999997</v>
       </c>
       <c r="W45" s="2">
-        <v>1.8623842000000002E-2</v>
+        <v>-66.0492414</v>
       </c>
       <c r="X45" s="2">
-        <v>4.8954792920000001</v>
+        <v>-10.205312859999999</v>
       </c>
       <c r="Y45">
         <v>4.7286491734834296E-3</v>
       </c>
       <c r="Z45">
-        <v>-336.55235322592171</v>
+        <v>16.20471131516199</v>
       </c>
       <c r="AA45">
         <v>15.685560010365799</v>
       </c>
       <c r="AB45">
-        <v>-16.966578994914052</v>
+        <v>-10.930904350645919</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
@@ -4421,22 +4406,22 @@
         <v>439.51656709999997</v>
       </c>
       <c r="W46" s="2">
-        <v>1.8623842000000002E-2</v>
+        <v>-66.049241499999994</v>
       </c>
       <c r="X46" s="2">
-        <v>4.8954792920000001</v>
+        <v>-10.20531287</v>
       </c>
       <c r="Y46">
         <v>6.3784988907145072E-3</v>
       </c>
       <c r="Z46">
-        <v>-307.51824463172051</v>
+        <v>-46.100527736909306</v>
       </c>
       <c r="AA46">
         <v>18.481401824916212</v>
       </c>
       <c r="AB46">
-        <v>-13.06309392816285</v>
+        <v>-7.9400975374979144</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
@@ -4501,22 +4486,22 @@
         <v>418.20489129999999</v>
       </c>
       <c r="W47" s="2">
-        <v>2.0140565999999999E-2</v>
+        <v>-55.302911600000002</v>
       </c>
       <c r="X47" s="2">
-        <v>4.6664406730000003</v>
+        <v>-8.3687344899999996</v>
       </c>
       <c r="Y47">
         <v>4.6148251241909122E-3</v>
       </c>
       <c r="Z47">
-        <v>-394.50341015363938</v>
+        <v>-67.222141792508296</v>
       </c>
       <c r="AA47">
         <v>20.797618564580009</v>
       </c>
       <c r="AB47">
-        <v>-12.09705734870237</v>
+        <v>-8.3089935587127286</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
@@ -4581,22 +4566,22 @@
         <v>421.55145099999999</v>
       </c>
       <c r="W48" s="2">
-        <v>2.0412426000000001E-2</v>
+        <v>-57.020228019999998</v>
       </c>
       <c r="X48" s="2">
-        <v>4.7042345900000004</v>
+        <v>-8.2502803119999992</v>
       </c>
       <c r="Y48">
         <v>5.0843408975148503E-3</v>
       </c>
       <c r="Z48">
-        <v>-387.11285517596082</v>
+        <v>-77.182936164740596</v>
       </c>
       <c r="AA48">
         <v>22.12089005090899</v>
       </c>
       <c r="AB48">
-        <v>-12.69580671896264</v>
+        <v>-9.1401420243376599</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -4661,22 +4646,22 @@
         <v>421.55145099999999</v>
       </c>
       <c r="W49" s="2">
-        <v>2.0412426000000001E-2</v>
+        <v>-57.020228029999998</v>
       </c>
       <c r="X49" s="2">
-        <v>4.7042345900000004</v>
+        <v>-8.2502803129999993</v>
       </c>
       <c r="Y49">
         <v>5.5082743457000724E-3</v>
       </c>
       <c r="Z49">
-        <v>-361.95988315819449</v>
+        <v>-75.798823143129241</v>
       </c>
       <c r="AA49">
         <v>21.029784370028359</v>
       </c>
       <c r="AB49">
-        <v>-12.48314303175246</v>
+        <v>-8.742971625631867</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4741,22 +4726,22 @@
         <v>419.37594689999997</v>
       </c>
       <c r="W50" s="2">
-        <v>2.0358905E-2</v>
+        <v>-55.807492770000003</v>
       </c>
       <c r="X50" s="2">
-        <v>4.6778208269999997</v>
+        <v>-8.6970304479999996</v>
       </c>
       <c r="Y50">
         <v>4.2413462417942843E-3</v>
       </c>
       <c r="Z50">
-        <v>-415.48085690849848</v>
+        <v>-53.438936396761562</v>
       </c>
       <c r="AA50">
         <v>21.51911591464194</v>
       </c>
       <c r="AB50">
-        <v>-11.988972053983529</v>
+        <v>-8.2361804841000197</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -4821,22 +4806,22 @@
         <v>421.86555570000002</v>
       </c>
       <c r="W51" s="2">
-        <v>1.9631084E-2</v>
+        <v>-56.159641149999999</v>
       </c>
       <c r="X51" s="2">
-        <v>4.7064091809999997</v>
+        <v>-8.5407833879999995</v>
       </c>
       <c r="Y51">
         <v>5.7365590205784803E-3</v>
       </c>
       <c r="Z51">
-        <v>-319.52677600546639</v>
+        <v>-61.391920609061287</v>
       </c>
       <c r="AA51">
         <v>22.438140294355399</v>
       </c>
       <c r="AB51">
-        <v>-12.534074487830059</v>
+        <v>-8.9751160578809284</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
@@ -4901,22 +4886,22 @@
         <v>421.86555570000002</v>
       </c>
       <c r="W52" s="2">
-        <v>1.9631084E-2</v>
+        <v>-56.15964116</v>
       </c>
       <c r="X52" s="2">
-        <v>4.7064091809999997</v>
+        <v>-8.5407833889999996</v>
       </c>
       <c r="Y52">
         <v>5.3963960558856454E-3</v>
       </c>
       <c r="Z52">
-        <v>-336.90103212351909</v>
+        <v>-62.551010307907113</v>
       </c>
       <c r="AA52">
         <v>21.674671631048842</v>
       </c>
       <c r="AB52">
-        <v>-11.87215119117824</v>
+        <v>-8.187772959868056</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\pyheadspace-main-final\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD131E-2185-478E-B357-B00DA7E6735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E74B0-A776-482B-A626-1E41E0DDB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -728,14 +728,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="6" max="24" width="9.1796875" style="2"/>
+    <col min="6" max="22" width="9.1796875" style="2"/>
+    <col min="23" max="23" width="19.26953125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.1796875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E74B0-A776-482B-A626-1E41E0DDB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBA790-29C4-41A6-A066-CB48EE16ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
   <si>
     <t>Sample_Name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>SLWT_2024_01_28_A</t>
   </si>
   <si>
-    <t>SLWT_2024_01_28_B</t>
-  </si>
-  <si>
     <t>SLWT_2024_01_29_A</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>SLWT_2024_06_23_B</t>
-  </si>
-  <si>
-    <t>SLWT_2024_06_24_A</t>
   </si>
   <si>
     <t>SLWT_2024_06_24_B</t>
@@ -726,19 +720,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="6" max="22" width="9.1796875" style="2"/>
-    <col min="23" max="23" width="19.26953125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="20.1796875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="15.54296875" customWidth="1"/>
+    <col min="6" max="24" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
@@ -832,13 +824,13 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2">
         <v>16.625</v>
@@ -912,13 +904,13 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="2">
         <v>16.625</v>
@@ -992,13 +984,13 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2">
         <v>16.401666666666671</v>
@@ -1072,13 +1064,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2">
         <v>16.401666666666671</v>
@@ -1152,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2">
         <v>16.31666666666667</v>
@@ -1232,13 +1224,13 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>16.31666666666667</v>
@@ -1312,13 +1304,13 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2">
         <v>16.036666666666669</v>
@@ -1392,13 +1384,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2">
         <v>16.036666666666669</v>
@@ -1472,13 +1464,13 @@
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="2">
         <v>15.37</v>
@@ -1552,13 +1544,13 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2">
         <v>15.37</v>
@@ -1632,13 +1624,13 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2">
         <v>13.74666666666667</v>
@@ -1712,13 +1704,13 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2">
         <v>13.19</v>
@@ -1792,13 +1784,13 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="2">
         <v>13.19</v>
@@ -1872,13 +1864,13 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="2">
         <v>13.23</v>
@@ -1952,13 +1944,13 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="2">
         <v>13.23</v>
@@ -2032,13 +2024,13 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2">
         <v>13.21666666666667</v>
@@ -2112,13 +2104,13 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2">
         <v>13.21666666666667</v>
@@ -2192,13 +2184,13 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2">
         <v>13.40666666666667</v>
@@ -2272,79 +2264,79 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2">
-        <v>13.40666666666667</v>
+        <v>13.67333333333333</v>
       </c>
       <c r="G20" s="2">
-        <v>-47.76166666666667</v>
+        <v>-50.601666666666667</v>
       </c>
       <c r="I20" s="2">
-        <v>2.4135573543465298</v>
+        <v>1.8565958259999999</v>
       </c>
       <c r="J20" s="2">
-        <v>2.40954026727128</v>
+        <v>1.852764211</v>
       </c>
       <c r="K20" s="2">
-        <v>-50.4047139299999</v>
+        <v>-55.112441599999997</v>
       </c>
       <c r="L20" s="2">
-        <v>-45.8933593378514</v>
+        <v>-49.876122189999997</v>
       </c>
       <c r="M20" s="2">
-        <v>404.83949651049397</v>
+        <v>416.14729740000001</v>
       </c>
       <c r="N20" s="2">
-        <v>-7.3973169640099004</v>
+        <v>-8.0155929179999994</v>
       </c>
       <c r="O20" s="2">
-        <v>35.72</v>
+        <v>35.67</v>
       </c>
       <c r="P20" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q20" s="2">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="R20" s="2">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="S20" s="2">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="T20" s="2">
-        <v>1013.8</v>
+        <v>1012.2</v>
       </c>
       <c r="U20" s="2">
-        <v>1.8588028620886701</v>
+        <v>1.8565490490000001</v>
       </c>
       <c r="V20" s="2">
-        <v>434.12229908788203</v>
+        <v>453.20552079999999</v>
       </c>
       <c r="W20" s="2">
-        <v>-57.196125129999999</v>
+        <v>-59.204145969999999</v>
       </c>
       <c r="X20" s="2">
-        <v>-9.0503898159999991</v>
+        <v>-10.972126019999999</v>
       </c>
       <c r="Y20">
-        <v>1.0753179297020439E-2</v>
+        <v>2.5083802070741731E-3</v>
       </c>
       <c r="Z20">
-        <v>-34.54512387817099</v>
+        <v>-14.28188532058727</v>
       </c>
       <c r="AA20">
-        <v>12.209154891068099</v>
+        <v>12.40460381902483</v>
       </c>
       <c r="AB20">
-        <v>-6.6034332372819637</v>
+        <v>-6.5599045270557932</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
@@ -2352,13 +2344,13 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2">
         <v>13.67333333333333</v>
@@ -2367,22 +2359,22 @@
         <v>-50.601666666666667</v>
       </c>
       <c r="I21" s="2">
-        <v>1.8565958259999999</v>
+        <v>1.86443616970395</v>
       </c>
       <c r="J21" s="2">
-        <v>1.852764211</v>
+        <v>1.8388658790801899</v>
       </c>
       <c r="K21" s="2">
-        <v>-55.112441599999997</v>
+        <v>-58.236142849653397</v>
       </c>
       <c r="L21" s="2">
-        <v>-49.876122189999997</v>
+        <v>-42.143066905405803</v>
       </c>
       <c r="M21" s="2">
-        <v>416.14729740000001</v>
+        <v>445.10157265891002</v>
       </c>
       <c r="N21" s="2">
-        <v>-8.0155929179999994</v>
+        <v>-9.2614067034841607</v>
       </c>
       <c r="O21" s="2">
         <v>35.67</v>
@@ -2409,22 +2401,22 @@
         <v>453.20552079999999</v>
       </c>
       <c r="W21" s="2">
-        <v>-59.204145969999999</v>
+        <v>-59.20414598</v>
       </c>
       <c r="X21" s="2">
-        <v>-10.972126019999999</v>
+        <v>-10.97212603</v>
       </c>
       <c r="Y21">
-        <v>2.5083802070741731E-3</v>
+        <v>2.6246246810573831E-3</v>
       </c>
       <c r="Z21">
-        <v>-14.28188532058727</v>
+        <v>-49.007939392600399</v>
       </c>
       <c r="AA21">
-        <v>12.40460381902483</v>
+        <v>13.692604486263971</v>
       </c>
       <c r="AB21">
-        <v>-6.5599045270557932</v>
+        <v>-8.4983585245748117</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -2432,13 +2424,13 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="2">
         <v>13.67333333333333</v>
@@ -2447,22 +2439,22 @@
         <v>-50.601666666666667</v>
       </c>
       <c r="I22" s="2">
-        <v>1.86443616970395</v>
+        <v>1.80557746766206</v>
       </c>
       <c r="J22" s="2">
-        <v>1.8388658790801899</v>
+        <v>1.78491355354335</v>
       </c>
       <c r="K22" s="2">
-        <v>-58.236142849653397</v>
+        <v>-59.834374624069</v>
       </c>
       <c r="L22" s="2">
-        <v>-42.143066905405803</v>
+        <v>-45.478625258379203</v>
       </c>
       <c r="M22" s="2">
-        <v>445.10157265891002</v>
+        <v>429.57499160837398</v>
       </c>
       <c r="N22" s="2">
-        <v>-9.2614067034841607</v>
+        <v>-7.5583178648595899</v>
       </c>
       <c r="O22" s="2">
         <v>35.67</v>
@@ -2474,7 +2466,7 @@
         <v>7.6</v>
       </c>
       <c r="R22" s="2">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="S22" s="2">
         <v>28</v>
@@ -2489,22 +2481,22 @@
         <v>453.20552079999999</v>
       </c>
       <c r="W22" s="2">
-        <v>-59.20414598</v>
+        <v>-59.204145990000001</v>
       </c>
       <c r="X22" s="2">
-        <v>-10.97212603</v>
+        <v>-10.972126039999999</v>
       </c>
       <c r="Y22">
-        <v>2.6246246810573831E-3</v>
+        <v>1.7903520265769349E-3</v>
       </c>
       <c r="Z22">
-        <v>-49.007939392600399</v>
+        <v>-68.640258916474735</v>
       </c>
       <c r="AA22">
-        <v>13.692604486263971</v>
+        <v>13.11377210512663</v>
       </c>
       <c r="AB22">
-        <v>-8.4983585245748117</v>
+        <v>-5.9683699643656718</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
@@ -2512,40 +2504,40 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="2">
-        <v>13.67333333333333</v>
+        <v>14.085000000000001</v>
       </c>
       <c r="G23" s="2">
-        <v>-50.601666666666667</v>
+        <v>-53.543333333333337</v>
       </c>
       <c r="I23" s="2">
-        <v>1.80557746766206</v>
+        <v>1.907983295</v>
       </c>
       <c r="J23" s="2">
-        <v>1.78491355354335</v>
+        <v>1.888779022</v>
       </c>
       <c r="K23" s="2">
-        <v>-59.834374624069</v>
+        <v>-55.982416100000002</v>
       </c>
       <c r="L23" s="2">
-        <v>-45.478625258379203</v>
+        <v>-43.611994959999997</v>
       </c>
       <c r="M23" s="2">
-        <v>429.57499160837398</v>
+        <v>421.58246489999999</v>
       </c>
       <c r="N23" s="2">
-        <v>-7.5583178648595899</v>
+        <v>-9.1214023579999992</v>
       </c>
       <c r="O23" s="2">
-        <v>35.67</v>
+        <v>35.93</v>
       </c>
       <c r="P23" s="2">
         <v>7.6</v>
@@ -2554,37 +2546,37 @@
         <v>7.6</v>
       </c>
       <c r="R23" s="2">
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="S23" s="2">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="T23" s="2">
-        <v>1012.2</v>
+        <v>1013.1</v>
       </c>
       <c r="U23" s="2">
-        <v>1.8565490490000001</v>
+        <v>1.809374346</v>
       </c>
       <c r="V23" s="2">
-        <v>453.20552079999999</v>
+        <v>461.01353599999999</v>
       </c>
       <c r="W23" s="2">
-        <v>-59.204145990000001</v>
+        <v>-61.177933860000003</v>
       </c>
       <c r="X23" s="2">
-        <v>-10.972126039999999</v>
+        <v>-9.1076751859999998</v>
       </c>
       <c r="Y23">
-        <v>1.7903520265769349E-3</v>
+        <v>3.8477303472249391E-3</v>
       </c>
       <c r="Z23">
-        <v>-68.640258916474735</v>
+        <v>-23.059563032512109</v>
       </c>
       <c r="AA23">
-        <v>13.11377210512663</v>
+        <v>12.308226243219529</v>
       </c>
       <c r="AB23">
-        <v>-5.9683699643656718</v>
+        <v>-9.1283280135923128</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
@@ -2592,79 +2584,79 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="2">
-        <v>14.085000000000001</v>
+        <v>14.54</v>
       </c>
       <c r="G24" s="2">
-        <v>-53.543333333333337</v>
+        <v>-56.048333333333332</v>
       </c>
       <c r="I24" s="2">
-        <v>1.907983295</v>
+        <v>1.8598726999999999</v>
       </c>
       <c r="J24" s="2">
-        <v>1.888779022</v>
+        <v>1.85432153</v>
       </c>
       <c r="K24" s="2">
-        <v>-55.982416100000002</v>
+        <v>-53.38634484</v>
       </c>
       <c r="L24" s="2">
-        <v>-43.611994959999997</v>
+        <v>-47.408172839999999</v>
       </c>
       <c r="M24" s="2">
-        <v>421.58246489999999</v>
+        <v>416.78097960000002</v>
       </c>
       <c r="N24" s="2">
-        <v>-9.1214023579999992</v>
+        <v>-7.9153194840000003</v>
       </c>
       <c r="O24" s="2">
-        <v>35.93</v>
+        <v>36</v>
       </c>
       <c r="P24" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q24" s="2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="R24" s="2">
         <v>28.5</v>
       </c>
       <c r="S24" s="2">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="T24" s="2">
-        <v>1013.1</v>
+        <v>1011.3</v>
       </c>
       <c r="U24" s="2">
-        <v>1.809374346</v>
+        <v>1.7949933360000001</v>
       </c>
       <c r="V24" s="2">
-        <v>461.01353599999999</v>
+        <v>451.92330140000001</v>
       </c>
       <c r="W24" s="2">
-        <v>-61.177933860000003</v>
+        <v>-60.025576095000012</v>
       </c>
       <c r="X24" s="2">
-        <v>-9.1076751859999998</v>
+        <v>-9.5691955029999995</v>
       </c>
       <c r="Y24">
-        <v>3.8477303472249391E-3</v>
+        <v>3.3479402018581602E-3</v>
       </c>
       <c r="Z24">
-        <v>-23.059563032512109</v>
+        <v>-5.5429259398406261</v>
       </c>
       <c r="AA24">
-        <v>12.308226243219529</v>
+        <v>12.204093082609891</v>
       </c>
       <c r="AB24">
-        <v>-9.1283280135923128</v>
+        <v>-7.0926381981493147</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
@@ -2672,13 +2664,13 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2">
         <v>14.54</v>
@@ -2687,22 +2679,22 @@
         <v>-56.048333333333332</v>
       </c>
       <c r="I25" s="2">
-        <v>1.8598726999999999</v>
+        <v>1.89141806033792</v>
       </c>
       <c r="J25" s="2">
-        <v>1.85432153</v>
+        <v>1.88301259880886</v>
       </c>
       <c r="K25" s="2">
-        <v>-53.38634484</v>
+        <v>-57.110112698911401</v>
       </c>
       <c r="L25" s="2">
-        <v>-47.408172839999999</v>
+        <v>-49.096007126576303</v>
       </c>
       <c r="M25" s="2">
-        <v>416.78097960000002</v>
+        <v>422.91305991901498</v>
       </c>
       <c r="N25" s="2">
-        <v>-7.9153194840000003</v>
+        <v>-6.8084773326891499</v>
       </c>
       <c r="O25" s="2">
         <v>36</v>
@@ -2714,7 +2706,7 @@
         <v>7.5</v>
       </c>
       <c r="R25" s="2">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="S25" s="2">
         <v>28.7</v>
@@ -2735,16 +2727,16 @@
         <v>-9.5691955029999995</v>
       </c>
       <c r="Y25">
-        <v>3.3479402018581602E-3</v>
+        <v>3.8534761595845741E-3</v>
       </c>
       <c r="Z25">
-        <v>-5.5429259398406261</v>
+        <v>-38.863721562419457</v>
       </c>
       <c r="AA25">
-        <v>12.204093082609891</v>
+        <v>12.58057404693619</v>
       </c>
       <c r="AB25">
-        <v>-7.0926381981493147</v>
+        <v>-5.4762953462041963</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -2752,40 +2744,40 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
         <v>79</v>
       </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2">
-        <v>14.54</v>
+        <v>14.365</v>
       </c>
       <c r="G26" s="2">
-        <v>-56.048333333333332</v>
+        <v>-58.271666666666668</v>
       </c>
       <c r="I26" s="2">
-        <v>1.89141806033792</v>
+        <v>1.7616955309861999</v>
       </c>
       <c r="J26" s="2">
-        <v>1.88301259880886</v>
+        <v>1.75315973919063</v>
       </c>
       <c r="K26" s="2">
-        <v>-57.110112698911401</v>
+        <v>-56.851946747398998</v>
       </c>
       <c r="L26" s="2">
-        <v>-49.096007126576303</v>
+        <v>-48.566471711581201</v>
       </c>
       <c r="M26" s="2">
-        <v>422.91305991901498</v>
+        <v>479.58267384960499</v>
       </c>
       <c r="N26" s="2">
-        <v>-6.8084773326891499</v>
+        <v>-10.7158957176069</v>
       </c>
       <c r="O26" s="2">
-        <v>36</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="P26" s="2">
         <v>7.5</v>
@@ -2794,37 +2786,37 @@
         <v>7.5</v>
       </c>
       <c r="R26" s="2">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="S26" s="2">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="T26" s="2">
-        <v>1011.3</v>
+        <v>1009.3</v>
       </c>
       <c r="U26" s="2">
-        <v>1.7949933360000001</v>
+        <v>1.780612326</v>
       </c>
       <c r="V26" s="2">
-        <v>451.92330140000001</v>
+        <v>442.83306679999998</v>
       </c>
       <c r="W26" s="2">
-        <v>-60.025576095000012</v>
+        <v>-58.87321833</v>
       </c>
       <c r="X26" s="2">
-        <v>-9.5691955029999995</v>
+        <v>-10.030715819999999</v>
       </c>
       <c r="Y26">
-        <v>3.8534761595845741E-3</v>
+        <v>2.1392763993178989E-3</v>
       </c>
       <c r="Z26">
-        <v>-38.863721562419457</v>
+        <v>-34.329058174857757</v>
       </c>
       <c r="AA26">
-        <v>12.58057404693619</v>
+        <v>15.10032076708951</v>
       </c>
       <c r="AB26">
-        <v>-5.4762953462041963</v>
+        <v>-10.984821800440249</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
@@ -2832,40 +2824,40 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="2">
-        <v>14.365</v>
+        <v>14.37</v>
       </c>
       <c r="G27" s="2">
-        <v>-58.271666666666668</v>
+        <v>-60.55833333333333</v>
       </c>
       <c r="I27" s="2">
-        <v>1.7616955309861999</v>
+        <v>1.874362219</v>
       </c>
       <c r="J27" s="2">
-        <v>1.75315973919063</v>
+        <v>1.86124018</v>
       </c>
       <c r="K27" s="2">
-        <v>-56.851946747398998</v>
+        <v>-57.290872780000001</v>
       </c>
       <c r="L27" s="2">
-        <v>-48.566471711581201</v>
+        <v>-46.913252780000001</v>
       </c>
       <c r="M27" s="2">
-        <v>479.58267384960499</v>
+        <v>466.42170160000001</v>
       </c>
       <c r="N27" s="2">
-        <v>-10.7158957176069</v>
+        <v>-8.2644839619999999</v>
       </c>
       <c r="O27" s="2">
-        <v>35.950000000000003</v>
+        <v>36.03</v>
       </c>
       <c r="P27" s="2">
         <v>7.5</v>
@@ -2874,37 +2866,37 @@
         <v>7.5</v>
       </c>
       <c r="R27" s="2">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="S27" s="2">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T27" s="2">
-        <v>1009.3</v>
+        <v>1012</v>
       </c>
       <c r="U27" s="2">
-        <v>1.780612326</v>
+        <v>1.8602733410000001</v>
       </c>
       <c r="V27" s="2">
-        <v>442.83306679999998</v>
+        <v>469.17838260000002</v>
       </c>
       <c r="W27" s="2">
-        <v>-58.87321833</v>
+        <v>-58.929193519999998</v>
       </c>
       <c r="X27" s="2">
-        <v>-10.030715819999999</v>
+        <v>-9.7466310279999995</v>
       </c>
       <c r="Y27">
-        <v>2.1392763993178989E-3</v>
+        <v>2.6723683008303312E-3</v>
       </c>
       <c r="Z27">
-        <v>-34.329058174857757</v>
+        <v>-41.973387098349633</v>
       </c>
       <c r="AA27">
-        <v>15.10032076708951</v>
+        <v>14.04731950972567</v>
       </c>
       <c r="AB27">
-        <v>-10.984821800440249</v>
+        <v>-7.5997118670074748</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
@@ -2912,13 +2904,13 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F28" s="2">
         <v>14.37</v>
@@ -2927,22 +2919,22 @@
         <v>-60.55833333333333</v>
       </c>
       <c r="I28" s="2">
-        <v>1.874362219</v>
+        <v>1.8800650692215599</v>
       </c>
       <c r="J28" s="2">
-        <v>1.86124018</v>
+        <v>1.8708120527294101</v>
       </c>
       <c r="K28" s="2">
-        <v>-57.290872780000001</v>
+        <v>-55.853428033372502</v>
       </c>
       <c r="L28" s="2">
-        <v>-46.913252780000001</v>
+        <v>-47.335873128039097</v>
       </c>
       <c r="M28" s="2">
-        <v>466.42170160000001</v>
+        <v>473.91240739882301</v>
       </c>
       <c r="N28" s="2">
-        <v>-8.2644839619999999</v>
+        <v>-8.1563245767406798</v>
       </c>
       <c r="O28" s="2">
         <v>36.03</v>
@@ -2969,22 +2961,22 @@
         <v>469.17838260000002</v>
       </c>
       <c r="W28" s="2">
-        <v>-58.929193519999998</v>
+        <v>-58.929193529999999</v>
       </c>
       <c r="X28" s="2">
-        <v>-9.7466310279999995</v>
+        <v>-9.7466310289999996</v>
       </c>
       <c r="Y28">
-        <v>2.6723683008303312E-3</v>
+        <v>2.756504072801392E-3</v>
       </c>
       <c r="Z28">
-        <v>-41.973387098349633</v>
+        <v>-27.969964685378159</v>
       </c>
       <c r="AA28">
-        <v>14.04731950972567</v>
+        <v>14.374101905881639</v>
       </c>
       <c r="AB28">
-        <v>-7.5997118670074748</v>
+        <v>-7.4592556575592273</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -2992,79 +2984,79 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2">
-        <v>14.37</v>
+        <v>55.707833333333333</v>
       </c>
       <c r="G29" s="2">
-        <v>-60.55833333333333</v>
+        <v>-56.344000000000001</v>
       </c>
       <c r="I29" s="2">
-        <v>1.8800650692215599</v>
+        <v>1.917665875</v>
       </c>
       <c r="J29" s="2">
-        <v>1.8708120527294101</v>
+        <v>1.9090192800000001</v>
       </c>
       <c r="K29" s="2">
-        <v>-55.853428033372502</v>
+        <v>-55.110083619999997</v>
       </c>
       <c r="L29" s="2">
-        <v>-47.335873128039097</v>
+        <v>-47.441693729999997</v>
       </c>
       <c r="M29" s="2">
-        <v>473.91240739882301</v>
+        <v>319.44127500000002</v>
       </c>
       <c r="N29" s="2">
-        <v>-8.1563245767406798</v>
+        <v>-8.1917285700000004</v>
       </c>
       <c r="O29" s="2">
-        <v>36.03</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="P29" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q29" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="R29" s="2">
-        <v>28.8</v>
+        <v>7.6</v>
       </c>
       <c r="S29" s="2">
-        <v>29</v>
+        <v>8.6</v>
       </c>
       <c r="T29" s="2">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="U29" s="2">
-        <v>1.8602733410000001</v>
+        <v>1.9055453069999999</v>
       </c>
       <c r="V29" s="2">
-        <v>469.17838260000002</v>
+        <v>428.6505975</v>
       </c>
       <c r="W29" s="2">
-        <v>-58.929193529999999</v>
+        <v>-53.667842299999997</v>
       </c>
       <c r="X29" s="2">
-        <v>-9.7466310289999996</v>
+        <v>-9.4657855190000006</v>
       </c>
       <c r="Y29">
-        <v>2.756504072801392E-3</v>
+        <v>4.148862416880339E-3</v>
       </c>
       <c r="Z29">
-        <v>-27.969964685378159</v>
+        <v>-64.572766706793345</v>
       </c>
       <c r="AA29">
-        <v>14.374101905881639</v>
+        <v>15.86042245163045</v>
       </c>
       <c r="AB29">
-        <v>-7.4592556575592273</v>
+        <v>-7.6997745456384159</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
@@ -3072,13 +3064,13 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
         <v>79</v>
       </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2">
         <v>55.707833333333333</v>
@@ -3087,22 +3079,22 @@
         <v>-56.344000000000001</v>
       </c>
       <c r="I30" s="2">
-        <v>1.917665875</v>
+        <v>1.9255417968999899</v>
       </c>
       <c r="J30" s="2">
-        <v>1.9090192800000001</v>
+        <v>1.9192713698783199</v>
       </c>
       <c r="K30" s="2">
-        <v>-55.110083619999997</v>
+        <v>-54.7646926096009</v>
       </c>
       <c r="L30" s="2">
-        <v>-47.441693729999997</v>
+        <v>-47.928761478610802</v>
       </c>
       <c r="M30" s="2">
-        <v>319.44127500000002</v>
+        <v>314.05219840527002</v>
       </c>
       <c r="N30" s="2">
-        <v>-8.1917285700000004</v>
+        <v>-6.9472196740202001</v>
       </c>
       <c r="O30" s="2">
         <v>32.020000000000003</v>
@@ -3129,22 +3121,22 @@
         <v>428.6505975</v>
       </c>
       <c r="W30" s="2">
-        <v>-53.667842299999997</v>
+        <v>-53.667842399999998</v>
       </c>
       <c r="X30" s="2">
-        <v>-9.4657855190000006</v>
+        <v>-9.4657855200000007</v>
       </c>
       <c r="Y30">
-        <v>4.148862416880339E-3</v>
+        <v>4.2777133855035647E-3</v>
       </c>
       <c r="Z30">
-        <v>-64.572766706793345</v>
+        <v>-61.744679774671908</v>
       </c>
       <c r="AA30">
-        <v>15.86042245163045</v>
+        <v>15.48953659619592</v>
       </c>
       <c r="AB30">
-        <v>-7.6997745456384159</v>
+        <v>-5.95141603735172</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
@@ -3152,79 +3144,79 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2">
-        <v>55.707833333333333</v>
+        <v>57.179166666666667</v>
       </c>
       <c r="G31" s="2">
-        <v>-56.344000000000001</v>
+        <v>-55.78</v>
       </c>
       <c r="I31" s="2">
-        <v>1.9255417968999899</v>
+        <v>1.9055307369846499</v>
       </c>
       <c r="J31" s="2">
-        <v>1.9192713698783199</v>
+        <v>1.89984763045</v>
       </c>
       <c r="K31" s="2">
-        <v>-54.7646926096009</v>
+        <v>-55.742912868871201</v>
       </c>
       <c r="L31" s="2">
-        <v>-47.928761478610802</v>
+        <v>-49.104104924193003</v>
       </c>
       <c r="M31" s="2">
-        <v>314.05219840527002</v>
+        <v>333.87406127975203</v>
       </c>
       <c r="N31" s="2">
-        <v>-6.9472196740202001</v>
+        <v>-7.2568754986237503</v>
       </c>
       <c r="O31" s="2">
-        <v>32.020000000000003</v>
+        <v>33.81</v>
       </c>
       <c r="P31" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q31" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="R31" s="2">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="S31" s="2">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="T31" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="U31" s="2">
-        <v>1.9055453069999999</v>
+        <v>1.812615439</v>
       </c>
       <c r="V31" s="2">
-        <v>428.6505975</v>
+        <v>409.18969220000002</v>
       </c>
       <c r="W31" s="2">
-        <v>-53.667842399999998</v>
+        <v>-52.742472239999998</v>
       </c>
       <c r="X31" s="2">
-        <v>-9.4657855200000007</v>
+        <v>-8.9464004379999995</v>
       </c>
       <c r="Y31">
-        <v>4.2777133855035647E-3</v>
+        <v>5.0992767757006554E-3</v>
       </c>
       <c r="Z31">
-        <v>-61.744679774671908</v>
+        <v>-71.000310513008586</v>
       </c>
       <c r="AA31">
-        <v>15.48953659619592</v>
+        <v>16.76261546046538</v>
       </c>
       <c r="AB31">
-        <v>-5.95141603735172</v>
+        <v>-6.6667498028916139</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -3232,79 +3224,79 @@
         <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2">
-        <v>57.179166666666667</v>
+        <v>58.394333333333343</v>
       </c>
       <c r="G32" s="2">
-        <v>-55.78</v>
+        <v>-54.673833333333327</v>
       </c>
       <c r="I32" s="2">
-        <v>2.7524150679999999</v>
+        <v>1.737606778</v>
       </c>
       <c r="J32" s="2">
-        <v>2.7108151889999998</v>
+        <v>1.7367990900000001</v>
       </c>
       <c r="K32" s="2">
-        <v>-58.660455810000002</v>
+        <v>-54.451296720000002</v>
       </c>
       <c r="L32" s="2">
-        <v>-40.984531320000002</v>
+        <v>-50.642489560000001</v>
       </c>
       <c r="M32" s="2">
-        <v>348.48155400000002</v>
+        <v>325.85570410000003</v>
       </c>
       <c r="N32" s="2">
-        <v>-8.8774884749999998</v>
+        <v>-7.7747349100000003</v>
       </c>
       <c r="O32" s="2">
-        <v>33.81</v>
+        <v>34.25</v>
       </c>
       <c r="P32" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q32" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="R32" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="S32" s="2">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="T32" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="U32" s="2">
-        <v>1.812615439</v>
+        <v>1.9200455080000001</v>
       </c>
       <c r="V32" s="2">
-        <v>409.18969220000002</v>
+        <v>425.92079680000001</v>
       </c>
       <c r="W32" s="2">
-        <v>-52.742472229999997</v>
+        <v>-54.481109349999997</v>
       </c>
       <c r="X32" s="2">
-        <v>-8.9464004369999994</v>
+        <v>-8.9611472350000003</v>
       </c>
       <c r="Y32">
-        <v>1.8840000798497809E-2</v>
+        <v>9.2946502253593176E-4</v>
       </c>
       <c r="Z32">
-        <v>-66.805941919899297</v>
+        <v>-53.572785691703317</v>
       </c>
       <c r="AA32">
-        <v>17.63643212185108</v>
+        <v>15.84829761573134</v>
       </c>
       <c r="AB32">
-        <v>-8.8546116854044676</v>
+        <v>-7.3198999362500414</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -3312,79 +3304,79 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2">
-        <v>57.179166666666667</v>
+        <v>58.394333333333343</v>
       </c>
       <c r="G33" s="2">
-        <v>-55.78</v>
+        <v>-54.673833333333327</v>
       </c>
       <c r="I33" s="2">
-        <v>1.9055307369846499</v>
+        <v>1.92321330062315</v>
       </c>
       <c r="J33" s="2">
-        <v>1.89984763045</v>
+        <v>1.91473043812068</v>
       </c>
       <c r="K33" s="2">
-        <v>-55.742912868871201</v>
+        <v>-55.376904501167502</v>
       </c>
       <c r="L33" s="2">
-        <v>-49.104104924193003</v>
+        <v>-47.519353576325102</v>
       </c>
       <c r="M33" s="2">
-        <v>333.87406127975203</v>
+        <v>345.65083298019601</v>
       </c>
       <c r="N33" s="2">
-        <v>-7.2568754986237503</v>
+        <v>-7.6557962507187103</v>
       </c>
       <c r="O33" s="2">
-        <v>33.81</v>
+        <v>34.25</v>
       </c>
       <c r="P33" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Q33" s="2">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="R33" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S33" s="2">
-        <v>7.9</v>
+        <v>9.6</v>
       </c>
       <c r="T33" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="U33" s="2">
-        <v>1.812615439</v>
+        <v>1.9200455080000001</v>
       </c>
       <c r="V33" s="2">
-        <v>409.18969220000002</v>
+        <v>425.92079680000001</v>
       </c>
       <c r="W33" s="2">
-        <v>-52.742472239999998</v>
+        <v>-54.481109359999998</v>
       </c>
       <c r="X33" s="2">
-        <v>-8.9464004379999995</v>
+        <v>-8.9611472360000004</v>
       </c>
       <c r="Y33">
-        <v>5.0992767757006554E-3</v>
+        <v>3.9362051165427398E-3</v>
       </c>
       <c r="Z33">
-        <v>-71.000310513008586</v>
+        <v>-61.609548827279312</v>
       </c>
       <c r="AA33">
-        <v>16.76261546046538</v>
+        <v>17.12329872440429</v>
       </c>
       <c r="AB33">
-        <v>-6.6667498028916139</v>
+        <v>-7.1926253148590913</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -3392,79 +3384,79 @@
         <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="2">
-        <v>58.394333333333343</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="G34" s="2">
-        <v>-54.673833333333327</v>
+        <v>-54.106333333333332</v>
       </c>
       <c r="I34" s="2">
-        <v>1.737606778</v>
+        <v>1.866959966</v>
       </c>
       <c r="J34" s="2">
-        <v>1.7367990900000001</v>
+        <v>1.85997178</v>
       </c>
       <c r="K34" s="2">
-        <v>-54.451296720000002</v>
+        <v>-54.231179220000001</v>
       </c>
       <c r="L34" s="2">
-        <v>-50.642489560000001</v>
+        <v>-47.081323470000001</v>
       </c>
       <c r="M34" s="2">
-        <v>325.85570410000003</v>
+        <v>346.4971438</v>
       </c>
       <c r="N34" s="2">
-        <v>-7.7747349100000003</v>
+        <v>-8.0066913930000005</v>
       </c>
       <c r="O34" s="2">
-        <v>34.25</v>
+        <v>33.46</v>
       </c>
       <c r="P34" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q34" s="2">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="R34" s="2">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="S34" s="2">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="T34" s="2">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="U34" s="2">
-        <v>1.9200455080000001</v>
+        <v>1.908500479</v>
       </c>
       <c r="V34" s="2">
-        <v>425.92079680000001</v>
+        <v>431.67977839999998</v>
       </c>
       <c r="W34" s="2">
-        <v>-54.481109349999997</v>
+        <v>-55.749257299999996</v>
       </c>
       <c r="X34" s="2">
-        <v>-8.9611472350000003</v>
+        <v>-8.8215445740000007</v>
       </c>
       <c r="Y34">
-        <v>9.2946502253593176E-4</v>
+        <v>3.0632763796748512E-3</v>
       </c>
       <c r="Z34">
-        <v>-53.572785691703317</v>
+        <v>-40.815159054814373</v>
       </c>
       <c r="AA34">
-        <v>15.84829761573134</v>
+        <v>17.357286913651048</v>
       </c>
       <c r="AB34">
-        <v>-7.3198999362500414</v>
+        <v>-7.7192718634748747</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -3472,79 +3464,79 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
       </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="2">
-        <v>58.394333333333343</v>
+        <v>60.506999999999998</v>
       </c>
       <c r="G35" s="2">
-        <v>-54.673833333333327</v>
+        <v>-54.106333333333332</v>
       </c>
       <c r="I35" s="2">
-        <v>1.92321330062315</v>
+        <v>1.90638029102871</v>
       </c>
       <c r="J35" s="2">
-        <v>1.91473043812068</v>
+        <v>1.8957368365079199</v>
       </c>
       <c r="K35" s="2">
-        <v>-55.376904501167502</v>
+        <v>-54.862175700356403</v>
       </c>
       <c r="L35" s="2">
-        <v>-47.519353576325102</v>
+        <v>-45.733865086287103</v>
       </c>
       <c r="M35" s="2">
-        <v>345.65083298019601</v>
+        <v>339.347058646336</v>
       </c>
       <c r="N35" s="2">
-        <v>-7.6557962507187103</v>
+        <v>-7.7605129598099101</v>
       </c>
       <c r="O35" s="2">
-        <v>34.25</v>
+        <v>33.46</v>
       </c>
       <c r="P35" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="R35" s="2">
         <v>7.3</v>
       </c>
-      <c r="Q35" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="R35" s="2">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="S35" s="2">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="T35" s="2">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="U35" s="2">
-        <v>1.9200455080000001</v>
+        <v>1.908500479</v>
       </c>
       <c r="V35" s="2">
-        <v>425.92079680000001</v>
+        <v>431.67977839999998</v>
       </c>
       <c r="W35" s="2">
-        <v>-54.481109359999998</v>
+        <v>-55.749257399999998</v>
       </c>
       <c r="X35" s="2">
-        <v>-8.9611472360000004</v>
+        <v>-8.8215445750000008</v>
       </c>
       <c r="Y35">
-        <v>3.9362051165427398E-3</v>
+        <v>3.771834849239139E-3</v>
       </c>
       <c r="Z35">
-        <v>-61.609548827279312</v>
+        <v>-48.49583572837868</v>
       </c>
       <c r="AA35">
-        <v>17.12329872440429</v>
+        <v>17.102070870687509</v>
       </c>
       <c r="AB35">
-        <v>-7.1926253148590913</v>
+        <v>-7.3806735695958192</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -3552,79 +3544,79 @@
         <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2">
-        <v>60.506999999999998</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="G36" s="2">
-        <v>-54.106333333333332</v>
+        <v>-51.825333333333333</v>
       </c>
       <c r="I36" s="2">
-        <v>1.866959966</v>
+        <v>1.867682235</v>
       </c>
       <c r="J36" s="2">
-        <v>1.85997178</v>
+        <v>1.8480972069999999</v>
       </c>
       <c r="K36" s="2">
-        <v>-54.231179220000001</v>
+        <v>-55.456977799999997</v>
       </c>
       <c r="L36" s="2">
-        <v>-47.081323470000001</v>
+        <v>-41.998858910000003</v>
       </c>
       <c r="M36" s="2">
-        <v>346.4971438</v>
+        <v>350.50220839999997</v>
       </c>
       <c r="N36" s="2">
-        <v>-8.0066913930000005</v>
+        <v>-8.3814483820000003</v>
       </c>
       <c r="O36" s="2">
-        <v>33.46</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="P36" s="2">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q36" s="2">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="R36" s="2">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="S36" s="2">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T36" s="2">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="U36" s="2">
-        <v>1.908500479</v>
+        <v>1.9083914200000001</v>
       </c>
       <c r="V36" s="2">
-        <v>431.67977839999998</v>
+        <v>430.28705200000002</v>
       </c>
       <c r="W36" s="2">
-        <v>-55.749257299999996</v>
+        <v>-55.278645619999999</v>
       </c>
       <c r="X36" s="2">
-        <v>-8.8215445740000007</v>
+        <v>-8.7287765089999994</v>
       </c>
       <c r="Y36">
-        <v>3.0632763796748512E-3</v>
+        <v>3.7435667598590639E-3</v>
       </c>
       <c r="Z36">
-        <v>-40.815159054814373</v>
+        <v>-56.778306121441638</v>
       </c>
       <c r="AA36">
-        <v>17.357286913651048</v>
+        <v>20.76062096472975</v>
       </c>
       <c r="AB36">
-        <v>-7.7192718634748747</v>
+        <v>-8.2768159256720875</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -3632,79 +3624,79 @@
         <v>63</v>
       </c>
       <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
         <v>79</v>
       </c>
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2">
-        <v>60.506999999999998</v>
+        <v>62.570833333333333</v>
       </c>
       <c r="G37" s="2">
-        <v>-54.106333333333332</v>
+        <v>-51.825333333333333</v>
       </c>
       <c r="I37" s="2">
-        <v>1.90638029102871</v>
+        <v>1.9191806540049501</v>
       </c>
       <c r="J37" s="2">
-        <v>1.8957368365079199</v>
+        <v>1.8642843886143601</v>
       </c>
       <c r="K37" s="2">
-        <v>-54.862175700356403</v>
+        <v>-62.579535877108903</v>
       </c>
       <c r="L37" s="2">
-        <v>-45.733865086287103</v>
+        <v>-31.531055678489999</v>
       </c>
       <c r="M37" s="2">
-        <v>339.347058646336</v>
+        <v>367.17123832752497</v>
       </c>
       <c r="N37" s="2">
-        <v>-7.7605129598099101</v>
+        <v>-9.5866125277366301</v>
       </c>
       <c r="O37" s="2">
-        <v>33.46</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="P37" s="2">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q37" s="2">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="R37" s="2">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="S37" s="2">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T37" s="2">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="U37" s="2">
-        <v>1.908500479</v>
+        <v>1.9083914200000001</v>
       </c>
       <c r="V37" s="2">
-        <v>431.67977839999998</v>
+        <v>430.28705200000002</v>
       </c>
       <c r="W37" s="2">
-        <v>-55.749257399999998</v>
+        <v>-55.27864563</v>
       </c>
       <c r="X37" s="2">
-        <v>-8.8215445750000008</v>
+        <v>-8.7287765099999994</v>
       </c>
       <c r="Y37">
-        <v>3.771834849239139E-3</v>
+        <v>4.6316177526309031E-3</v>
       </c>
       <c r="Z37">
-        <v>-48.49583572837868</v>
+        <v>-106.2785673972506</v>
       </c>
       <c r="AA37">
-        <v>17.102070870687509</v>
+        <v>22.11925578610898</v>
       </c>
       <c r="AB37">
-        <v>-7.3806735695958192</v>
+        <v>-9.8291579695037878</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -3712,40 +3704,40 @@
         <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2">
-        <v>62.570833333333333</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="G38" s="2">
-        <v>-51.825333333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="I38" s="2">
-        <v>1.867682235</v>
+        <v>1.914237505</v>
       </c>
       <c r="J38" s="2">
-        <v>1.8480972069999999</v>
+        <v>1.913278367</v>
       </c>
       <c r="K38" s="2">
-        <v>-55.456977799999997</v>
+        <v>-53.778441299999997</v>
       </c>
       <c r="L38" s="2">
-        <v>-41.998858910000003</v>
+        <v>-49.632285850000002</v>
       </c>
       <c r="M38" s="2">
-        <v>350.50220839999997</v>
+        <v>372.8518962</v>
       </c>
       <c r="N38" s="2">
-        <v>-8.3814483820000003</v>
+        <v>-7.5940338000000001</v>
       </c>
       <c r="O38" s="2">
-        <v>32.270000000000003</v>
+        <v>32.49</v>
       </c>
       <c r="P38" s="2">
         <v>7.2</v>
@@ -3754,37 +3746,37 @@
         <v>7.2</v>
       </c>
       <c r="R38" s="2">
-        <v>3.3</v>
+        <v>10.7</v>
       </c>
       <c r="S38" s="2">
-        <v>4.9000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="T38" s="2">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="U38" s="2">
-        <v>1.9083914200000001</v>
+        <v>1.8910953859999999</v>
       </c>
       <c r="V38" s="2">
-        <v>430.28705200000002</v>
+        <v>425.33562430000001</v>
       </c>
       <c r="W38" s="2">
-        <v>-55.278645619999999</v>
+        <v>-52.67334237</v>
       </c>
       <c r="X38" s="2">
-        <v>-8.7287765089999994</v>
+        <v>-8.270844147</v>
       </c>
       <c r="Y38">
-        <v>3.7435667598590639E-3</v>
+        <v>4.0924759749951106E-3</v>
       </c>
       <c r="Z38">
-        <v>-56.778306121441638</v>
+        <v>-61.070568130434211</v>
       </c>
       <c r="AA38">
-        <v>20.76062096472975</v>
+        <v>17.982750875783282</v>
       </c>
       <c r="AB38">
-        <v>-8.2768159256720875</v>
+        <v>-7.3654144031187752</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -3792,40 +3784,40 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39" s="2">
-        <v>62.570833333333333</v>
+        <v>69.007166666666663</v>
       </c>
       <c r="G39" s="2">
-        <v>-51.825333333333333</v>
+        <v>-52.084333333333333</v>
       </c>
       <c r="I39" s="2">
-        <v>1.9191806540049501</v>
+        <v>1.93692925893448</v>
       </c>
       <c r="J39" s="2">
-        <v>1.8642843886143601</v>
+        <v>1.92163106963842</v>
       </c>
       <c r="K39" s="2">
-        <v>-62.579535877108903</v>
+        <v>-57.824192938216697</v>
       </c>
       <c r="L39" s="2">
-        <v>-31.531055678489999</v>
+        <v>-46.434186230359501</v>
       </c>
       <c r="M39" s="2">
-        <v>367.17123832752497</v>
+        <v>401.29963672438402</v>
       </c>
       <c r="N39" s="2">
-        <v>-9.5866125277366301</v>
+        <v>-8.1168565350054092</v>
       </c>
       <c r="O39" s="2">
-        <v>32.270000000000003</v>
+        <v>32.49</v>
       </c>
       <c r="P39" s="2">
         <v>7.2</v>
@@ -3834,37 +3826,37 @@
         <v>7.2</v>
       </c>
       <c r="R39" s="2">
-        <v>3.2</v>
+        <v>10.9</v>
       </c>
       <c r="S39" s="2">
-        <v>4.9000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="T39" s="2">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="U39" s="2">
-        <v>1.9083914200000001</v>
+        <v>1.8910953859999999</v>
       </c>
       <c r="V39" s="2">
-        <v>430.28705200000002</v>
+        <v>425.33562430000001</v>
       </c>
       <c r="W39" s="2">
-        <v>-55.27864563</v>
+        <v>-52.673342380000001</v>
       </c>
       <c r="X39" s="2">
-        <v>-8.7287765099999994</v>
+        <v>-8.2708441480000001</v>
       </c>
       <c r="Y39">
-        <v>4.6316177526309031E-3</v>
+        <v>4.4255615867307861E-3</v>
       </c>
       <c r="Z39">
-        <v>-106.2785673972506</v>
+        <v>-89.244784328176621</v>
       </c>
       <c r="AA39">
-        <v>22.11925578610898</v>
+        <v>19.695014769314671</v>
       </c>
       <c r="AB39">
-        <v>-9.8291579695037878</v>
+        <v>-8.0693636766269172</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -3872,40 +3864,40 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2">
-        <v>69.007166666666663</v>
+        <v>68.44083333333333</v>
       </c>
       <c r="G40" s="2">
-        <v>-52.084333333333333</v>
+        <v>-53.853833333333327</v>
       </c>
       <c r="I40" s="2">
-        <v>1.914237505</v>
+        <v>1.909297907</v>
       </c>
       <c r="J40" s="2">
-        <v>1.913278367</v>
+        <v>1.9063875100000001</v>
       </c>
       <c r="K40" s="2">
-        <v>-53.778441299999997</v>
+        <v>-53.4206097</v>
       </c>
       <c r="L40" s="2">
-        <v>-49.632285850000002</v>
+        <v>-48.371311140000003</v>
       </c>
       <c r="M40" s="2">
-        <v>372.8518962</v>
+        <v>366.92024049999998</v>
       </c>
       <c r="N40" s="2">
-        <v>-7.5940338000000001</v>
+        <v>-7.8118606980000003</v>
       </c>
       <c r="O40" s="2">
-        <v>32.49</v>
+        <v>32.99</v>
       </c>
       <c r="P40" s="2">
         <v>7.2</v>
@@ -3914,37 +3906,37 @@
         <v>7.2</v>
       </c>
       <c r="R40" s="2">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="S40" s="2">
-        <v>11.8</v>
+        <v>10.3</v>
       </c>
       <c r="T40" s="2">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="U40" s="2">
-        <v>1.8910953859999999</v>
+        <v>1.8971023119999999</v>
       </c>
       <c r="V40" s="2">
-        <v>425.33562430000001</v>
+        <v>435.60845430000001</v>
       </c>
       <c r="W40" s="2">
-        <v>-52.67334237</v>
+        <v>-56.098485160000003</v>
       </c>
       <c r="X40" s="2">
-        <v>-8.270844147</v>
+        <v>-8.5428013939999996</v>
       </c>
       <c r="Y40">
-        <v>4.0924759749951106E-3</v>
+        <v>3.737855902050986E-3</v>
       </c>
       <c r="Z40">
-        <v>-61.070568130434211</v>
+        <v>-33.864673745682254</v>
       </c>
       <c r="AA40">
-        <v>17.982750875783282</v>
+        <v>17.285677661063509</v>
       </c>
       <c r="AB40">
-        <v>-7.3654144031187752</v>
+        <v>-7.5468825675604201</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -3952,40 +3944,40 @@
         <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="2">
-        <v>69.007166666666663</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="G41" s="2">
-        <v>-52.084333333333333</v>
+        <v>-54.288833333333343</v>
       </c>
       <c r="I41" s="2">
-        <v>1.93692925893448</v>
+        <v>1.886095351</v>
       </c>
       <c r="J41" s="2">
-        <v>1.92163106963842</v>
+        <v>1.8677339610000001</v>
       </c>
       <c r="K41" s="2">
-        <v>-57.824192938216697</v>
+        <v>-55.490238949999998</v>
       </c>
       <c r="L41" s="2">
-        <v>-46.434186230359501</v>
+        <v>-42.955127500000003</v>
       </c>
       <c r="M41" s="2">
-        <v>401.29963672438402</v>
+        <v>350.40050589999998</v>
       </c>
       <c r="N41" s="2">
-        <v>-8.1168565350054092</v>
+        <v>-8.1313436990000003</v>
       </c>
       <c r="O41" s="2">
-        <v>32.49</v>
+        <v>32.14</v>
       </c>
       <c r="P41" s="2">
         <v>7.2</v>
@@ -3994,37 +3986,37 @@
         <v>7.2</v>
       </c>
       <c r="R41" s="2">
-        <v>10.9</v>
+        <v>7.2</v>
       </c>
       <c r="S41" s="2">
-        <v>11.8</v>
+        <v>7.4</v>
       </c>
       <c r="T41" s="2">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="U41" s="2">
-        <v>1.8910953859999999</v>
+        <v>1.9312963540000001</v>
       </c>
       <c r="V41" s="2">
-        <v>425.33562430000001</v>
+        <v>421.04738659999998</v>
       </c>
       <c r="W41" s="2">
-        <v>-52.673342380000001</v>
+        <v>-53.996053099999997</v>
       </c>
       <c r="X41" s="2">
-        <v>-8.2708441480000001</v>
+        <v>-8.4924573149999993</v>
       </c>
       <c r="Y41">
-        <v>4.4255615867307861E-3</v>
+        <v>3.241542899826721E-3</v>
       </c>
       <c r="Z41">
-        <v>-89.244784328176621</v>
+        <v>-68.350281365530122</v>
       </c>
       <c r="AA41">
-        <v>19.695014769314671</v>
+        <v>18.442427830026219</v>
       </c>
       <c r="AB41">
-        <v>-8.0693636766269172</v>
+        <v>-8.0122280938587096</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
@@ -4032,40 +4024,40 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
         <v>79</v>
       </c>
-      <c r="D42" t="s">
-        <v>80</v>
-      </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="2">
-        <v>68.44083333333333</v>
+        <v>67.073666666666668</v>
       </c>
       <c r="G42" s="2">
-        <v>-53.853833333333327</v>
+        <v>-54.288833333333343</v>
       </c>
       <c r="I42" s="2">
-        <v>1.909297907</v>
+        <v>1.9207025660633601</v>
       </c>
       <c r="J42" s="2">
-        <v>1.9063875100000001</v>
+        <v>1.9126424763069301</v>
       </c>
       <c r="K42" s="2">
-        <v>-53.4206097</v>
+        <v>-57.440947635514803</v>
       </c>
       <c r="L42" s="2">
-        <v>-48.371311140000003</v>
+        <v>-49.262540622247499</v>
       </c>
       <c r="M42" s="2">
-        <v>366.92024049999998</v>
+        <v>356.59254466653402</v>
       </c>
       <c r="N42" s="2">
-        <v>-7.8118606980000003</v>
+        <v>-8.3221609655950495</v>
       </c>
       <c r="O42" s="2">
-        <v>32.99</v>
+        <v>32.14</v>
       </c>
       <c r="P42" s="2">
         <v>7.2</v>
@@ -4074,37 +4066,37 @@
         <v>7.2</v>
       </c>
       <c r="R42" s="2">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="S42" s="2">
-        <v>10.3</v>
+        <v>7.4</v>
       </c>
       <c r="T42" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="U42" s="2">
-        <v>1.8971023119999999</v>
+        <v>1.9312963540000001</v>
       </c>
       <c r="V42" s="2">
-        <v>435.60845430000001</v>
+        <v>421.04738659999998</v>
       </c>
       <c r="W42" s="2">
-        <v>-56.098485160000003</v>
+        <v>-53.996053199999999</v>
       </c>
       <c r="X42" s="2">
-        <v>-8.5428013939999996</v>
+        <v>-8.4924573159999994</v>
       </c>
       <c r="Y42">
-        <v>3.737855902050986E-3</v>
+        <v>3.813010751166889E-3</v>
       </c>
       <c r="Z42">
-        <v>-33.864673745682254</v>
+        <v>-82.64258495025156</v>
       </c>
       <c r="AA42">
-        <v>17.285677661063509</v>
+        <v>18.87583009965714</v>
       </c>
       <c r="AB42">
-        <v>-7.5468825675604201</v>
+        <v>-8.2672775733730894</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -4112,40 +4104,40 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F43" s="2">
-        <v>67.073666666666668</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="G43" s="2">
-        <v>-54.288833333333343</v>
+        <v>-53.627833333333342</v>
       </c>
       <c r="I43" s="2">
-        <v>1.886095351</v>
+        <v>1.834710595</v>
       </c>
       <c r="J43" s="2">
-        <v>1.8677339610000001</v>
+        <v>1.8276896920000001</v>
       </c>
       <c r="K43" s="2">
-        <v>-55.490238949999998</v>
+        <v>-53.11471959</v>
       </c>
       <c r="L43" s="2">
-        <v>-42.955127500000003</v>
+        <v>-45.985147240000003</v>
       </c>
       <c r="M43" s="2">
-        <v>350.40050589999998</v>
+        <v>321.71779099999998</v>
       </c>
       <c r="N43" s="2">
-        <v>-8.1313436990000003</v>
+        <v>-10.723670540000001</v>
       </c>
       <c r="O43" s="2">
-        <v>32.14</v>
+        <v>31.73</v>
       </c>
       <c r="P43" s="2">
         <v>7.2</v>
@@ -4154,37 +4146,37 @@
         <v>7.2</v>
       </c>
       <c r="R43" s="2">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="S43" s="2">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="T43" s="2">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="U43" s="2">
-        <v>1.9312963540000001</v>
+        <v>1.7745461140000001</v>
       </c>
       <c r="V43" s="2">
-        <v>421.04738659999998</v>
+        <v>439.51656709999997</v>
       </c>
       <c r="W43" s="2">
-        <v>-53.996053099999997</v>
+        <v>-66.0492414</v>
       </c>
       <c r="X43" s="2">
-        <v>-8.4924573149999993</v>
+        <v>-10.205312859999999</v>
       </c>
       <c r="Y43">
-        <v>3.241542899826721E-3</v>
+        <v>4.7286491734834296E-3</v>
       </c>
       <c r="Z43">
-        <v>-68.350281365530122</v>
+        <v>16.20471131516199</v>
       </c>
       <c r="AA43">
-        <v>18.442427830026219</v>
+        <v>15.685560010365799</v>
       </c>
       <c r="AB43">
-        <v>-8.0122280938587096</v>
+        <v>-10.930904350645919</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
@@ -4192,40 +4184,40 @@
         <v>70</v>
       </c>
       <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
         <v>79</v>
       </c>
-      <c r="D44" t="s">
-        <v>81</v>
-      </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2">
-        <v>67.073666666666668</v>
+        <v>65.871499999999997</v>
       </c>
       <c r="G44" s="2">
-        <v>-54.288833333333343</v>
+        <v>-53.627833333333342</v>
       </c>
       <c r="I44" s="2">
-        <v>1.9207025660633601</v>
+        <v>1.94221153351182</v>
       </c>
       <c r="J44" s="2">
-        <v>1.9126424763069301</v>
+        <v>1.9069644416531999</v>
       </c>
       <c r="K44" s="2">
-        <v>-57.440947635514803</v>
+        <v>-62.035663004940801</v>
       </c>
       <c r="L44" s="2">
-        <v>-49.262540622247499</v>
+        <v>-40.644308792413703</v>
       </c>
       <c r="M44" s="2">
-        <v>356.59254466653402</v>
+        <v>368.06412377733898</v>
       </c>
       <c r="N44" s="2">
-        <v>-8.3221609655950495</v>
+        <v>-8.5139964704152593</v>
       </c>
       <c r="O44" s="2">
-        <v>32.14</v>
+        <v>31.73</v>
       </c>
       <c r="P44" s="2">
         <v>7.2</v>
@@ -4234,37 +4226,37 @@
         <v>7.2</v>
       </c>
       <c r="R44" s="2">
-        <v>7.2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S44" s="2">
-        <v>7.4</v>
+        <v>10.1</v>
       </c>
       <c r="T44" s="2">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="U44" s="2">
-        <v>1.9312963540000001</v>
+        <v>1.7745461140000001</v>
       </c>
       <c r="V44" s="2">
-        <v>421.04738659999998</v>
+        <v>439.51656709999997</v>
       </c>
       <c r="W44" s="2">
-        <v>-53.996053199999999</v>
+        <v>-66.049241499999994</v>
       </c>
       <c r="X44" s="2">
-        <v>-8.4924573159999994</v>
+        <v>-10.20531287</v>
       </c>
       <c r="Y44">
-        <v>3.813010751166889E-3</v>
+        <v>6.3784988907145072E-3</v>
       </c>
       <c r="Z44">
-        <v>-82.64258495025156</v>
+        <v>-46.100527736909306</v>
       </c>
       <c r="AA44">
-        <v>18.87583009965714</v>
+        <v>18.481401824916212</v>
       </c>
       <c r="AB44">
-        <v>-8.2672775733730894</v>
+        <v>-7.9400975374979144</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
@@ -4272,40 +4264,40 @@
         <v>71</v>
       </c>
       <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="D45" t="s">
-        <v>80</v>
-      </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2">
-        <v>65.871499999999997</v>
+        <v>63.871166666666667</v>
       </c>
       <c r="G45" s="2">
-        <v>-53.627833333333342</v>
+        <v>-52.19233333333333</v>
       </c>
       <c r="I45" s="2">
-        <v>1.834710595</v>
+        <v>1.91756481420297</v>
       </c>
       <c r="J45" s="2">
-        <v>1.8276896920000001</v>
+        <v>1.9086142111396001</v>
       </c>
       <c r="K45" s="2">
-        <v>-53.11471959</v>
+        <v>-57.019949614623698</v>
       </c>
       <c r="L45" s="2">
-        <v>-45.985147240000003</v>
+        <v>-48.559567068405798</v>
       </c>
       <c r="M45" s="2">
-        <v>321.71779099999998</v>
+        <v>353.45183629712801</v>
       </c>
       <c r="N45" s="2">
-        <v>-10.723670540000001</v>
+        <v>-8.3224472677291992</v>
       </c>
       <c r="O45" s="2">
-        <v>31.73</v>
+        <v>31.52</v>
       </c>
       <c r="P45" s="2">
         <v>7.2</v>
@@ -4314,37 +4306,37 @@
         <v>7.2</v>
       </c>
       <c r="R45" s="2">
-        <v>8.1</v>
+        <v>3.6</v>
       </c>
       <c r="S45" s="2">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="T45" s="2">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="U45" s="2">
-        <v>1.7745461140000001</v>
+        <v>1.89723438</v>
       </c>
       <c r="V45" s="2">
-        <v>439.51656709999997</v>
+        <v>418.20489129999999</v>
       </c>
       <c r="W45" s="2">
-        <v>-66.0492414</v>
+        <v>-55.302911600000002</v>
       </c>
       <c r="X45" s="2">
-        <v>-10.205312859999999</v>
+        <v>-8.3687344899999996</v>
       </c>
       <c r="Y45">
-        <v>4.7286491734834296E-3</v>
+        <v>4.6148251241909122E-3</v>
       </c>
       <c r="Z45">
-        <v>16.20471131516199</v>
+        <v>-67.222141792508296</v>
       </c>
       <c r="AA45">
-        <v>15.685560010365799</v>
+        <v>20.797618564580009</v>
       </c>
       <c r="AB45">
-        <v>-10.930904350645919</v>
+        <v>-8.3089935587127286</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
@@ -4352,37 +4344,37 @@
         <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
         <v>106</v>
       </c>
       <c r="F46" s="2">
-        <v>65.871499999999997</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="G46" s="2">
-        <v>-53.627833333333342</v>
+        <v>-50.424166666666657</v>
       </c>
       <c r="I46" s="2">
-        <v>1.94221153351182</v>
+        <v>1.9735538459999999</v>
       </c>
       <c r="J46" s="2">
-        <v>1.9069644416531999</v>
+        <v>1.9438719010000001</v>
       </c>
       <c r="K46" s="2">
-        <v>-62.035663004940801</v>
+        <v>-60.142912789999997</v>
       </c>
       <c r="L46" s="2">
-        <v>-40.644308792413703</v>
+        <v>-42.051270340000002</v>
       </c>
       <c r="M46" s="2">
-        <v>368.06412377733898</v>
+        <v>391.46777530000003</v>
       </c>
       <c r="N46" s="2">
-        <v>-8.5139964704152593</v>
+        <v>-8.9484707270000001</v>
       </c>
       <c r="O46" s="2">
         <v>31.73</v>
@@ -4394,37 +4386,37 @@
         <v>7.2</v>
       </c>
       <c r="R46" s="2">
-        <v>8.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="S46" s="2">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
       <c r="T46" s="2">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="U46" s="2">
-        <v>1.7745461140000001</v>
+        <v>1.926345178</v>
       </c>
       <c r="V46" s="2">
-        <v>439.51656709999997</v>
+        <v>421.55145099999999</v>
       </c>
       <c r="W46" s="2">
-        <v>-66.049241499999994</v>
+        <v>-57.020228019999998</v>
       </c>
       <c r="X46" s="2">
-        <v>-10.20531287</v>
+        <v>-8.2502803119999992</v>
       </c>
       <c r="Y46">
-        <v>6.3784988907145072E-3</v>
+        <v>5.0843408975148503E-3</v>
       </c>
       <c r="Z46">
-        <v>-46.100527736909306</v>
+        <v>-77.182936164740596</v>
       </c>
       <c r="AA46">
-        <v>18.481401824916212</v>
+        <v>22.12089005090899</v>
       </c>
       <c r="AB46">
-        <v>-7.9400975374979144</v>
+        <v>-9.1401420243376599</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
@@ -4432,40 +4424,40 @@
         <v>73</v>
       </c>
       <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
         <v>79</v>
       </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="2">
-        <v>63.871166666666667</v>
+        <v>62.253666666666668</v>
       </c>
       <c r="G47" s="2">
-        <v>-52.19233333333333</v>
+        <v>-50.424166666666657</v>
       </c>
       <c r="I47" s="2">
-        <v>1.91756481420297</v>
+        <v>1.9990344312108901</v>
       </c>
       <c r="J47" s="2">
-        <v>1.9086142111396001</v>
+        <v>1.9767284178603901</v>
       </c>
       <c r="K47" s="2">
-        <v>-57.019949614623698</v>
+        <v>-60.1308368015643</v>
       </c>
       <c r="L47" s="2">
-        <v>-48.559567068405798</v>
+        <v>-45.553354976396001</v>
       </c>
       <c r="M47" s="2">
-        <v>353.45183629712801</v>
+        <v>376.31784347554401</v>
       </c>
       <c r="N47" s="2">
-        <v>-8.3224472677291992</v>
+        <v>-8.6325759175262409</v>
       </c>
       <c r="O47" s="2">
-        <v>31.52</v>
+        <v>31.73</v>
       </c>
       <c r="P47" s="2">
         <v>7.2</v>
@@ -4474,37 +4466,37 @@
         <v>7.2</v>
       </c>
       <c r="R47" s="2">
-        <v>3.6</v>
+        <v>6.1</v>
       </c>
       <c r="S47" s="2">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="T47" s="2">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="U47" s="2">
-        <v>1.89723438</v>
+        <v>1.926345178</v>
       </c>
       <c r="V47" s="2">
-        <v>418.20489129999999</v>
+        <v>421.55145099999999</v>
       </c>
       <c r="W47" s="2">
-        <v>-55.302911600000002</v>
+        <v>-57.020228029999998</v>
       </c>
       <c r="X47" s="2">
-        <v>-8.3687344899999996</v>
+        <v>-8.2502803129999993</v>
       </c>
       <c r="Y47">
-        <v>4.6148251241909122E-3</v>
+        <v>5.5082743457000724E-3</v>
       </c>
       <c r="Z47">
-        <v>-67.222141792508296</v>
+        <v>-75.798823143129241</v>
       </c>
       <c r="AA47">
-        <v>20.797618564580009</v>
+        <v>21.029784370028359</v>
       </c>
       <c r="AB47">
-        <v>-8.3089935587127286</v>
+        <v>-8.742971625631867</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
@@ -4512,40 +4504,40 @@
         <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="2">
-        <v>62.253666666666668</v>
+        <v>61.009833333333333</v>
       </c>
       <c r="G48" s="2">
-        <v>-50.424166666666657</v>
+        <v>-49.375</v>
       </c>
       <c r="I48" s="2">
-        <v>1.9735538459999999</v>
+        <v>1.9324723210000001</v>
       </c>
       <c r="J48" s="2">
-        <v>1.9438719010000001</v>
+        <v>1.926605243</v>
       </c>
       <c r="K48" s="2">
-        <v>-60.142912789999997</v>
+        <v>-55.492311379999997</v>
       </c>
       <c r="L48" s="2">
-        <v>-42.051270340000002</v>
+        <v>-48.639322010000001</v>
       </c>
       <c r="M48" s="2">
-        <v>391.46777530000003</v>
+        <v>391.95321539999998</v>
       </c>
       <c r="N48" s="2">
-        <v>-8.9484707270000001</v>
+        <v>-8.3371706069999991</v>
       </c>
       <c r="O48" s="2">
-        <v>31.73</v>
+        <v>32.35</v>
       </c>
       <c r="P48" s="2">
         <v>7.2</v>
@@ -4554,37 +4546,37 @@
         <v>7.2</v>
       </c>
       <c r="R48" s="2">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="S48" s="2">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="T48" s="2">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="U48" s="2">
-        <v>1.926345178</v>
+        <v>1.9188270700000001</v>
       </c>
       <c r="V48" s="2">
-        <v>421.55145099999999</v>
+        <v>419.37594689999997</v>
       </c>
       <c r="W48" s="2">
-        <v>-57.020228019999998</v>
+        <v>-55.807492770000003</v>
       </c>
       <c r="X48" s="2">
-        <v>-8.2502803119999992</v>
+        <v>-8.6970304479999996</v>
       </c>
       <c r="Y48">
-        <v>5.0843408975148503E-3</v>
+        <v>4.2413462417942843E-3</v>
       </c>
       <c r="Z48">
-        <v>-77.182936164740596</v>
+        <v>-53.438936396761562</v>
       </c>
       <c r="AA48">
-        <v>22.12089005090899</v>
+        <v>21.51911591464194</v>
       </c>
       <c r="AB48">
-        <v>-9.1401420243376599</v>
+        <v>-8.2361804841000197</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -4592,40 +4584,40 @@
         <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
         <v>108</v>
       </c>
       <c r="F49" s="2">
-        <v>62.253666666666668</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="G49" s="2">
-        <v>-50.424166666666657</v>
+        <v>-46.654833333333343</v>
       </c>
       <c r="I49" s="2">
-        <v>1.9990344312108901</v>
+        <v>1.933581225</v>
       </c>
       <c r="J49" s="2">
-        <v>1.9767284178603901</v>
+        <v>1.915775719</v>
       </c>
       <c r="K49" s="2">
-        <v>-60.1308368015643</v>
+        <v>-57.092122940000003</v>
       </c>
       <c r="L49" s="2">
-        <v>-45.553354976396001</v>
+        <v>-44.467670589999997</v>
       </c>
       <c r="M49" s="2">
-        <v>376.31784347554401</v>
+        <v>390.4704997</v>
       </c>
       <c r="N49" s="2">
-        <v>-8.6325759175262409</v>
+        <v>-8.8831256790000008</v>
       </c>
       <c r="O49" s="2">
-        <v>31.73</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P49" s="2">
         <v>7.2</v>
@@ -4634,37 +4626,37 @@
         <v>7.2</v>
       </c>
       <c r="R49" s="2">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="S49" s="2">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="T49" s="2">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="U49" s="2">
-        <v>1.926345178</v>
+        <v>1.8509195190000001</v>
       </c>
       <c r="V49" s="2">
-        <v>421.55145099999999</v>
+        <v>421.86555570000002</v>
       </c>
       <c r="W49" s="2">
-        <v>-57.020228029999998</v>
+        <v>-56.159641149999999</v>
       </c>
       <c r="X49" s="2">
-        <v>-8.2502803129999993</v>
+        <v>-8.5407833879999995</v>
       </c>
       <c r="Y49">
-        <v>5.5082743457000724E-3</v>
+        <v>5.7365590205784803E-3</v>
       </c>
       <c r="Z49">
-        <v>-75.798823143129241</v>
+        <v>-61.391920609061287</v>
       </c>
       <c r="AA49">
-        <v>21.029784370028359</v>
+        <v>22.438140294355399</v>
       </c>
       <c r="AB49">
-        <v>-8.742971625631867</v>
+        <v>-8.9751160578809284</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -4672,40 +4664,40 @@
         <v>76</v>
       </c>
       <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
         <v>79</v>
       </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="2">
-        <v>61.009833333333333</v>
+        <v>60.335666666666668</v>
       </c>
       <c r="G50" s="2">
-        <v>-49.375</v>
+        <v>-46.654833333333343</v>
       </c>
       <c r="I50" s="2">
-        <v>1.9324723210000001</v>
+        <v>1.9234748730128699</v>
       </c>
       <c r="J50" s="2">
-        <v>1.926605243</v>
+        <v>1.9190074277425699</v>
       </c>
       <c r="K50" s="2">
-        <v>-55.492311379999997</v>
+        <v>-57.242605782831603</v>
       </c>
       <c r="L50" s="2">
-        <v>-48.639322010000001</v>
+        <v>-50.659678024980103</v>
       </c>
       <c r="M50" s="2">
-        <v>391.95321539999998</v>
+        <v>388.73694286168302</v>
       </c>
       <c r="N50" s="2">
-        <v>-8.3371706069999991</v>
+        <v>-8.2646004734920702</v>
       </c>
       <c r="O50" s="2">
-        <v>32.35</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="P50" s="2">
         <v>7.2</v>
@@ -4714,196 +4706,36 @@
         <v>7.2</v>
       </c>
       <c r="R50" s="2">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="S50" s="2">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="T50" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="U50" s="2">
-        <v>1.9188270700000001</v>
+        <v>1.8509195190000001</v>
       </c>
       <c r="V50" s="2">
-        <v>419.37594689999997</v>
+        <v>421.86555570000002</v>
       </c>
       <c r="W50" s="2">
-        <v>-55.807492770000003</v>
+        <v>-56.15964116</v>
       </c>
       <c r="X50" s="2">
-        <v>-8.6970304479999996</v>
+        <v>-8.5407833889999996</v>
       </c>
       <c r="Y50">
-        <v>4.2413462417942843E-3</v>
+        <v>5.3963960558856454E-3</v>
       </c>
       <c r="Z50">
-        <v>-53.438936396761562</v>
+        <v>-62.551010307907113</v>
       </c>
       <c r="AA50">
-        <v>21.51911591464194</v>
+        <v>21.674671631048842</v>
       </c>
       <c r="AB50">
-        <v>-8.2361804841000197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="2">
-        <v>60.335666666666668</v>
-      </c>
-      <c r="G51" s="2">
-        <v>-46.654833333333343</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1.933581225</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1.915775719</v>
-      </c>
-      <c r="K51" s="2">
-        <v>-57.092122940000003</v>
-      </c>
-      <c r="L51" s="2">
-        <v>-44.467670589999997</v>
-      </c>
-      <c r="M51" s="2">
-        <v>390.4704997</v>
-      </c>
-      <c r="N51" s="2">
-        <v>-8.8831256790000008</v>
-      </c>
-      <c r="O51" s="2">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="P51" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="R51" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="S51" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="T51" s="2">
-        <v>1009</v>
-      </c>
-      <c r="U51" s="2">
-        <v>1.8509195190000001</v>
-      </c>
-      <c r="V51" s="2">
-        <v>421.86555570000002</v>
-      </c>
-      <c r="W51" s="2">
-        <v>-56.159641149999999</v>
-      </c>
-      <c r="X51" s="2">
-        <v>-8.5407833879999995</v>
-      </c>
-      <c r="Y51">
-        <v>5.7365590205784803E-3</v>
-      </c>
-      <c r="Z51">
-        <v>-61.391920609061287</v>
-      </c>
-      <c r="AA51">
-        <v>22.438140294355399</v>
-      </c>
-      <c r="AB51">
-        <v>-8.9751160578809284</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="2">
-        <v>60.335666666666668</v>
-      </c>
-      <c r="G52" s="2">
-        <v>-46.654833333333343</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1.9234748730128699</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1.9190074277425699</v>
-      </c>
-      <c r="K52" s="2">
-        <v>-57.242605782831603</v>
-      </c>
-      <c r="L52" s="2">
-        <v>-50.659678024980103</v>
-      </c>
-      <c r="M52" s="2">
-        <v>388.73694286168302</v>
-      </c>
-      <c r="N52" s="2">
-        <v>-8.2646004734920702</v>
-      </c>
-      <c r="O52" s="2">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="P52" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="R52" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="S52" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="T52" s="2">
-        <v>1009</v>
-      </c>
-      <c r="U52" s="2">
-        <v>1.8509195190000001</v>
-      </c>
-      <c r="V52" s="2">
-        <v>421.86555570000002</v>
-      </c>
-      <c r="W52" s="2">
-        <v>-56.15964116</v>
-      </c>
-      <c r="X52" s="2">
-        <v>-8.5407833889999996</v>
-      </c>
-      <c r="Y52">
-        <v>5.3963960558856454E-3</v>
-      </c>
-      <c r="Z52">
-        <v>-62.551010307907113</v>
-      </c>
-      <c r="AA52">
-        <v>21.674671631048842</v>
-      </c>
-      <c r="AB52">
         <v>-8.187772959868056</v>
       </c>
     </row>

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBA790-29C4-41A6-A066-CB48EE16ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614621D1-46B4-40DF-A082-C91A380B0406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,15 +722,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="6" max="24" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" style="2"/>
+    <col min="9" max="9" width="21.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="28" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" style="2" customWidth="1"/>
+    <col min="14" max="19" width="9.1796875" style="2"/>
+    <col min="20" max="20" width="11.08984375" style="2" customWidth="1"/>
+    <col min="21" max="24" width="9.1796875" style="2"/>
+    <col min="25" max="25" width="17.36328125" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">

--- a/Data/Data_final.xlsx
+++ b/Data/Data_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lolap\OneDrive\Documents\Cours\Master\MA2\Gaz Dissous\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614621D1-46B4-40DF-A082-C91A380B0406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A401143-E5FC-4094-B2E7-86449D522A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
